--- a/Vasey20/N5.xlsx
+++ b/Vasey20/N5.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DFAEF0-FAD0-447F-AEE3-1C67E9914453}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4E53A-9D51-4D28-88B5-7DFDF21AE0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2085" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -839,13 +844,22 @@
   </si>
   <si>
     <t>-100211-3A Spot 143</t>
+  </si>
+  <si>
+    <t>238 Error</t>
+  </si>
+  <si>
+    <t>206 Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +876,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -884,11 +903,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,20 +1225,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1248,14 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1265,14 @@
       <c r="C2" s="2">
         <v>399.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4">
+        <v>2.6434477125329892</v>
+      </c>
+      <c r="E2" s="4">
+        <v>29.623927932899505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1248,8 +1282,14 @@
       <c r="C3" s="2">
         <v>262.39999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4">
+        <v>3.394131323234717</v>
+      </c>
+      <c r="E3" s="4">
+        <v>21.770656817354009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1259,8 +1299,14 @@
       <c r="C4" s="2">
         <v>311.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4">
+        <v>2.5338860689790152</v>
+      </c>
+      <c r="E4" s="4">
+        <v>26.29024853910451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1270,8 +1316,14 @@
       <c r="C5" s="2">
         <v>571</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4">
+        <v>3.5726079783873388</v>
+      </c>
+      <c r="E5" s="4">
+        <v>35.473932663639914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1281,8 +1333,14 @@
       <c r="C6" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4">
+        <v>3.9285439957256756</v>
+      </c>
+      <c r="E6" s="4">
+        <v>19.110554454563925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1292,8 +1350,14 @@
       <c r="C7" s="2">
         <v>328.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4">
+        <v>2.8859443782799872</v>
+      </c>
+      <c r="E7" s="4">
+        <v>32.523472700645044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1303,8 +1367,14 @@
       <c r="C8" s="2">
         <v>458.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="4">
+        <v>4.1181427810591629</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44.070768225768035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1384,14 @@
       <c r="C9" s="2">
         <v>272.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4">
+        <v>3.205861927447927</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20.139819451432757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,8 +1401,14 @@
       <c r="C10" s="2">
         <v>295.89999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="4">
+        <v>3.8208875470296277</v>
+      </c>
+      <c r="E10" s="4">
+        <v>17.2941535505594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1336,8 +1418,14 @@
       <c r="C11" s="2">
         <v>288.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4">
+        <v>4.0969878862567555</v>
+      </c>
+      <c r="E11" s="4">
+        <v>22.172262985495877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,8 +1435,14 @@
       <c r="C12" s="2">
         <v>208.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4">
+        <v>2.6220382129131394</v>
+      </c>
+      <c r="E12" s="4">
+        <v>27.748609645513284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1358,8 +1452,14 @@
       <c r="C13" s="2">
         <v>248.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4">
+        <v>4.4070150570223348</v>
+      </c>
+      <c r="E13" s="4">
+        <v>54.969381244729448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1469,14 @@
       <c r="C14" s="2">
         <v>326.89999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4">
+        <v>2.4205866257437947</v>
+      </c>
+      <c r="E14" s="4">
+        <v>27.275568347094577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,8 +1486,14 @@
       <c r="C15" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4">
+        <v>2.9893283712211769</v>
+      </c>
+      <c r="E15" s="4">
+        <v>23.909467950166416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1391,8 +1503,14 @@
       <c r="C16" s="2">
         <v>334.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4">
+        <v>3.9070259778237642</v>
+      </c>
+      <c r="E16" s="4">
+        <v>24.175749459294138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1402,8 +1520,14 @@
       <c r="C17" s="2">
         <v>322.89999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4">
+        <v>3.3737971417607469</v>
+      </c>
+      <c r="E17" s="4">
+        <v>26.466603938358588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1413,8 +1537,14 @@
       <c r="C18" s="2">
         <v>352.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4">
+        <v>3.6680210013272472</v>
+      </c>
+      <c r="E18" s="4">
+        <v>21.722221288620005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1424,8 +1554,14 @@
       <c r="C19" s="2">
         <v>296.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4">
+        <v>3.1535464232771915</v>
+      </c>
+      <c r="E19" s="4">
+        <v>19.600499824343473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1435,8 +1571,14 @@
       <c r="C20" s="2">
         <v>305.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4">
+        <v>3.0188804737530006</v>
+      </c>
+      <c r="E20" s="4">
+        <v>19.968055957213863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1446,8 +1588,14 @@
       <c r="C21" s="2">
         <v>321.89999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="4">
+        <v>3.1109928445447395</v>
+      </c>
+      <c r="E21" s="4">
+        <v>18.408338037576584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1457,8 +1605,14 @@
       <c r="C22" s="2">
         <v>375.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="4">
+        <v>4.5466826532644973</v>
+      </c>
+      <c r="E22" s="4">
+        <v>28.922552918493068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1468,8 +1622,14 @@
       <c r="C23" s="2">
         <v>261.10000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="4">
+        <v>3.2164147753011321</v>
+      </c>
+      <c r="E23" s="4">
+        <v>25.245343505349965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,8 +1639,14 @@
       <c r="C24" s="2">
         <v>260.60000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="4">
+        <v>3.2398997390604052</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23.945324587163839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,8 +1656,14 @@
       <c r="C25" s="2">
         <v>252.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="4">
+        <v>3.0974411463608931</v>
+      </c>
+      <c r="E25" s="4">
+        <v>17.019356646074428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1501,8 +1673,14 @@
       <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="4">
+        <v>4.0689277441841796</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1512,8 +1690,14 @@
       <c r="C27" s="2">
         <v>328</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="4">
+        <v>3.5213396052507164</v>
+      </c>
+      <c r="E27" s="4">
+        <v>27.269537444847856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1523,8 +1707,14 @@
       <c r="C28" s="2">
         <v>273.60000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="4">
+        <v>2.651978018626437</v>
+      </c>
+      <c r="E28" s="4">
+        <v>19.348284170169379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1534,8 +1724,14 @@
       <c r="C29" s="2">
         <v>390</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="4">
+        <v>7.8564202825762379</v>
+      </c>
+      <c r="E29" s="4">
+        <v>21.77814341887111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1545,8 +1741,14 @@
       <c r="C30" s="2">
         <v>291.10000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="4">
+        <v>4.3566552918750858</v>
+      </c>
+      <c r="E30" s="4">
+        <v>16.582001537428226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1556,8 +1758,14 @@
       <c r="C31" s="2">
         <v>297.89999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="4">
+        <v>3.2482752715720835</v>
+      </c>
+      <c r="E31" s="4">
+        <v>25.406743786075253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1567,8 +1775,14 @@
       <c r="C32" s="2">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="4">
+        <v>3.8075412680348393</v>
+      </c>
+      <c r="E32" s="4">
+        <v>21.867563092732269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1578,8 +1792,14 @@
       <c r="C33" s="2">
         <v>303.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="4">
+        <v>4.7389173796611317</v>
+      </c>
+      <c r="E33" s="4">
+        <v>21.567560479466522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1589,8 +1809,14 @@
       <c r="C34" s="2">
         <v>2568.1999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="4">
+        <v>4.2185585047933216</v>
+      </c>
+      <c r="E34" s="4">
+        <v>204.60033038959637</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1600,8 +1826,14 @@
       <c r="C35" s="2">
         <v>1586.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="4">
+        <v>4.1358382460631731</v>
+      </c>
+      <c r="E35" s="4">
+        <v>46.61590012832221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1611,8 +1843,14 @@
       <c r="C36" s="2">
         <v>309.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="4">
+        <v>3.4002496895870422</v>
+      </c>
+      <c r="E36" s="4">
+        <v>16.22292532925519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1622,8 +1860,14 @@
       <c r="C37" s="2">
         <v>136.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4">
+        <v>3.8352339929171819</v>
+      </c>
+      <c r="E37" s="4">
+        <v>82.81530947356913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1633,8 +1877,14 @@
       <c r="C38" s="2">
         <v>925.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="4">
+        <v>6.06997850363868</v>
+      </c>
+      <c r="E38" s="4">
+        <v>156.41098156871396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1644,8 +1894,14 @@
       <c r="C39" s="2">
         <v>315.39999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="4">
+        <v>3.1774191962163627</v>
+      </c>
+      <c r="E39" s="4">
+        <v>19.951469107360111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1655,8 +1911,14 @@
       <c r="C40" s="2">
         <v>467.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="4">
+        <v>3.1140177639995841</v>
+      </c>
+      <c r="E40" s="4">
+        <v>29.611947928624573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1666,8 +1928,14 @@
       <c r="C41" s="2">
         <v>290</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="4">
+        <v>8.2878427230424734</v>
+      </c>
+      <c r="E41" s="4">
+        <v>21.356991632848121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1677,8 +1945,14 @@
       <c r="C42" s="2">
         <v>353.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="4">
+        <v>4.3449276089331477</v>
+      </c>
+      <c r="E42" s="4">
+        <v>16.899243618724967</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1688,8 +1962,14 @@
       <c r="C43" s="2">
         <v>409.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="4">
+        <v>3.5927057036641941</v>
+      </c>
+      <c r="E43" s="4">
+        <v>16.995612598632903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1699,8 +1979,14 @@
       <c r="C44" s="2">
         <v>512.20000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="4">
+        <v>4.3114494816786362</v>
+      </c>
+      <c r="E44" s="4">
+        <v>71.710492177213439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -1710,8 +1996,14 @@
       <c r="C45" s="2">
         <v>330.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="4">
+        <v>3.4073390619296333</v>
+      </c>
+      <c r="E45" s="4">
+        <v>25.218846753748949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -1721,8 +2013,14 @@
       <c r="C46" s="2">
         <v>311.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="4">
+        <v>4.671267848479431</v>
+      </c>
+      <c r="E46" s="4">
+        <v>18.892269820044078</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -1732,8 +2030,14 @@
       <c r="C47" s="2">
         <v>343.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="4">
+        <v>4.7970432584749858</v>
+      </c>
+      <c r="E47" s="4">
+        <v>22.572589800801865</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1743,8 +2047,14 @@
       <c r="C48" s="2">
         <v>465.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="4">
+        <v>4.4799164137809555</v>
+      </c>
+      <c r="E48" s="4">
+        <v>26.944083717431681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -1754,8 +2064,14 @@
       <c r="C49" s="2">
         <v>300.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="4">
+        <v>3.9541661000126567</v>
+      </c>
+      <c r="E49" s="4">
+        <v>30.117840118377075</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -1765,8 +2081,14 @@
       <c r="C50" s="2">
         <v>303.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="4">
+        <v>3.8933469115102071</v>
+      </c>
+      <c r="E50" s="4">
+        <v>26.113504086333307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1776,8 +2098,14 @@
       <c r="C51" s="2">
         <v>319.39999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="4">
+        <v>4.2289103467805376</v>
+      </c>
+      <c r="E51" s="4">
+        <v>29.475056973590881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -1787,8 +2115,14 @@
       <c r="C52" s="2">
         <v>617.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="4">
+        <v>9.7352605654144497</v>
+      </c>
+      <c r="E52" s="4">
+        <v>55.342461171682146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -1798,8 +2132,14 @@
       <c r="C53" s="2">
         <v>319.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="4">
+        <v>3.6731307733532503</v>
+      </c>
+      <c r="E53" s="4">
+        <v>30.590438647515811</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -1809,8 +2149,14 @@
       <c r="C54" s="2">
         <v>327.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="4">
+        <v>3.8548157597372779</v>
+      </c>
+      <c r="E54" s="4">
+        <v>19.915472470926545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -1820,8 +2166,14 @@
       <c r="C55" s="2">
         <v>348.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="4">
+        <v>5.8284443110960353</v>
+      </c>
+      <c r="E55" s="4">
+        <v>23.659587315034145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1831,8 +2183,14 @@
       <c r="C56" s="2">
         <v>224.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="4">
+        <v>4.4981834224159343</v>
+      </c>
+      <c r="E56" s="4">
+        <v>54.60193303929799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -1842,8 +2200,14 @@
       <c r="C57" s="2">
         <v>335</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="4">
+        <v>3.7296358494843673</v>
+      </c>
+      <c r="E57" s="4">
+        <v>20.365036072578732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -1853,8 +2217,14 @@
       <c r="C58" s="2">
         <v>615.70000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="4">
+        <v>4.9780970881103883</v>
+      </c>
+      <c r="E58" s="4">
+        <v>47.474289553946619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -1864,8 +2234,14 @@
       <c r="C59" s="2">
         <v>363.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="4">
+        <v>3.8937070376763359</v>
+      </c>
+      <c r="E59" s="4">
+        <v>27.272926246177178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -1875,8 +2251,14 @@
       <c r="C60" s="2">
         <v>852.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="4">
+        <v>18.294935158353837</v>
+      </c>
+      <c r="E60" s="4">
+        <v>85.743361582030275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -1886,8 +2268,14 @@
       <c r="C61" s="2">
         <v>363</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="4">
+        <v>5.8461445597443173</v>
+      </c>
+      <c r="E61" s="4">
+        <v>26.885004591244609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -1897,8 +2285,14 @@
       <c r="C62" s="2">
         <v>753.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="4">
+        <v>6.505967177126962</v>
+      </c>
+      <c r="E62" s="4">
+        <v>64.402625428696069</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -1908,8 +2302,14 @@
       <c r="C63" s="2">
         <v>1469.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="4">
+        <v>4.1017873773507745</v>
+      </c>
+      <c r="E63" s="4">
+        <v>95.700920554462982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -1919,8 +2319,14 @@
       <c r="C64" s="2">
         <v>360.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="4">
+        <v>4.1431847722861903</v>
+      </c>
+      <c r="E64" s="4">
+        <v>31.24967291885676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -1930,8 +2336,14 @@
       <c r="C65" s="2">
         <v>343.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="4">
+        <v>3.638141799144762</v>
+      </c>
+      <c r="E65" s="4">
+        <v>37.552677734283492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -1941,8 +2353,14 @@
       <c r="C66" s="2">
         <v>413</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="4">
+        <v>3.8326121229579826</v>
+      </c>
+      <c r="E66" s="4">
+        <v>25.814198856356001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -1952,8 +2370,14 @@
       <c r="C67" s="2">
         <v>359</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="4">
+        <v>3.8843391668904985</v>
+      </c>
+      <c r="E67" s="4">
+        <v>27.513050028994883</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -1963,8 +2387,14 @@
       <c r="C68" s="2">
         <v>382.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="4">
+        <v>3.7232995320414659</v>
+      </c>
+      <c r="E68" s="4">
+        <v>32.474753286641317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -1974,8 +2404,14 @@
       <c r="C69" s="2">
         <v>461.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="4">
+        <v>3.5052130890038597</v>
+      </c>
+      <c r="E69" s="4">
+        <v>33.125644475293655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -1985,8 +2421,14 @@
       <c r="C70" s="2">
         <v>370.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="4">
+        <v>4.070426945509098</v>
+      </c>
+      <c r="E70" s="4">
+        <v>44.059586827493689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -1996,8 +2438,14 @@
       <c r="C71" s="2">
         <v>409.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="4">
+        <v>3.0263853939093224</v>
+      </c>
+      <c r="E71" s="4">
+        <v>20.139634520297648</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -2007,8 +2455,14 @@
       <c r="C72" s="2">
         <v>335</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="4">
+        <v>3.9463673867521436</v>
+      </c>
+      <c r="E72" s="4">
+        <v>17.290338475387699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -2018,8 +2472,14 @@
       <c r="C73" s="2">
         <v>401.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="4">
+        <v>3.6177510503224539</v>
+      </c>
+      <c r="E73" s="4">
+        <v>20.755308264779273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2029,8 +2489,14 @@
       <c r="C74" s="2">
         <v>383.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="4">
+        <v>2.725274860473121</v>
+      </c>
+      <c r="E74" s="4">
+        <v>19.816981247138131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2040,8 +2506,14 @@
       <c r="C75" s="2">
         <v>391.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="4">
+        <v>5.7864594161067657</v>
+      </c>
+      <c r="E75" s="4">
+        <v>29.52885130898153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -2051,8 +2523,14 @@
       <c r="C76" s="2">
         <v>302.89999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="4">
+        <v>3.9358804451648552</v>
+      </c>
+      <c r="E76" s="4">
+        <v>21.975516679515266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -2062,8 +2540,14 @@
       <c r="C77" s="2">
         <v>324.60000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="4">
+        <v>4.332666470712951</v>
+      </c>
+      <c r="E77" s="4">
+        <v>31.743349635270391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -2073,8 +2557,14 @@
       <c r="C78" s="2">
         <v>364.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="4">
+        <v>4.3760952905196575</v>
+      </c>
+      <c r="E78" s="4">
+        <v>15.673046800538998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -2084,8 +2574,14 @@
       <c r="C79" s="2">
         <v>434.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="4">
+        <v>4.6931845699365624</v>
+      </c>
+      <c r="E79" s="4">
+        <v>85.320329196985455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -2095,8 +2591,14 @@
       <c r="C80" s="2">
         <v>603.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="4">
+        <v>4.389934783607174</v>
+      </c>
+      <c r="E80" s="4">
+        <v>45.038913060029984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -2106,8 +2608,14 @@
       <c r="C81" s="2">
         <v>378.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="4">
+        <v>3.6440481377094045</v>
+      </c>
+      <c r="E81" s="4">
+        <v>22.790498196079028</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -2117,8 +2625,14 @@
       <c r="C82" s="2">
         <v>340.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="4">
+        <v>4.7326284803903889</v>
+      </c>
+      <c r="E82" s="4">
+        <v>19.815891497343813</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -2128,8 +2642,14 @@
       <c r="C83" s="2">
         <v>308.89999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="4">
+        <v>3.7543150346689913</v>
+      </c>
+      <c r="E83" s="4">
+        <v>30.701302434775613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -2139,8 +2659,14 @@
       <c r="C84" s="2">
         <v>367.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="4">
+        <v>4.1114125494395353</v>
+      </c>
+      <c r="E84" s="4">
+        <v>21.924619126883783</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -2150,8 +2676,14 @@
       <c r="C85" s="2">
         <v>419.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="4">
+        <v>9.610038624786057</v>
+      </c>
+      <c r="E85" s="4">
+        <v>29.99045922093913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -2161,8 +2693,14 @@
       <c r="C86" s="2">
         <v>319.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="4">
+        <v>4.0288256066809254</v>
+      </c>
+      <c r="E86" s="4">
+        <v>30.331541891807575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -2172,8 +2710,14 @@
       <c r="C87" s="2">
         <v>382.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="4">
+        <v>4.8388562291996209</v>
+      </c>
+      <c r="E87" s="4">
+        <v>28.198658684383133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -2183,8 +2727,14 @@
       <c r="C88" s="2">
         <v>388.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="4">
+        <v>3.8531790200705132</v>
+      </c>
+      <c r="E88" s="4">
+        <v>33.270564758313157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -2194,8 +2744,14 @@
       <c r="C89" s="2">
         <v>394.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="4">
+        <v>3.6809128127953556</v>
+      </c>
+      <c r="E89" s="4">
+        <v>24.738600090594048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -2205,8 +2761,14 @@
       <c r="C90" s="2">
         <v>407.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="4">
+        <v>4.4044789949689971</v>
+      </c>
+      <c r="E90" s="4">
+        <v>23.403955413671241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -2216,8 +2778,14 @@
       <c r="C91" s="2">
         <v>658.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="4">
+        <v>3.7719486396030959</v>
+      </c>
+      <c r="E91" s="4">
+        <v>34.826469402092243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -2227,8 +2795,14 @@
       <c r="C92" s="2">
         <v>351.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="4">
+        <v>4.3535816008080133</v>
+      </c>
+      <c r="E92" s="4">
+        <v>16.587625798333846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -2238,8 +2812,14 @@
       <c r="C93" s="2">
         <v>351.1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="4">
+        <v>4.9693812298343687</v>
+      </c>
+      <c r="E93" s="4">
+        <v>22.290620368000418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -2249,8 +2829,14 @@
       <c r="C94" s="2">
         <v>365.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="4">
+        <v>3.3715377165847826</v>
+      </c>
+      <c r="E94" s="4">
+        <v>29.090996607739271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -2260,8 +2846,14 @@
       <c r="C95" s="2">
         <v>412.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="4">
+        <v>4.901394577480346</v>
+      </c>
+      <c r="E95" s="4">
+        <v>57.923191274256226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -2271,8 +2863,14 @@
       <c r="C96" s="2">
         <v>1597.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="4">
+        <v>8.9393006680091389</v>
+      </c>
+      <c r="E96" s="4">
+        <v>224.53009632671626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -2282,8 +2880,14 @@
       <c r="C97" s="2">
         <v>1056</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="4">
+        <v>5.5864927551829737</v>
+      </c>
+      <c r="E97" s="4">
+        <v>63.238365723964819</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -2293,8 +2897,14 @@
       <c r="C98" s="2">
         <v>421.7</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="4">
+        <v>5.0831569166706458</v>
+      </c>
+      <c r="E98" s="4">
+        <v>33.546612001055166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -2304,8 +2914,14 @@
       <c r="C99" s="2">
         <v>337.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="4">
+        <v>5.227586308443108</v>
+      </c>
+      <c r="E99" s="4">
+        <v>23.017043154079118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -2315,8 +2931,14 @@
       <c r="C100" s="2">
         <v>510.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="4">
+        <v>4.8092266594858586</v>
+      </c>
+      <c r="E100" s="4">
+        <v>18.490385413580725</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -2326,8 +2948,14 @@
       <c r="C101" s="2">
         <v>602.79999999999995</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="4">
+        <v>3.9738438256234758</v>
+      </c>
+      <c r="E101" s="4">
+        <v>31.419766577454141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -2337,8 +2965,14 @@
       <c r="C102" s="2">
         <v>402.9</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="4">
+        <v>4.3929313644567003</v>
+      </c>
+      <c r="E102" s="4">
+        <v>22.220526665160918</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -2348,8 +2982,14 @@
       <c r="C103" s="2">
         <v>537.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="4">
+        <v>4.0917576896523826</v>
+      </c>
+      <c r="E103" s="4">
+        <v>44.887872840450143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -2359,8 +2999,14 @@
       <c r="C104" s="2">
         <v>392.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="4">
+        <v>6.5566469871472179</v>
+      </c>
+      <c r="E104" s="4">
+        <v>22.862699121938704</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -2370,8 +3016,14 @@
       <c r="C105" s="2">
         <v>419.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="4">
+        <v>5.530866924081522</v>
+      </c>
+      <c r="E105" s="4">
+        <v>21.368078257166445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -2381,8 +3033,14 @@
       <c r="C106" s="2">
         <v>382.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="4">
+        <v>4.7942448255007264</v>
+      </c>
+      <c r="E106" s="4">
+        <v>17.513503663519231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -2392,8 +3050,14 @@
       <c r="C107" s="2">
         <v>505.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="4">
+        <v>6.7953569988031575</v>
+      </c>
+      <c r="E107" s="4">
+        <v>44.417196659710271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -2403,8 +3067,14 @@
       <c r="C108" s="2">
         <v>701.1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="4">
+        <v>5.5769092800667863</v>
+      </c>
+      <c r="E108" s="4">
+        <v>18.36954844492351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -2414,8 +3084,14 @@
       <c r="C109" s="2">
         <v>523.29999999999995</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="4">
+        <v>4.8690739535230705</v>
+      </c>
+      <c r="E109" s="4">
+        <v>46.164346802516178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -2425,8 +3101,14 @@
       <c r="C110" s="2">
         <v>544.70000000000005</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="4">
+        <v>5.514823190327462</v>
+      </c>
+      <c r="E110" s="4">
+        <v>27.720401292157248</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -2436,8 +3118,14 @@
       <c r="C111" s="2">
         <v>272.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="4">
+        <v>4.9514989304734058</v>
+      </c>
+      <c r="E111" s="4">
+        <v>26.000389468126428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -2447,8 +3135,14 @@
       <c r="C112" s="2">
         <v>547.20000000000005</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="4">
+        <v>3.8848192598408389</v>
+      </c>
+      <c r="E112" s="4">
+        <v>23.926962982089833</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -2458,8 +3152,14 @@
       <c r="C113" s="2">
         <v>425.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="4">
+        <v>3.7895074973058911</v>
+      </c>
+      <c r="E113" s="4">
+        <v>53.108379560323812</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -2469,8 +3169,14 @@
       <c r="C114" s="2">
         <v>611.20000000000005</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="4">
+        <v>5.0226500538688583</v>
+      </c>
+      <c r="E114" s="4">
+        <v>44.992849207084873</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -2480,8 +3186,14 @@
       <c r="C115" s="2">
         <v>434.7</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="4">
+        <v>4.6581226294823352</v>
+      </c>
+      <c r="E115" s="4">
+        <v>19.023119055137158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -2491,8 +3203,14 @@
       <c r="C116" s="2">
         <v>453.9</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="4">
+        <v>5.505609312509705</v>
+      </c>
+      <c r="E116" s="4">
+        <v>17.622374278862196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -2502,8 +3220,14 @@
       <c r="C117" s="2">
         <v>539.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="4">
+        <v>3.70277465023986</v>
+      </c>
+      <c r="E117" s="4">
+        <v>35.138245228042194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -2513,8 +3237,14 @@
       <c r="C118" s="2">
         <v>410.1</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="4">
+        <v>4.0734096105319963</v>
+      </c>
+      <c r="E118" s="4">
+        <v>33.278599066189486</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -2524,8 +3254,14 @@
       <c r="C119" s="2">
         <v>445.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="4">
+        <v>4.8169933764102382</v>
+      </c>
+      <c r="E119" s="4">
+        <v>29.489970931920396</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -2535,8 +3271,14 @@
       <c r="C120" s="2">
         <v>433.6</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="4">
+        <v>5.0013224148286213</v>
+      </c>
+      <c r="E120" s="4">
+        <v>18.258812880695643</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -2546,8 +3288,14 @@
       <c r="C121" s="2">
         <v>556.79999999999995</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="4">
+        <v>4.3326423076510707</v>
+      </c>
+      <c r="E121" s="4">
+        <v>36.046461093497953</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -2557,8 +3305,14 @@
       <c r="C122" s="2">
         <v>389.1</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="4">
+        <v>3.2674843408595393</v>
+      </c>
+      <c r="E122" s="4">
+        <v>22.337970873254079</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -2568,8 +3322,14 @@
       <c r="C123" s="2">
         <v>593.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="4">
+        <v>3.9547099169137994</v>
+      </c>
+      <c r="E123" s="4">
+        <v>42.555638847388707</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -2579,8 +3339,14 @@
       <c r="C124" s="2">
         <v>409.2</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="4">
+        <v>4.8149670185763966</v>
+      </c>
+      <c r="E124" s="4">
+        <v>20.156673916925968</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -2590,8 +3356,14 @@
       <c r="C125" s="2">
         <v>446.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="4">
+        <v>4.7007960000520086</v>
+      </c>
+      <c r="E125" s="4">
+        <v>29.373111488357665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -2601,8 +3373,14 @@
       <c r="C126" s="2">
         <v>489.1</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="4">
+        <v>6.6114735193583272</v>
+      </c>
+      <c r="E126" s="4">
+        <v>23.089841529354942</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -2612,8 +3390,14 @@
       <c r="C127" s="2">
         <v>397.9</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="4">
+        <v>5.5974993577278838</v>
+      </c>
+      <c r="E127" s="4">
+        <v>39.562628981250526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -2623,8 +3407,14 @@
       <c r="C128" s="2">
         <v>444.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="4">
+        <v>4.7128150646199742</v>
+      </c>
+      <c r="E128" s="4">
+        <v>23.999621860316381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -2634,8 +3424,14 @@
       <c r="C129" s="2">
         <v>411.3</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="4">
+        <v>3.7300286838543286</v>
+      </c>
+      <c r="E129" s="4">
+        <v>15.40417249602578</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -2645,8 +3441,14 @@
       <c r="C130" s="2">
         <v>439.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="4">
+        <v>4.8903682842788498</v>
+      </c>
+      <c r="E130" s="4">
+        <v>22.813318265349238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -2656,8 +3458,14 @@
       <c r="C131" s="2">
         <v>439.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="4">
+        <v>6.5035976694790349</v>
+      </c>
+      <c r="E131" s="4">
+        <v>21.23169424473943</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -2667,8 +3475,14 @@
       <c r="C132" s="2">
         <v>465</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="4">
+        <v>4.4352712910785499</v>
+      </c>
+      <c r="E132" s="4">
+        <v>23.154843360402765</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -2678,8 +3492,14 @@
       <c r="C133" s="2">
         <v>426.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="4">
+        <v>3.6832511706297453</v>
+      </c>
+      <c r="E133" s="4">
+        <v>20.725466195381898</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -2689,8 +3509,14 @@
       <c r="C134" s="2">
         <v>436.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="4">
+        <v>3.5173515413344205</v>
+      </c>
+      <c r="E134" s="4">
+        <v>24.087000986241122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -2700,8 +3526,14 @@
       <c r="C135" s="2">
         <v>441</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="4">
+        <v>4.6941470650318706</v>
+      </c>
+      <c r="E135" s="4">
+        <v>22.278194499723725</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -2711,8 +3543,14 @@
       <c r="C136" s="2">
         <v>463.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="4">
+        <v>6.2132997427391388</v>
+      </c>
+      <c r="E136" s="4">
+        <v>14.674898654223853</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -2722,8 +3560,14 @@
       <c r="C137" s="2">
         <v>477.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="4">
+        <v>5.1465180207181618</v>
+      </c>
+      <c r="E137" s="4">
+        <v>16.246308292862494</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -2733,8 +3577,14 @@
       <c r="C138" s="2">
         <v>435.8</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="4">
+        <v>5.7403948390059156</v>
+      </c>
+      <c r="E138" s="4">
+        <v>24.340569980512157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -2744,8 +3594,14 @@
       <c r="C139" s="2">
         <v>440.7</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="4">
+        <v>5.2119198078937927</v>
+      </c>
+      <c r="E139" s="4">
+        <v>40.213672239333135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -2755,8 +3611,14 @@
       <c r="C140" s="2">
         <v>471.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="4">
+        <v>5.6349666814561203</v>
+      </c>
+      <c r="E140" s="4">
+        <v>20.954691141807729</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -2766,8 +3628,14 @@
       <c r="C141" s="2">
         <v>448.2</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="4">
+        <v>5.2782577385815443</v>
+      </c>
+      <c r="E141" s="4">
+        <v>20.690167702321673</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -2777,8 +3645,14 @@
       <c r="C142" s="2">
         <v>444.8</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="4">
+        <v>6.5742838808039892</v>
+      </c>
+      <c r="E142" s="4">
+        <v>27.805268608836144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -2788,8 +3662,14 @@
       <c r="C143" s="2">
         <v>441.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="4">
+        <v>4.6020185912978775</v>
+      </c>
+      <c r="E143" s="4">
+        <v>18.594861921007293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -2799,8 +3679,14 @@
       <c r="C144" s="2">
         <v>446</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="4">
+        <v>5.7690743976825729</v>
+      </c>
+      <c r="E144" s="4">
+        <v>21.751491259941275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -2810,8 +3696,14 @@
       <c r="C145" s="2">
         <v>422.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="4">
+        <v>5.3411494666781039</v>
+      </c>
+      <c r="E145" s="4">
+        <v>15.587620107806515</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -2821,8 +3713,14 @@
       <c r="C146" s="2">
         <v>452.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="4">
+        <v>5.0393403978650326</v>
+      </c>
+      <c r="E146" s="4">
+        <v>24.10333010122821</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
@@ -2832,8 +3730,14 @@
       <c r="C147" s="2">
         <v>443.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="4">
+        <v>4.7605659882341058</v>
+      </c>
+      <c r="E147" s="4">
+        <v>19.22118136618289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
@@ -2843,8 +3747,14 @@
       <c r="C148" s="2">
         <v>466.3</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="4">
+        <v>6.5416177971406739</v>
+      </c>
+      <c r="E148" s="4">
+        <v>23.02325117293978</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
@@ -2854,8 +3764,14 @@
       <c r="C149" s="2">
         <v>466.8</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="4">
+        <v>5.0071007401005545</v>
+      </c>
+      <c r="E149" s="4">
+        <v>20.416990280192039</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
@@ -2865,8 +3781,14 @@
       <c r="C150" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="4">
+        <v>7.7315609984693197</v>
+      </c>
+      <c r="E150" s="4">
+        <v>26.398023488540758</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -2876,8 +3798,14 @@
       <c r="C151" s="2">
         <v>463.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="4">
+        <v>6.9749889620562158</v>
+      </c>
+      <c r="E151" s="4">
+        <v>27.318962936912044</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -2887,8 +3815,14 @@
       <c r="C152" s="2">
         <v>515.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="4">
+        <v>6.4884864397073727</v>
+      </c>
+      <c r="E152" s="4">
+        <v>24.765447623533902</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
@@ -2898,8 +3832,14 @@
       <c r="C153" s="2">
         <v>454.2</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="4">
+        <v>5.2508678588285136</v>
+      </c>
+      <c r="E153" s="4">
+        <v>18.849219342129032</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
@@ -2909,8 +3849,14 @@
       <c r="C154" s="2">
         <v>455.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="4">
+        <v>4.3754413242347141</v>
+      </c>
+      <c r="E154" s="4">
+        <v>19.281868490277901</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
@@ -2920,8 +3866,14 @@
       <c r="C155" s="2">
         <v>468.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="4">
+        <v>4.9539627085370057</v>
+      </c>
+      <c r="E155" s="4">
+        <v>24.556449066365246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -2931,8 +3883,14 @@
       <c r="C156" s="2">
         <v>537.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="4">
+        <v>6.7352754620255553</v>
+      </c>
+      <c r="E156" s="4">
+        <v>15.768897547941322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -2942,8 +3900,14 @@
       <c r="C157" s="2">
         <v>434</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="4">
+        <v>6.3801499806198763</v>
+      </c>
+      <c r="E157" s="4">
+        <v>17.755409846891439</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -2953,8 +3917,14 @@
       <c r="C158" s="2">
         <v>538.4</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="4">
+        <v>4.927614265811485</v>
+      </c>
+      <c r="E158" s="4">
+        <v>27.814770648432557</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -2964,8 +3934,14 @@
       <c r="C159" s="2">
         <v>473.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="4">
+        <v>5.3752223781118289</v>
+      </c>
+      <c r="E159" s="4">
+        <v>23.545908114165286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -2975,8 +3951,14 @@
       <c r="C160" s="2">
         <v>463.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="4">
+        <v>5.2390100113875633</v>
+      </c>
+      <c r="E160" s="4">
+        <v>22.866646673140679</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -2986,8 +3968,14 @@
       <c r="C161" s="2">
         <v>464.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="4">
+        <v>5.2923386697873696</v>
+      </c>
+      <c r="E161" s="4">
+        <v>16.02648175150054</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -2997,8 +3985,14 @@
       <c r="C162" s="2">
         <v>461.1</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="4">
+        <v>5.5626684208680786</v>
+      </c>
+      <c r="E162" s="4">
+        <v>17.386198001996974</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -3008,8 +4002,14 @@
       <c r="C163" s="2">
         <v>558</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="4">
+        <v>6.8945938087991294</v>
+      </c>
+      <c r="E163" s="4">
+        <v>22.805232219174172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -3019,8 +4019,14 @@
       <c r="C164" s="2">
         <v>467.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="4">
+        <v>6.6751607071592787</v>
+      </c>
+      <c r="E164" s="4">
+        <v>21.682000491369308</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -3030,8 +4036,14 @@
       <c r="C165" s="2">
         <v>459.7</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="4">
+        <v>6.0221038530401074</v>
+      </c>
+      <c r="E165" s="4">
+        <v>20.51927259064945</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -3041,8 +4053,14 @@
       <c r="C166" s="2">
         <v>457.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="4">
+        <v>6.2943126894265333</v>
+      </c>
+      <c r="E166" s="4">
+        <v>19.572417894126914</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -3052,8 +4070,14 @@
       <c r="C167" s="2">
         <v>556.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="4">
+        <v>7.4322558341094123</v>
+      </c>
+      <c r="E167" s="4">
+        <v>24.565448746812194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -3063,8 +4087,14 @@
       <c r="C168" s="2">
         <v>481.6</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="4">
+        <v>7.1450661509375095</v>
+      </c>
+      <c r="E168" s="4">
+        <v>26.935777265853687</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -3074,8 +4104,14 @@
       <c r="C169" s="2">
         <v>519.9</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="4">
+        <v>14.091875416179022</v>
+      </c>
+      <c r="E169" s="4">
+        <v>26.103299998085134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -3085,8 +4121,14 @@
       <c r="C170" s="2">
         <v>489.4</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="4">
+        <v>5.1877919216810824</v>
+      </c>
+      <c r="E170" s="4">
+        <v>11.619025987519905</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -3096,8 +4138,14 @@
       <c r="C171" s="2">
         <v>550.6</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="4">
+        <v>6.4883383388531684</v>
+      </c>
+      <c r="E171" s="4">
+        <v>19.404343644967469</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -3107,8 +4155,14 @@
       <c r="C172" s="2">
         <v>572.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="4">
+        <v>5.8584180787750597</v>
+      </c>
+      <c r="E172" s="4">
+        <v>21.459223516357383</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -3118,8 +4172,14 @@
       <c r="C173" s="2">
         <v>529.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="4">
+        <v>5.6735181644757517</v>
+      </c>
+      <c r="E173" s="4">
+        <v>18.146034588186552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -3129,8 +4189,14 @@
       <c r="C174" s="2">
         <v>543.79999999999995</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="4">
+        <v>6.1253330872080483</v>
+      </c>
+      <c r="E174" s="4">
+        <v>17.717277981968778</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -3140,8 +4206,14 @@
       <c r="C175" s="2">
         <v>655.1</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="4">
+        <v>6.365229477243588</v>
+      </c>
+      <c r="E175" s="4">
+        <v>21.41817131331328</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -3151,8 +4223,14 @@
       <c r="C176" s="2">
         <v>611.1</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="4">
+        <v>7.1379597583630812</v>
+      </c>
+      <c r="E176" s="4">
+        <v>18.78636947856495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -3162,8 +4240,14 @@
       <c r="C177" s="2">
         <v>693.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="4">
+        <v>4.9967321277836731</v>
+      </c>
+      <c r="E177" s="4">
+        <v>21.846162484175011</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -3173,8 +4257,14 @@
       <c r="C178" s="2">
         <v>694.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="4">
+        <v>7.2428466654754402</v>
+      </c>
+      <c r="E178" s="4">
+        <v>23.835739688615945</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -3184,8 +4274,14 @@
       <c r="C179" s="2">
         <v>681.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="4">
+        <v>8.6459755519078954</v>
+      </c>
+      <c r="E179" s="4">
+        <v>19.054571365738582</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -3195,8 +4291,14 @@
       <c r="C180" s="2">
         <v>704.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="4">
+        <v>7.2402653622487492</v>
+      </c>
+      <c r="E180" s="4">
+        <v>19.844334667700991</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -3206,8 +4308,14 @@
       <c r="C181" s="2">
         <v>752.8</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="4">
+        <v>21.960239599139982</v>
+      </c>
+      <c r="E181" s="4">
+        <v>30.2131572055726</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -3217,8 +4325,14 @@
       <c r="C182" s="2">
         <v>646.6</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="4">
+        <v>7.3675880871963386</v>
+      </c>
+      <c r="E182" s="4">
+        <v>15.6025453831503</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -3228,8 +4342,14 @@
       <c r="C183" s="2">
         <v>739.9</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="4">
+        <v>7.917695678086659</v>
+      </c>
+      <c r="E183" s="4">
+        <v>31.847961734280261</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -3239,8 +4359,14 @@
       <c r="C184" s="2">
         <v>741.2</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" s="4">
+        <v>9.7862512943779052</v>
+      </c>
+      <c r="E184" s="4">
+        <v>20.519276833018068</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
@@ -3250,8 +4376,14 @@
       <c r="C185" s="2">
         <v>698.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" s="4">
+        <v>7.3034368675822634</v>
+      </c>
+      <c r="E185" s="4">
+        <v>16.683448683878055</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -3261,8 +4393,14 @@
       <c r="C186" s="2">
         <v>713.2</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="4">
+        <v>11.460374864071582</v>
+      </c>
+      <c r="E186" s="4">
+        <v>25.080918003919123</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -3272,8 +4410,14 @@
       <c r="C187" s="2">
         <v>859.7</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="4">
+        <v>8.9658697188334031</v>
+      </c>
+      <c r="E187" s="4">
+        <v>14.678807704939857</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -3283,8 +4427,14 @@
       <c r="C188" s="2">
         <v>809.9</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="4">
+        <v>14.617860448821716</v>
+      </c>
+      <c r="E188" s="4">
+        <v>20.22469119784256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
@@ -3294,8 +4444,14 @@
       <c r="C189" s="2">
         <v>814.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="4">
+        <v>8.4449018683493478</v>
+      </c>
+      <c r="E189" s="4">
+        <v>19.363080830962076</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -3305,8 +4461,14 @@
       <c r="C190" s="2">
         <v>842.2</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="4">
+        <v>7.1883416608592938</v>
+      </c>
+      <c r="E190" s="4">
+        <v>18.98903441454712</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -3316,8 +4478,14 @@
       <c r="C191" s="2">
         <v>827.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" s="4">
+        <v>11.396744905706782</v>
+      </c>
+      <c r="E191" s="4">
+        <v>19.463184784434247</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -3327,8 +4495,14 @@
       <c r="C192" s="2">
         <v>798.6</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="4">
+        <v>13.929310286707903</v>
+      </c>
+      <c r="E192" s="4">
+        <v>21.444416219147456</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -3338,8 +4512,14 @@
       <c r="C193" s="2">
         <v>836.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="4">
+        <v>10.668377075169758</v>
+      </c>
+      <c r="E193" s="4">
+        <v>14.699726660006547</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
@@ -3349,8 +4529,14 @@
       <c r="C194" s="2">
         <v>826.4</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="4">
+        <v>8.1604245825558337</v>
+      </c>
+      <c r="E194" s="4">
+        <v>19.786577687384863</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -3360,8 +4546,14 @@
       <c r="C195" s="2">
         <v>811.9</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="4">
+        <v>8.239615374884238</v>
+      </c>
+      <c r="E195" s="4">
+        <v>14.948262448726211</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -3371,8 +4563,14 @@
       <c r="C196" s="2">
         <v>877.4</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="4">
+        <v>7.5776828444007265</v>
+      </c>
+      <c r="E196" s="4">
+        <v>21.42058965519891</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
@@ -3382,8 +4580,14 @@
       <c r="C197" s="2">
         <v>791</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="4">
+        <v>10.995667578056555</v>
+      </c>
+      <c r="E197" s="4">
+        <v>19.663013769447559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -3393,8 +4597,14 @@
       <c r="C198" s="2">
         <v>815.1</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="4">
+        <v>11.102388718120778</v>
+      </c>
+      <c r="E198" s="4">
+        <v>17.649606572527375</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
@@ -3404,8 +4614,14 @@
       <c r="C199" s="2">
         <v>871.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" s="4">
+        <v>8.8310701721076725</v>
+      </c>
+      <c r="E199" s="4">
+        <v>16.119057973082533</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
@@ -3415,8 +4631,14 @@
       <c r="C200" s="2">
         <v>876.4</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="4">
+        <v>10.602941495370317</v>
+      </c>
+      <c r="E200" s="4">
+        <v>17.800118669826986</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
@@ -3426,8 +4648,14 @@
       <c r="C201" s="2">
         <v>859</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="4">
+        <v>7.2242612721847763</v>
+      </c>
+      <c r="E201" s="4">
+        <v>16.116208881483146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
@@ -3437,8 +4665,14 @@
       <c r="C202" s="2">
         <v>927.1</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="4">
+        <v>10.75698345847718</v>
+      </c>
+      <c r="E202" s="4">
+        <v>15.028228873831608</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
@@ -3448,8 +4682,14 @@
       <c r="C203" s="2">
         <v>928.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="4">
+        <v>11.333917549371449</v>
+      </c>
+      <c r="E203" s="4">
+        <v>27.152273057679224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
@@ -3459,8 +4699,14 @@
       <c r="C204" s="2">
         <v>928.6</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="4">
+        <v>10.960243966300482</v>
+      </c>
+      <c r="E204" s="4">
+        <v>13.553222829901415</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
@@ -3470,8 +4716,14 @@
       <c r="C205" s="2">
         <v>952</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="4">
+        <v>12.033834458601916</v>
+      </c>
+      <c r="E205" s="4">
+        <v>18.70391840844826</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
@@ -3481,8 +4733,14 @@
       <c r="C206" s="2">
         <v>966.3</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" s="4">
+        <v>10.421948025109032</v>
+      </c>
+      <c r="E206" s="4">
+        <v>22.201495562488162</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
@@ -3492,8 +4750,14 @@
       <c r="C207" s="2">
         <v>976.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="4">
+        <v>12.541283781796494</v>
+      </c>
+      <c r="E207" s="4">
+        <v>18.401748788313625</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -3503,8 +4767,14 @@
       <c r="C208" s="2">
         <v>986.3</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="4">
+        <v>12.744474419104961</v>
+      </c>
+      <c r="E208" s="4">
+        <v>15.879172547722646</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -3514,8 +4784,14 @@
       <c r="C209" s="2">
         <v>994.9</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="4">
+        <v>9.7169263964154311</v>
+      </c>
+      <c r="E209" s="4">
+        <v>13.482158716453569</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -3525,8 +4801,14 @@
       <c r="C210" s="2">
         <v>997.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="4">
+        <v>16.06242283896313</v>
+      </c>
+      <c r="E210" s="4">
+        <v>16.898952410893401</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -3536,8 +4818,14 @@
       <c r="C211" s="2">
         <v>997.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="4">
+        <v>9.7799338879735842</v>
+      </c>
+      <c r="E211" s="4">
+        <v>21.145210962227623</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -3547,8 +4835,14 @@
       <c r="C212" s="2">
         <v>1000.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="4">
+        <v>11.805004015697932</v>
+      </c>
+      <c r="E212" s="4">
+        <v>20.613416424004868</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
@@ -3558,8 +4852,14 @@
       <c r="C213" s="2">
         <v>1016.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" s="4">
+        <v>12.03006372071161</v>
+      </c>
+      <c r="E213" s="4">
+        <v>16.002998805811046</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -3569,8 +4869,14 @@
       <c r="C214" s="2">
         <v>1038.4000000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="4">
+        <v>13.266507227457168</v>
+      </c>
+      <c r="E214" s="4">
+        <v>15.411498667697799</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -3580,8 +4886,14 @@
       <c r="C215" s="2">
         <v>1053.3</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="4">
+        <v>10.309424345466539</v>
+      </c>
+      <c r="E215" s="4">
+        <v>17.97275075849393</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -3591,8 +4903,14 @@
       <c r="C216" s="2">
         <v>1058.5999999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" s="4">
+        <v>12.456233905053352</v>
+      </c>
+      <c r="E216" s="4">
+        <v>27.061102365927013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
@@ -3602,8 +4920,14 @@
       <c r="C217" s="2">
         <v>1083.4000000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" s="4">
+        <v>12.185676508061192</v>
+      </c>
+      <c r="E217" s="4">
+        <v>26.939091462783381</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -3613,8 +4937,14 @@
       <c r="C218" s="2">
         <v>1085.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218" s="4">
+        <v>11.653948537422139</v>
+      </c>
+      <c r="E218" s="4">
+        <v>18.302457500150126</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -3624,8 +4954,14 @@
       <c r="C219" s="2">
         <v>1089.5</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219" s="4">
+        <v>12.171455911155363</v>
+      </c>
+      <c r="E219" s="4">
+        <v>23.472845470549032</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -3635,8 +4971,14 @@
       <c r="C220" s="2">
         <v>1092.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220" s="4">
+        <v>13.379674945934767</v>
+      </c>
+      <c r="E220" s="4">
+        <v>17.975272515771962</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -3646,8 +4988,14 @@
       <c r="C221" s="2">
         <v>1109.2</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221" s="4">
+        <v>12.395178460668831</v>
+      </c>
+      <c r="E221" s="4">
+        <v>20.117731347689869</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -3657,8 +5005,14 @@
       <c r="C222" s="2">
         <v>1119.7</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" s="4">
+        <v>10.612231236477555</v>
+      </c>
+      <c r="E222" s="4">
+        <v>19.115395210468364</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
@@ -3668,8 +5022,14 @@
       <c r="C223" s="2">
         <v>1133.5999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223" s="4">
+        <v>13.060667639234566</v>
+      </c>
+      <c r="E223" s="4">
+        <v>16.123881983912952</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
@@ -3679,8 +5039,14 @@
       <c r="C224" s="2">
         <v>1194.0999999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" s="4">
+        <v>15.106878005167232</v>
+      </c>
+      <c r="E224" s="4">
+        <v>37.626750565019393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
@@ -3690,8 +5056,14 @@
       <c r="C225" s="2">
         <v>1225.9000000000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="4">
+        <v>15.520757182727834</v>
+      </c>
+      <c r="E225" s="4">
+        <v>24.368254916724254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
@@ -3701,8 +5073,14 @@
       <c r="C226" s="2">
         <v>1253.4000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" s="4">
+        <v>16.966411271799643</v>
+      </c>
+      <c r="E226" s="4">
+        <v>18.435474163279423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
@@ -3712,8 +5090,14 @@
       <c r="C227" s="2">
         <v>1336.4</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" s="4">
+        <v>23.305385582537383</v>
+      </c>
+      <c r="E227" s="4">
+        <v>28.681599300051062</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
@@ -3723,8 +5107,14 @@
       <c r="C228" s="2">
         <v>1338.3</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" s="4">
+        <v>16.951689214131875</v>
+      </c>
+      <c r="E228" s="4">
+        <v>13.407026606494583</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
@@ -3734,8 +5124,14 @@
       <c r="C229" s="2">
         <v>1377.3</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" s="4">
+        <v>12.2412190262894</v>
+      </c>
+      <c r="E229" s="4">
+        <v>17.461138188567361</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
@@ -3745,8 +5141,14 @@
       <c r="C230" s="2">
         <v>1453.1</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" s="4">
+        <v>20.768877034469597</v>
+      </c>
+      <c r="E230" s="4">
+        <v>17.340330630657036</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -3756,8 +5158,14 @@
       <c r="C231" s="2">
         <v>1528.7</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" s="4">
+        <v>21.711223606280214</v>
+      </c>
+      <c r="E231" s="4">
+        <v>19.429156868587029</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -3767,8 +5175,14 @@
       <c r="C232" s="2">
         <v>1578.2</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" s="4">
+        <v>15.104660989876379</v>
+      </c>
+      <c r="E232" s="4">
+        <v>14.094316433463632</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -3778,8 +5192,14 @@
       <c r="C233" s="2">
         <v>1615.6</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" s="4">
+        <v>14.084645444489297</v>
+      </c>
+      <c r="E233" s="4">
+        <v>13.869532244181073</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
@@ -3789,8 +5209,14 @@
       <c r="C234" s="2">
         <v>1676.6</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" s="4">
+        <v>14.43137236069731</v>
+      </c>
+      <c r="E234" s="4">
+        <v>10.061695659154225</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -3800,8 +5226,14 @@
       <c r="C235" s="2">
         <v>1697.1</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" s="4">
+        <v>13.251084883016119</v>
+      </c>
+      <c r="E235" s="4">
+        <v>37.217536489289614</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
@@ -3811,8 +5243,14 @@
       <c r="C236" s="2">
         <v>1718.3</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" s="4">
+        <v>19.361703375549496</v>
+      </c>
+      <c r="E236" s="4">
+        <v>15.067638513466477</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
@@ -3822,8 +5260,14 @@
       <c r="C237" s="2">
         <v>1728.3</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" s="4">
+        <v>19.662568218128058</v>
+      </c>
+      <c r="E237" s="4">
+        <v>15.788764686976378</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -3833,8 +5277,14 @@
       <c r="C238" s="2">
         <v>1751.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" s="4">
+        <v>21.17555670172851</v>
+      </c>
+      <c r="E238" s="4">
+        <v>13.206160202613432</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -3844,8 +5294,14 @@
       <c r="C239" s="2">
         <v>1752.7</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" s="4">
+        <v>18.1353447711233</v>
+      </c>
+      <c r="E239" s="4">
+        <v>17.530468436205979</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
@@ -3855,8 +5311,14 @@
       <c r="C240" s="2">
         <v>1771.6</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240" s="4">
+        <v>20.830474869416207</v>
+      </c>
+      <c r="E240" s="4">
+        <v>20.575730524142159</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -3866,8 +5328,14 @@
       <c r="C241" s="2">
         <v>1775.1</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" s="4">
+        <v>21.659644462296683</v>
+      </c>
+      <c r="E241" s="4">
+        <v>16.284454276876659</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
@@ -3877,8 +5345,14 @@
       <c r="C242" s="2">
         <v>1775.4</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242" s="4">
+        <v>25.660992605372826</v>
+      </c>
+      <c r="E242" s="4">
+        <v>14.4505170066152</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
@@ -3888,8 +5362,14 @@
       <c r="C243" s="2">
         <v>1791.1</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243" s="4">
+        <v>16.884901006752898</v>
+      </c>
+      <c r="E243" s="4">
+        <v>14.19067087480903</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
@@ -3899,8 +5379,14 @@
       <c r="C244" s="2">
         <v>1829</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" s="4">
+        <v>18.025716669048734</v>
+      </c>
+      <c r="E244" s="4">
+        <v>16.651782891189782</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
@@ -3910,8 +5396,14 @@
       <c r="C245" s="2">
         <v>1846.6</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245" s="4">
+        <v>28.885438015073532</v>
+      </c>
+      <c r="E245" s="4">
+        <v>16.00100988968677</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
@@ -3921,8 +5413,14 @@
       <c r="C246" s="2">
         <v>1874.6</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246" s="4">
+        <v>20.125173606249177</v>
+      </c>
+      <c r="E246" s="4">
+        <v>17.210754759205315</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
@@ -3932,8 +5430,14 @@
       <c r="C247" s="2">
         <v>1879.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247" s="4">
+        <v>21.893575504867272</v>
+      </c>
+      <c r="E247" s="4">
+        <v>20.820122293180816</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
@@ -3943,8 +5447,14 @@
       <c r="C248" s="2">
         <v>1886.6</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248" s="4">
+        <v>20.122828732717267</v>
+      </c>
+      <c r="E248" s="4">
+        <v>16.567312825149315</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
@@ -3954,8 +5464,14 @@
       <c r="C249" s="2">
         <v>1889.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249" s="4">
+        <v>23.638416915771472</v>
+      </c>
+      <c r="E249" s="4">
+        <v>16.389179734473942</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
@@ -3965,8 +5481,14 @@
       <c r="C250" s="2">
         <v>1891.6</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250" s="4">
+        <v>17.186712159836702</v>
+      </c>
+      <c r="E250" s="4">
+        <v>15.467688056642601</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
@@ -3976,8 +5498,14 @@
       <c r="C251" s="2">
         <v>1913.6</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251" s="4">
+        <v>19.83250618059526</v>
+      </c>
+      <c r="E251" s="4">
+        <v>14.557614557647184</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
@@ -3987,8 +5515,14 @@
       <c r="C252" s="2">
         <v>1915.7</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252" s="4">
+        <v>18.154175065150525</v>
+      </c>
+      <c r="E252" s="4">
+        <v>14.368895379109517</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
@@ -3998,8 +5532,14 @@
       <c r="C253" s="2">
         <v>1918.1</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253" s="4">
+        <v>28.342622492433861</v>
+      </c>
+      <c r="E253" s="4">
+        <v>16.534014409094993</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
@@ -4009,8 +5549,14 @@
       <c r="C254" s="2">
         <v>1924</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254" s="4">
+        <v>19.392880396093688</v>
+      </c>
+      <c r="E254" s="4">
+        <v>15.361155020975048</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
@@ -4020,8 +5566,14 @@
       <c r="C255" s="2">
         <v>1943.9</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255" s="4">
+        <v>19.871644290506197</v>
+      </c>
+      <c r="E255" s="4">
+        <v>12.272895016343341</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -4031,8 +5583,14 @@
       <c r="C256" s="2">
         <v>1963.1</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256" s="4">
+        <v>20.930076400803614</v>
+      </c>
+      <c r="E256" s="4">
+        <v>20.255864187412612</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -4042,8 +5600,14 @@
       <c r="C257" s="2">
         <v>2137.9</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" s="4">
+        <v>23.672263517585634</v>
+      </c>
+      <c r="E257" s="4">
+        <v>15.582921505358399</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
@@ -4053,8 +5617,14 @@
       <c r="C258" s="2">
         <v>2166.4</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258" s="4">
+        <v>30.241076145563511</v>
+      </c>
+      <c r="E258" s="4">
+        <v>15.467232928823933</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
@@ -4064,8 +5634,14 @@
       <c r="C259" s="2">
         <v>2279.6999999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259" s="4">
+        <v>25.707149357917615</v>
+      </c>
+      <c r="E259" s="4">
+        <v>12.440584607854134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
@@ -4075,8 +5651,14 @@
       <c r="C260" s="2">
         <v>2313.6999999999998</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260" s="4">
+        <v>39.576520142495383</v>
+      </c>
+      <c r="E260" s="4">
+        <v>13.770694438860119</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
@@ -4086,8 +5668,14 @@
       <c r="C261" s="2">
         <v>2319.1</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261" s="4">
+        <v>28.647652779228792</v>
+      </c>
+      <c r="E261" s="4">
+        <v>23.679733419611466</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
@@ -4097,8 +5685,14 @@
       <c r="C262" s="2">
         <v>2348.9</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262" s="4">
+        <v>19.561574198791504</v>
+      </c>
+      <c r="E262" s="4">
+        <v>15.860586523544725</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
@@ -4108,8 +5702,14 @@
       <c r="C263" s="2">
         <v>2367</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263" s="4">
+        <v>32.344440792737487</v>
+      </c>
+      <c r="E263" s="4">
+        <v>20.00816674455632</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
@@ -4119,8 +5719,14 @@
       <c r="C264" s="2">
         <v>2431.1</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264" s="4">
+        <v>24.326089723829682</v>
+      </c>
+      <c r="E264" s="4">
+        <v>52.209410633274501</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -4130,8 +5736,14 @@
       <c r="C265" s="2">
         <v>2455.1999999999998</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265" s="4">
+        <v>24.497496124267627</v>
+      </c>
+      <c r="E265" s="4">
+        <v>12.647833525526721</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
@@ -4141,8 +5753,14 @@
       <c r="C266" s="2">
         <v>2455.3000000000002</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266" s="4">
+        <v>27.260885141219433</v>
+      </c>
+      <c r="E266" s="4">
+        <v>13.661980109447313</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
@@ -4152,8 +5770,14 @@
       <c r="C267" s="2">
         <v>2492.1</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267" s="4">
+        <v>25.312113333188108</v>
+      </c>
+      <c r="E267" s="4">
+        <v>16.990633535418965</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
@@ -4162,6 +5786,12 @@
       </c>
       <c r="C268" s="2">
         <v>2549.8000000000002</v>
+      </c>
+      <c r="D268" s="4">
+        <v>30.4554855431943</v>
+      </c>
+      <c r="E268" s="4">
+        <v>10.812692131080894</v>
       </c>
     </row>
   </sheetData>

--- a/Vasey20/N5.xlsx
+++ b/Vasey20/N5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4E53A-9D51-4D28-88B5-7DFDF21AE0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9A25DF-3EBC-4163-B2FC-2E0C34FA43BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2085" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="275">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -850,6 +850,12 @@
   </si>
   <si>
     <t>206 Error</t>
+  </si>
+  <si>
+    <t>235/207 U-Pb Age</t>
+  </si>
+  <si>
+    <t>235 Error</t>
   </si>
 </sst>
 </file>
@@ -905,8 +911,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1225,11 +1231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E268"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1238,7 +1244,7 @@
     <col min="3" max="3" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1254,8 +1260,14 @@
       <c r="E1" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1271,8 +1283,14 @@
       <c r="E2" s="4">
         <v>29.623927932899505</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="4">
+        <v>265.25319359301847</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.9800046573636223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1288,8 +1306,14 @@
       <c r="E3" s="4">
         <v>21.770656817354009</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="4">
+        <v>252.97089960663919</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3.7380283009721893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1305,8 +1329,14 @@
       <c r="E4" s="4">
         <v>26.29024853910451</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="4">
+        <v>262.81684773665023</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.5457761493751718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1322,8 +1352,14 @@
       <c r="E5" s="4">
         <v>35.473932663639914</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="4">
+        <v>295.93741686830037</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.5008449026197184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1339,8 +1375,14 @@
       <c r="E6" s="4">
         <v>19.110554454563925</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="4">
+        <v>270.57009498575059</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.0950660275037478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1356,8 +1398,14 @@
       <c r="E7" s="4">
         <v>32.523472700645044</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="4">
+        <v>274.53101509031711</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.3441722841687351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1373,8 +1421,14 @@
       <c r="E8" s="4">
         <v>44.070768225768035</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="4">
+        <v>291.19401332795269</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6.3832214394277855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1390,8 +1444,14 @@
       <c r="E9" s="4">
         <v>20.139819451432757</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="4">
+        <v>271.30431968193744</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.5549287904633502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1407,8 +1467,14 @@
       <c r="E10" s="4">
         <v>17.2941535505594</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="4">
+        <v>273.97096099308442</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3.9032522365797035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1424,8 +1490,14 @@
       <c r="E11" s="4">
         <v>22.172262985495877</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="4">
+        <v>274.62873489659592</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4.3645812614919635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1441,8 +1513,14 @@
       <c r="E12" s="4">
         <v>27.748609645513284</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="4">
+        <v>267.17549655561714</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3.6288505560689259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1458,8 +1536,14 @@
       <c r="E13" s="4">
         <v>54.969381244729448</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="4">
+        <v>275.81020882838067</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6.9626960763786201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,8 +1559,14 @@
       <c r="E14" s="4">
         <v>27.275568347094577</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" s="4">
+        <v>284.26902885957952</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3.7020275915774619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1492,8 +1582,14 @@
       <c r="E15" s="4">
         <v>23.909467950166416</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="4">
+        <v>281.74521537224189</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3.6907562840045784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1509,8 +1605,14 @@
       <c r="E16" s="4">
         <v>24.175749459294138</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="4">
+        <v>288.79000788340875</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4.445541283692279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1526,8 +1628,14 @@
       <c r="E17" s="4">
         <v>26.466603938358588</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="4">
+        <v>289.11494499875698</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4.2279409381245046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1651,14 @@
       <c r="E18" s="4">
         <v>21.722221288620005</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="4">
+        <v>292.5323705035342</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4.1420311420688449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1560,8 +1674,14 @@
       <c r="E19" s="4">
         <v>19.600499824343473</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="4">
+        <v>287.4551746450735</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3.5470891867629177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1577,8 +1697,14 @@
       <c r="E20" s="4">
         <v>19.968055957213863</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="4">
+        <v>291.56956851218553</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3.495775680864142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1594,8 +1720,14 @@
       <c r="E21" s="4">
         <v>18.408338037576584</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="4">
+        <v>293.51056711612932</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3.4766352588566747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1611,8 +1743,14 @@
       <c r="E22" s="4">
         <v>28.922552918493068</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="4">
+        <v>300.15118521552245</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5.3341081003655972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1628,8 +1766,14 @@
       <c r="E23" s="4">
         <v>25.245343505349965</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="4">
+        <v>287.53787074874657</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.949696027166226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1645,8 +1789,14 @@
       <c r="E24" s="4">
         <v>23.945324587163839</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="4">
+        <v>287.89965884659438</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3.8688835312076151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1662,8 +1812,14 @@
       <c r="E25" s="4">
         <v>17.019356646074428</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="4">
+        <v>287.99071182895136</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3.2910625358595667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1679,8 +1835,14 @@
       <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="4">
+        <v>167.33606696226389</v>
+      </c>
+      <c r="G26" s="4">
+        <v>42.1638670674336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1696,8 +1858,14 @@
       <c r="E27" s="4">
         <v>27.269537444847856</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="4">
+        <v>297.92907211194682</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4.430517804340667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1713,8 +1881,14 @@
       <c r="E28" s="4">
         <v>19.348284170169379</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="4">
+        <v>292.09628632186474</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3.1724806123615679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1730,8 +1904,14 @@
       <c r="E29" s="4">
         <v>21.77814341887111</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="4">
+        <v>305.75296204553558</v>
+      </c>
+      <c r="G29" s="4">
+        <v>7.6398429093066795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1747,8 +1927,14 @@
       <c r="E30" s="4">
         <v>16.582001537428226</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="4">
+        <v>294.54373571746879</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4.285811671478001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1764,8 +1950,14 @@
       <c r="E31" s="4">
         <v>25.406743786075253</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="4">
+        <v>295.55885544971085</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4.060054602728485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1781,8 +1973,14 @@
       <c r="E32" s="4">
         <v>21.867563092732269</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="4">
+        <v>300.1438437194231</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4.2475683746502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1798,8 +1996,14 @@
       <c r="E33" s="4">
         <v>21.567560479466522</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="4">
+        <v>299.02262542983436</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4.8704615206971198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1815,8 +2019,14 @@
       <c r="E34" s="4">
         <v>204.60033038959637</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="4">
+        <v>765.2738997349112</v>
+      </c>
+      <c r="G34" s="4">
+        <v>66.0521822348108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1832,8 +2042,14 @@
       <c r="E35" s="4">
         <v>46.61590012832221</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="4">
+        <v>505.38210227487593</v>
+      </c>
+      <c r="G35" s="4">
+        <v>11.402095545573303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1849,8 +2065,14 @@
       <c r="E36" s="4">
         <v>16.22292532925519</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="4">
+        <v>302.11372144569128</v>
+      </c>
+      <c r="G36" s="4">
+        <v>3.5481259761970421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1866,8 +2088,14 @@
       <c r="E37" s="4">
         <v>82.81530947356913</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="4">
+        <v>283.14263625872087</v>
+      </c>
+      <c r="G37" s="4">
+        <v>9.2856740294642179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1883,8 +2111,14 @@
       <c r="E38" s="4">
         <v>156.41098156871396</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="4">
+        <v>385.41535769931522</v>
+      </c>
+      <c r="G38" s="4">
+        <v>25.265132020659507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1900,8 +2134,14 @@
       <c r="E39" s="4">
         <v>19.951469107360111</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" s="4">
+        <v>303.88630787263935</v>
+      </c>
+      <c r="G39" s="4">
+        <v>3.6460005813085559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1917,8 +2157,14 @@
       <c r="E40" s="4">
         <v>29.611947928624573</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" s="4">
+        <v>323.03962200322468</v>
+      </c>
+      <c r="G40" s="4">
+        <v>4.7061172166325491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2180,14 @@
       <c r="E41" s="4">
         <v>21.356991632848121</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" s="4">
+        <v>301.91799703079988</v>
+      </c>
+      <c r="G41" s="4">
+        <v>7.6989976218060576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1951,8 +2203,14 @@
       <c r="E42" s="4">
         <v>16.899243618724967</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" s="4">
+        <v>310.18587729982539</v>
+      </c>
+      <c r="G42" s="4">
+        <v>4.387367132275557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1968,8 +2226,14 @@
       <c r="E43" s="4">
         <v>16.995612598632903</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" s="4">
+        <v>317.28688812762954</v>
+      </c>
+      <c r="G43" s="4">
+        <v>3.8851939711967987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1985,8 +2249,14 @@
       <c r="E44" s="4">
         <v>71.710492177213439</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" s="4">
+        <v>333.60030765290395</v>
+      </c>
+      <c r="G44" s="4">
+        <v>10.127516616600758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -2002,8 +2272,14 @@
       <c r="E45" s="4">
         <v>25.218846753748949</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" s="4">
+        <v>312.55095685682295</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4.2558294211375767</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -2019,8 +2295,14 @@
       <c r="E46" s="4">
         <v>18.892269820044078</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" s="4">
+        <v>310.48776572980921</v>
+      </c>
+      <c r="G46" s="4">
+        <v>4.6828303183378637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2036,8 +2318,14 @@
       <c r="E47" s="4">
         <v>22.572589800801865</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" s="4">
+        <v>314.9619314160181</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5.0592455975006487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -2053,8 +2341,14 @@
       <c r="E48" s="4">
         <v>26.944083717431681</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" s="4">
+        <v>330.32192439989046</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5.3869221757170749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -2070,8 +2364,14 @@
       <c r="E49" s="4">
         <v>30.117840118377075</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" s="4">
+        <v>310.43775764332173</v>
+      </c>
+      <c r="G49" s="4">
+        <v>4.9528207746980968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -2087,8 +2387,14 @@
       <c r="E50" s="4">
         <v>26.113504086333307</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" s="4">
+        <v>311.45416304958815</v>
+      </c>
+      <c r="G50" s="4">
+        <v>4.602168795988888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -2104,8 +2410,14 @@
       <c r="E51" s="4">
         <v>29.475056973590881</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" s="4">
+        <v>313.72110723893627</v>
+      </c>
+      <c r="G51" s="4">
+        <v>5.1186096010354731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2121,8 +2433,14 @@
       <c r="E52" s="4">
         <v>55.342461171682146</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" s="4">
+        <v>352.22817019092611</v>
+      </c>
+      <c r="G52" s="4">
+        <v>12.164048569561885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2456,14 @@
       <c r="E53" s="4">
         <v>30.590438647515811</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" s="4">
+        <v>314.87238136922764</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4.8770340264572667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2155,8 +2479,14 @@
       <c r="E54" s="4">
         <v>19.915472470926545</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" s="4">
+        <v>316.06763060395349</v>
+      </c>
+      <c r="G54" s="4">
+        <v>4.1630528164557461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -2172,8 +2502,14 @@
       <c r="E55" s="4">
         <v>23.659587315034145</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" s="4">
+        <v>319.09522801726285</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5.9287930382163836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -2189,8 +2525,14 @@
       <c r="E56" s="4">
         <v>54.60193303929799</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" s="4">
+        <v>304.87931971392624</v>
+      </c>
+      <c r="G56" s="4">
+        <v>7.3110806539801274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -2206,8 +2548,14 @@
       <c r="E57" s="4">
         <v>20.365036072578732</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" s="4">
+        <v>317.89501889490919</v>
+      </c>
+      <c r="G57" s="4">
+        <v>4.1163668952622459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -2223,8 +2571,14 @@
       <c r="E58" s="4">
         <v>47.474289553946619</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" s="4">
+        <v>355.15701568895793</v>
+      </c>
+      <c r="G58" s="4">
+        <v>8.16876024771841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -2240,8 +2594,14 @@
       <c r="E59" s="4">
         <v>27.272926246177178</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" s="4">
+        <v>322.56180530416492</v>
+      </c>
+      <c r="G59" s="4">
+        <v>4.8259852185759655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -2257,8 +2617,14 @@
       <c r="E60" s="4">
         <v>85.743361582030275</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" s="4">
+        <v>391.45930754527842</v>
+      </c>
+      <c r="G60" s="4">
+        <v>23.380614157447809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2274,8 +2640,14 @@
       <c r="E61" s="4">
         <v>26.885004591244609</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" s="4">
+        <v>324.88921898383114</v>
+      </c>
+      <c r="G61" s="4">
+        <v>6.1777907865818236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -2291,8 +2663,14 @@
       <c r="E62" s="4">
         <v>64.402625428696069</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" s="4">
+        <v>378.19987350041578</v>
+      </c>
+      <c r="G62" s="4">
+        <v>11.665107295671845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -2308,8 +2686,14 @@
       <c r="E63" s="4">
         <v>95.700920554462982</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" s="4">
+        <v>506.31991120443223</v>
+      </c>
+      <c r="G63" s="4">
+        <v>20.758737881322901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -2325,8 +2709,14 @@
       <c r="E64" s="4">
         <v>31.24967291885676</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" s="4">
+        <v>325.09135730622535</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5.3348162527403247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -2342,8 +2732,14 @@
       <c r="E65" s="4">
         <v>37.552677734283492</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" s="4">
+        <v>323.58879087857844</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5.6142769445474698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2359,8 +2755,14 @@
       <c r="E66" s="4">
         <v>25.814198856356001</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" s="4">
+        <v>333.71940023017697</v>
+      </c>
+      <c r="G66" s="4">
+        <v>4.7747721226797921</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -2376,8 +2778,14 @@
       <c r="E67" s="4">
         <v>27.513050028994883</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" s="4">
+        <v>327.05524093551458</v>
+      </c>
+      <c r="G67" s="4">
+        <v>4.8523542217530746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2393,8 +2801,14 @@
       <c r="E68" s="4">
         <v>32.474753286641317</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" s="4">
+        <v>330.57957495848268</v>
+      </c>
+      <c r="G68" s="4">
+        <v>5.2659413476151258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -2410,8 +2824,14 @@
       <c r="E69" s="4">
         <v>33.125644475293655</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" s="4">
+        <v>340.76881920663288</v>
+      </c>
+      <c r="G69" s="4">
+        <v>5.3901636645792053</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -2427,8 +2847,14 @@
       <c r="E70" s="4">
         <v>44.059586827493689</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" s="4">
+        <v>329.37033802635273</v>
+      </c>
+      <c r="G70" s="4">
+        <v>6.5927349300608853</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -2444,8 +2870,14 @@
       <c r="E71" s="4">
         <v>20.139634520297648</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" s="4">
+        <v>336.56300052714829</v>
+      </c>
+      <c r="G71" s="4">
+        <v>3.752802500628917</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -2461,8 +2893,14 @@
       <c r="E72" s="4">
         <v>17.290338475387699</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" s="4">
+        <v>328.07562972958482</v>
+      </c>
+      <c r="G72" s="4">
+        <v>4.0737493945456151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -2478,8 +2916,14 @@
       <c r="E73" s="4">
         <v>20.755308264779273</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" s="4">
+        <v>336.97159075989407</v>
+      </c>
+      <c r="G73" s="4">
+        <v>4.1961796288837263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2495,8 +2939,14 @@
       <c r="E74" s="4">
         <v>19.816981247138131</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" s="4">
+        <v>335.13920080755025</v>
+      </c>
+      <c r="G74" s="4">
+        <v>3.4997613045292724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2512,8 +2962,14 @@
       <c r="E75" s="4">
         <v>29.52885130898153</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" s="4">
+        <v>336.37573681928245</v>
+      </c>
+      <c r="G75" s="4">
+        <v>6.4007643067004949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -2529,8 +2985,14 @@
       <c r="E76" s="4">
         <v>21.975516679515266</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" s="4">
+        <v>325.47808347343914</v>
+      </c>
+      <c r="G76" s="4">
+        <v>4.3490313063484223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -2546,8 +3008,14 @@
       <c r="E77" s="4">
         <v>31.743349635270391</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" s="4">
+        <v>328.55803146522186</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5.4577233597176189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -2563,8 +3031,14 @@
       <c r="E78" s="4">
         <v>15.673046800538998</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" s="4">
+        <v>334.27968621348566</v>
+      </c>
+      <c r="G78" s="4">
+        <v>4.352390192560307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -2580,8 +3054,14 @@
       <c r="E79" s="4">
         <v>85.320329196985455</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" s="4">
+        <v>344.5963488637143</v>
+      </c>
+      <c r="G79" s="4">
+        <v>11.970188675890341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -2597,8 +3077,14 @@
       <c r="E80" s="4">
         <v>45.038913060029984</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" s="4">
+        <v>368.01074902645485</v>
+      </c>
+      <c r="G80" s="4">
+        <v>7.6718020054571525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -2614,8 +3100,14 @@
       <c r="E81" s="4">
         <v>22.790498196079028</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" s="4">
+        <v>340.01828195887816</v>
+      </c>
+      <c r="G81" s="4">
+        <v>4.3604601703104038</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -2631,8 +3123,14 @@
       <c r="E82" s="4">
         <v>19.815891497343813</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" s="4">
+        <v>337.64868640896759</v>
+      </c>
+      <c r="G82" s="4">
+        <v>4.8422605930987572</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -2648,8 +3146,14 @@
       <c r="E83" s="4">
         <v>30.701302434775613</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" s="4">
+        <v>334.11316605702899</v>
+      </c>
+      <c r="G83" s="4">
+        <v>5.0286574147903877</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -2665,8 +3169,14 @@
       <c r="E84" s="4">
         <v>21.924619126883783</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" s="4">
+        <v>341.71192412563244</v>
+      </c>
+      <c r="G84" s="4">
+        <v>4.5940256744690373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -2682,8 +3192,14 @@
       <c r="E85" s="4">
         <v>29.99045922093913</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" s="4">
+        <v>348.8939006621236</v>
+      </c>
+      <c r="G85" s="4">
+        <v>9.4777368603193963</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -2699,8 +3215,14 @@
       <c r="E86" s="4">
         <v>30.331541891807575</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" s="4">
+        <v>336.66418392230207</v>
+      </c>
+      <c r="G86" s="4">
+        <v>5.180856781583401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -2716,8 +3238,14 @@
       <c r="E87" s="4">
         <v>28.198658684383133</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" s="4">
+        <v>345.26184807212587</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5.6404491724835282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -2733,8 +3261,14 @@
       <c r="E88" s="4">
         <v>33.270564758313157</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" s="4">
+        <v>347.26127765490065</v>
+      </c>
+      <c r="G88" s="4">
+        <v>5.5347392974927061</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -2750,8 +3284,14 @@
       <c r="E89" s="4">
         <v>24.738600090594048</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" s="4">
+        <v>348.18798188324132</v>
+      </c>
+      <c r="G89" s="4">
+        <v>4.6066027159507996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -2767,8 +3307,14 @@
       <c r="E90" s="4">
         <v>23.403955413671241</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" s="4">
+        <v>353.47189472273755</v>
+      </c>
+      <c r="G90" s="4">
+        <v>5.0042872757177577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -2784,8 +3330,14 @@
       <c r="E91" s="4">
         <v>34.826469402092243</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" s="4">
+        <v>389.08714706861286</v>
+      </c>
+      <c r="G91" s="4">
+        <v>6.3783556726341146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -2801,8 +3353,14 @@
       <c r="E92" s="4">
         <v>16.587625798333846</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" s="4">
+        <v>350.141006046011</v>
+      </c>
+      <c r="G92" s="4">
+        <v>4.3663121883141116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -2818,8 +3376,14 @@
       <c r="E93" s="4">
         <v>22.290620368000418</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" s="4">
+        <v>351.44918205402826</v>
+      </c>
+      <c r="G93" s="4">
+        <v>5.2177686849485099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -2835,8 +3399,14 @@
       <c r="E94" s="4">
         <v>29.090996607739271</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94" s="4">
+        <v>355.71671095432532</v>
+      </c>
+      <c r="G94" s="4">
+        <v>4.8610697131724976</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -2852,8 +3422,14 @@
       <c r="E95" s="4">
         <v>57.923191274256226</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95" s="4">
+        <v>363.11625788571678</v>
+      </c>
+      <c r="G95" s="4">
+        <v>9.0133469856710349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -2869,8 +3445,14 @@
       <c r="E96" s="4">
         <v>224.53009632671626</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96" s="4">
+        <v>586.77406559595056</v>
+      </c>
+      <c r="G96" s="4">
+        <v>54.661164376196552</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -2886,8 +3468,14 @@
       <c r="E97" s="4">
         <v>63.238365723964819</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97" s="4">
+        <v>475.02917173590686</v>
+      </c>
+      <c r="G97" s="4">
+        <v>13.33496204636748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -2903,8 +3491,14 @@
       <c r="E98" s="4">
         <v>33.546612001055166</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98" s="4">
+        <v>371.87409201249045</v>
+      </c>
+      <c r="G98" s="4">
+        <v>6.4728524731482082</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -2920,8 +3514,14 @@
       <c r="E99" s="4">
         <v>23.017043154079118</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99" s="4">
+        <v>361.81732356158642</v>
+      </c>
+      <c r="G99" s="4">
+        <v>5.4418706516656812</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -2937,8 +3537,14 @@
       <c r="E100" s="4">
         <v>18.490385413580725</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100" s="4">
+        <v>386.89744590014516</v>
+      </c>
+      <c r="G100" s="4">
+        <v>5.1165115340062641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -2954,8 +3560,14 @@
       <c r="E101" s="4">
         <v>31.419766577454141</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101" s="4">
+        <v>401.14047891184879</v>
+      </c>
+      <c r="G101" s="4">
+        <v>6.0628615879336394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -2971,8 +3583,14 @@
       <c r="E102" s="4">
         <v>22.220526665160918</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102" s="4">
+        <v>372.40350504876039</v>
+      </c>
+      <c r="G102" s="4">
+        <v>4.9259023995733173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -2988,8 +3606,14 @@
       <c r="E103" s="4">
         <v>44.887872840450143</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103" s="4">
+        <v>393.99077519704673</v>
+      </c>
+      <c r="G103" s="4">
+        <v>7.6603204208151681</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -3005,8 +3629,14 @@
       <c r="E104" s="4">
         <v>22.862699121938704</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104" s="4">
+        <v>375.03223623846281</v>
+      </c>
+      <c r="G104" s="4">
+        <v>6.5205499511155551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -3022,8 +3652,14 @@
       <c r="E105" s="4">
         <v>21.368078257166445</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105" s="4">
+        <v>379.07455736837193</v>
+      </c>
+      <c r="G105" s="4">
+        <v>5.7036720354141437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -3039,8 +3675,14 @@
       <c r="E106" s="4">
         <v>17.513503663519231</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106" s="4">
+        <v>378.55666038071485</v>
+      </c>
+      <c r="G106" s="4">
+        <v>4.8057176558585297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -3056,8 +3698,14 @@
       <c r="E107" s="4">
         <v>44.417196659710271</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107" s="4">
+        <v>397.22998438197914</v>
+      </c>
+      <c r="G107" s="4">
+        <v>8.9919702516250766</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -3073,8 +3721,14 @@
       <c r="E108" s="4">
         <v>18.36954844492351</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108" s="4">
+        <v>428.29505215481163</v>
+      </c>
+      <c r="G108" s="4">
+        <v>6.0905525326964778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -3090,8 +3744,14 @@
       <c r="E109" s="4">
         <v>46.164346802516178</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109" s="4">
+        <v>402.32874496960926</v>
+      </c>
+      <c r="G109" s="4">
+        <v>8.2404205713600334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -3107,8 +3767,14 @@
       <c r="E110" s="4">
         <v>27.720401292157248</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110" s="4">
+        <v>405.76367499680435</v>
+      </c>
+      <c r="G110" s="4">
+        <v>6.5375764346020446</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -3124,8 +3790,14 @@
       <c r="E111" s="4">
         <v>26.000389468126428</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111" s="4">
+        <v>370.29548097052577</v>
+      </c>
+      <c r="G111" s="4">
+        <v>5.404629202046948</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -3141,8 +3813,14 @@
       <c r="E112" s="4">
         <v>23.926962982089833</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112" s="4">
+        <v>411.32537937302772</v>
+      </c>
+      <c r="G112" s="4">
+        <v>5.0903745019334394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -3158,8 +3836,14 @@
       <c r="E113" s="4">
         <v>53.108379560323812</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113" s="4">
+        <v>394.25148562996765</v>
+      </c>
+      <c r="G113" s="4">
+        <v>8.4413986072790408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -3175,8 +3859,14 @@
       <c r="E114" s="4">
         <v>44.992849207084873</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114" s="4">
+        <v>422.77853966336119</v>
+      </c>
+      <c r="G114" s="4">
+        <v>8.5439849394492455</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -3192,8 +3882,14 @@
       <c r="E115" s="4">
         <v>19.023119055137158</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115" s="4">
+        <v>396.44924247171815</v>
+      </c>
+      <c r="G115" s="4">
+        <v>4.917449099972373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -3209,8 +3905,14 @@
       <c r="E116" s="4">
         <v>17.622374278862196</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F116" s="4">
+        <v>400.33361999503404</v>
+      </c>
+      <c r="G116" s="4">
+        <v>5.4713999039179839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -3226,8 +3928,14 @@
       <c r="E117" s="4">
         <v>35.138245228042194</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F117" s="4">
+        <v>413.60936439304101</v>
+      </c>
+      <c r="G117" s="4">
+        <v>6.38465670275923</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -3243,8 +3951,14 @@
       <c r="E118" s="4">
         <v>33.278599066189486</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F118" s="4">
+        <v>396.01793861320044</v>
+      </c>
+      <c r="G118" s="4">
+        <v>6.0034773410528715</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -3260,8 +3974,14 @@
       <c r="E119" s="4">
         <v>29.489970931920396</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F119" s="4">
+        <v>402.27233779470907</v>
+      </c>
+      <c r="G119" s="4">
+        <v>6.0700373272887873</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -3277,8 +3997,14 @@
       <c r="E120" s="4">
         <v>18.258812880695643</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F120" s="4">
+        <v>401.98701789887679</v>
+      </c>
+      <c r="G120" s="4">
+        <v>5.1032310596322361</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -3294,8 +4020,14 @@
       <c r="E121" s="4">
         <v>36.046461093497953</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F121" s="4">
+        <v>421.87470080719822</v>
+      </c>
+      <c r="G121" s="4">
+        <v>6.8964148344138039</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -3311,8 +4043,14 @@
       <c r="E122" s="4">
         <v>22.337970873254079</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F122" s="4">
+        <v>397.97131644260634</v>
+      </c>
+      <c r="G122" s="4">
+        <v>4.2948066185889786</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -3328,8 +4066,14 @@
       <c r="E123" s="4">
         <v>42.555638847388707</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F123" s="4">
+        <v>429.38849391413169</v>
+      </c>
+      <c r="G123" s="4">
+        <v>7.7474387259072444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -3345,8 +4089,14 @@
       <c r="E124" s="4">
         <v>20.156673916925968</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F124" s="4">
+        <v>401.18888950093248</v>
+      </c>
+      <c r="G124" s="4">
+        <v>5.0856655855483268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -3362,8 +4112,14 @@
       <c r="E125" s="4">
         <v>29.373111488357665</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F125" s="4">
+        <v>406.98650662064335</v>
+      </c>
+      <c r="G125" s="4">
+        <v>6.0104992312503782</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -3379,8 +4135,14 @@
       <c r="E126" s="4">
         <v>23.089841529354942</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126" s="4">
+        <v>413.91711593958968</v>
+      </c>
+      <c r="G126" s="4">
+        <v>6.7931245293135305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -3396,8 +4158,14 @@
       <c r="E127" s="4">
         <v>39.562628981250526</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F127" s="4">
+        <v>400.55604195818233</v>
+      </c>
+      <c r="G127" s="4">
+        <v>7.5389964874543409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -3413,8 +4181,14 @@
       <c r="E128" s="4">
         <v>23.999621860316381</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128" s="4">
+        <v>417.45242771309245</v>
+      </c>
+      <c r="G128" s="4">
+        <v>5.4707415655510943</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -3430,8 +4204,14 @@
       <c r="E129" s="4">
         <v>15.40417249602578</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129" s="4">
+        <v>416.58028335484215</v>
+      </c>
+      <c r="G129" s="4">
+        <v>3.9344641795190114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -3447,8 +4227,14 @@
       <c r="E130" s="4">
         <v>22.813318265349238</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F130" s="4">
+        <v>422.63614471785394</v>
+      </c>
+      <c r="G130" s="4">
+        <v>5.464384302105401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -3464,8 +4250,14 @@
       <c r="E131" s="4">
         <v>21.23169424473943</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131" s="4">
+        <v>423.59655475231375</v>
+      </c>
+      <c r="G131" s="4">
+        <v>6.4440909566490063</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -3481,8 +4273,14 @@
       <c r="E132" s="4">
         <v>23.154843360402765</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F132" s="4">
+        <v>427.54513168127664</v>
+      </c>
+      <c r="G132" s="4">
+        <v>5.2660295687507812</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -3498,8 +4296,14 @@
       <c r="E133" s="4">
         <v>20.725466195381898</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133" s="4">
+        <v>421.94515764455792</v>
+      </c>
+      <c r="G133" s="4">
+        <v>4.4746620241920141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -3515,8 +4319,14 @@
       <c r="E134" s="4">
         <v>24.087000986241122</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F134" s="4">
+        <v>425.50236996654519</v>
+      </c>
+      <c r="G134" s="4">
+        <v>4.8000459538824032</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -3532,8 +4342,14 @@
       <c r="E135" s="4">
         <v>22.278194499723725</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F135" s="4">
+        <v>430.2528412026349</v>
+      </c>
+      <c r="G135" s="4">
+        <v>5.3020751849735461</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -3549,8 +4365,14 @@
       <c r="E136" s="4">
         <v>14.674898654223853</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F136" s="4">
+        <v>433.75024056069907</v>
+      </c>
+      <c r="G136" s="4">
+        <v>5.7866781658678974</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -3566,8 +4388,14 @@
       <c r="E137" s="4">
         <v>16.246308292862494</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F137" s="4">
+        <v>436.369016454872</v>
+      </c>
+      <c r="G137" s="4">
+        <v>5.1155497265668828</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -3583,8 +4411,14 @@
       <c r="E138" s="4">
         <v>24.340569980512157</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F138" s="4">
+        <v>430.18886771652939</v>
+      </c>
+      <c r="G138" s="4">
+        <v>6.1808708815306375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -3600,8 +4434,14 @@
       <c r="E139" s="4">
         <v>40.213672239333135</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F139" s="4">
+        <v>433.12915616409265</v>
+      </c>
+      <c r="G139" s="4">
+        <v>7.7422365535582856</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -3617,8 +4457,14 @@
       <c r="E140" s="4">
         <v>20.954691141807729</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F140" s="4">
+        <v>438.59702171399999</v>
+      </c>
+      <c r="G140" s="4">
+        <v>5.8630154116246729</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -3634,8 +4480,14 @@
       <c r="E141" s="4">
         <v>20.690167702321673</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F141" s="4">
+        <v>435.67289000127465</v>
+      </c>
+      <c r="G141" s="4">
+        <v>5.5482351020905867</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -3651,8 +4503,14 @@
       <c r="E142" s="4">
         <v>27.805268608836144</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F142" s="4">
+        <v>435.36153078963144</v>
+      </c>
+      <c r="G142" s="4">
+        <v>7.0998213006149626</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -3668,8 +4526,14 @@
       <c r="E143" s="4">
         <v>18.594861921007293</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F143" s="4">
+        <v>436.15496718459161</v>
+      </c>
+      <c r="G143" s="4">
+        <v>4.8808085837689816</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -3685,8 +4549,14 @@
       <c r="E144" s="4">
         <v>21.751491259941275</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F144" s="4">
+        <v>437.73097970672575</v>
+      </c>
+      <c r="G144" s="4">
+        <v>5.9789633437433451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -3702,8 +4572,14 @@
       <c r="E145" s="4">
         <v>15.587620107806515</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F145" s="4">
+        <v>435.62585206365463</v>
+      </c>
+      <c r="G145" s="4">
+        <v>5.1057285984366843</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -3719,8 +4595,14 @@
       <c r="E146" s="4">
         <v>24.10333010122821</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F146" s="4">
+        <v>443.29073081923855</v>
+      </c>
+      <c r="G146" s="4">
+        <v>5.7623266491910385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
@@ -3736,8 +4618,14 @@
       <c r="E147" s="4">
         <v>19.22118136618289</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F147" s="4">
+        <v>442.28031126858798</v>
+      </c>
+      <c r="G147" s="4">
+        <v>5.053873711972841</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
@@ -3753,8 +4641,14 @@
       <c r="E148" s="4">
         <v>23.02325117293978</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F148" s="4">
+        <v>446.78855142439016</v>
+      </c>
+      <c r="G148" s="4">
+        <v>6.6796024319896219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
@@ -3770,8 +4664,14 @@
       <c r="E149" s="4">
         <v>20.416990280192039</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F149" s="4">
+        <v>446.96085288078143</v>
+      </c>
+      <c r="G149" s="4">
+        <v>5.3836625606329278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
@@ -3787,8 +4687,14 @@
       <c r="E150" s="4">
         <v>26.398023488540758</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F150" s="4">
+        <v>441.88883345552239</v>
+      </c>
+      <c r="G150" s="4">
+        <v>7.7274411310467599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -3804,8 +4710,14 @@
       <c r="E151" s="4">
         <v>27.318962936912044</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F151" s="4">
+        <v>447.81452428797309</v>
+      </c>
+      <c r="G151" s="4">
+        <v>7.3796832666201055</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -3821,8 +4733,14 @@
       <c r="E152" s="4">
         <v>24.765447623533902</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F152" s="4">
+        <v>456.80162088324738</v>
+      </c>
+      <c r="G152" s="4">
+        <v>6.9307474588469802</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
@@ -3838,8 +4756,14 @@
       <c r="E153" s="4">
         <v>18.849219342129032</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F153" s="4">
+        <v>446.73118040119027</v>
+      </c>
+      <c r="G153" s="4">
+        <v>5.3715893004412294</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
@@ -3855,8 +4779,14 @@
       <c r="E154" s="4">
         <v>19.281868490277901</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F154" s="4">
+        <v>447.3061642154118</v>
+      </c>
+      <c r="G154" s="4">
+        <v>4.8358868555540084</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
@@ -3872,8 +4802,14 @@
       <c r="E155" s="4">
         <v>24.556449066365246</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F155" s="4">
+        <v>453.07696337747359</v>
+      </c>
+      <c r="G155" s="4">
+        <v>5.8118027682934894</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -3889,8 +4825,14 @@
       <c r="E156" s="4">
         <v>15.768897547941322</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F156" s="4">
+        <v>466.01440103100151</v>
+      </c>
+      <c r="G156" s="4">
+        <v>6.3676999477043807</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -3906,8 +4848,14 @@
       <c r="E157" s="4">
         <v>17.755409846891439</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F157" s="4">
+        <v>450.39881135971166</v>
+      </c>
+      <c r="G157" s="4">
+        <v>6.0403727785393926</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -3923,8 +4871,14 @@
       <c r="E158" s="4">
         <v>27.814770648432557</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F158" s="4">
+        <v>468.51446503728937</v>
+      </c>
+      <c r="G158" s="4">
+        <v>6.3666954190314868</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -3940,8 +4894,14 @@
       <c r="E159" s="4">
         <v>23.545908114165286</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F159" s="4">
+        <v>459.598361099518</v>
+      </c>
+      <c r="G159" s="4">
+        <v>5.982254636131529</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -3957,8 +4917,14 @@
       <c r="E160" s="4">
         <v>22.866646673140679</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F160" s="4">
+        <v>458.45063875240555</v>
+      </c>
+      <c r="G160" s="4">
+        <v>5.7989107469339842</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -3974,8 +4940,14 @@
       <c r="E161" s="4">
         <v>16.02648175150054</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F161" s="4">
+        <v>459.86162739417529</v>
+      </c>
+      <c r="G161" s="4">
+        <v>5.1650495994119296</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -3991,8 +4963,14 @@
       <c r="E162" s="4">
         <v>17.386198001996974</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F162" s="4">
+        <v>459.4023232022904</v>
+      </c>
+      <c r="G162" s="4">
+        <v>5.4700031502467539</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -4008,8 +4986,14 @@
       <c r="E163" s="4">
         <v>22.805232219174172</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F163" s="4">
+        <v>476.40384399703595</v>
+      </c>
+      <c r="G163" s="4">
+        <v>7.1212772945253278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -4025,8 +5009,14 @@
       <c r="E164" s="4">
         <v>21.682000491369308</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F164" s="4">
+        <v>461.37672851753246</v>
+      </c>
+      <c r="G164" s="4">
+        <v>6.6502615185673903</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -4042,8 +5032,14 @@
       <c r="E165" s="4">
         <v>20.51927259064945</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F165" s="4">
+        <v>464.4442812388163</v>
+      </c>
+      <c r="G165" s="4">
+        <v>6.0735924945935551</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -4059,8 +5055,14 @@
       <c r="E166" s="4">
         <v>19.572417894126914</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F166" s="4">
+        <v>465.64845450285736</v>
+      </c>
+      <c r="G166" s="4">
+        <v>6.1692008083775249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -4076,8 +5078,14 @@
       <c r="E167" s="4">
         <v>24.565448746812194</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F167" s="4">
+        <v>506.86037271908799</v>
+      </c>
+      <c r="G167" s="4">
+        <v>7.6686298862733508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -4093,8 +5101,14 @@
       <c r="E168" s="4">
         <v>26.935777265853687</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F168" s="4">
+        <v>497.47301918789066</v>
+      </c>
+      <c r="G168" s="4">
+        <v>7.5482155519185312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -4110,8 +5124,14 @@
       <c r="E169" s="4">
         <v>26.103299998085134</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F169" s="4">
+        <v>504.77526095138819</v>
+      </c>
+      <c r="G169" s="4">
+        <v>12.545476998211598</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -4127,8 +5147,14 @@
       <c r="E170" s="4">
         <v>11.619025987519905</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F170" s="4">
+        <v>504.64443767759701</v>
+      </c>
+      <c r="G170" s="4">
+        <v>4.7132413752329114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -4144,8 +5170,14 @@
       <c r="E171" s="4">
         <v>19.404343644967469</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F171" s="4">
+        <v>524.34577427080478</v>
+      </c>
+      <c r="G171" s="4">
+        <v>6.4607405166437957</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -4161,8 +5193,14 @@
       <c r="E172" s="4">
         <v>21.459223516357383</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F172" s="4">
+        <v>540.64310475685761</v>
+      </c>
+      <c r="G172" s="4">
+        <v>6.3339629007358553</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -4178,8 +5216,14 @@
       <c r="E173" s="4">
         <v>18.146034588186552</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F173" s="4">
+        <v>544.31069884940803</v>
+      </c>
+      <c r="G173" s="4">
+        <v>5.7326367436473333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -4195,8 +5239,14 @@
       <c r="E174" s="4">
         <v>17.717277981968778</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F174" s="4">
+        <v>554.69619859969032</v>
+      </c>
+      <c r="G174" s="4">
+        <v>6.0058532540210763</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -4212,8 +5262,14 @@
       <c r="E175" s="4">
         <v>21.41817131331328</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F175" s="4">
+        <v>588.76354924756913</v>
+      </c>
+      <c r="G175" s="4">
+        <v>6.8521681414612203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -4229,8 +5285,14 @@
       <c r="E176" s="4">
         <v>18.78636947856495</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F176" s="4">
+        <v>583.01223029999676</v>
+      </c>
+      <c r="G176" s="4">
+        <v>6.9211678927504749</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -4246,8 +5308,14 @@
       <c r="E177" s="4">
         <v>21.846162484175011</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F177" s="4">
+        <v>600.59594254241983</v>
+      </c>
+      <c r="G177" s="4">
+        <v>6.2057364583098433</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -4263,8 +5331,14 @@
       <c r="E178" s="4">
         <v>23.835739688615945</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F178" s="4">
+        <v>608.86283349344944</v>
+      </c>
+      <c r="G178" s="4">
+        <v>7.8305209769782209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -4280,8 +5354,14 @@
       <c r="E179" s="4">
         <v>19.054571365738582</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F179" s="4">
+        <v>627.33683274129032</v>
+      </c>
+      <c r="G179" s="4">
+        <v>8.0880539308444099</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -4297,8 +5377,14 @@
       <c r="E180" s="4">
         <v>19.844334667700991</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F180" s="4">
+        <v>640.39712675257533</v>
+      </c>
+      <c r="G180" s="4">
+        <v>7.2986436558283572</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -4314,8 +5400,14 @@
       <c r="E181" s="4">
         <v>30.2131572055726</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F181" s="4">
+        <v>654.22876529329903</v>
+      </c>
+      <c r="G181" s="4">
+        <v>19.04992375585806</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -4331,8 +5423,14 @@
       <c r="E182" s="4">
         <v>15.6025453831503</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F182" s="4">
+        <v>650.76218632927339</v>
+      </c>
+      <c r="G182" s="4">
+        <v>6.693136390365737</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -4348,8 +5446,14 @@
       <c r="E183" s="4">
         <v>31.847961734280261</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F183" s="4">
+        <v>676.11634283708668</v>
+      </c>
+      <c r="G183" s="4">
+        <v>9.7141158664848035</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -4365,8 +5469,14 @@
       <c r="E184" s="4">
         <v>20.519276833018068</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F184" s="4">
+        <v>688.83783256109518</v>
+      </c>
+      <c r="G184" s="4">
+        <v>9.0674379413123347</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
@@ -4382,8 +5492,14 @@
       <c r="E185" s="4">
         <v>16.683448683878055</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F185" s="4">
+        <v>681.63304931848188</v>
+      </c>
+      <c r="G185" s="4">
+        <v>6.8562615914913749</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -4399,8 +5515,14 @@
       <c r="E186" s="4">
         <v>25.080918003919123</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F186" s="4">
+        <v>692.28987061151179</v>
+      </c>
+      <c r="G186" s="4">
+        <v>10.642174423055508</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -4416,8 +5538,14 @@
       <c r="E187" s="4">
         <v>14.678807704939857</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F187" s="4">
+        <v>785.86635487043759</v>
+      </c>
+      <c r="G187" s="4">
+        <v>7.860263543355984</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -4433,8 +5561,14 @@
       <c r="E188" s="4">
         <v>20.22469119784256</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F188" s="4">
+        <v>780.58671133197254</v>
+      </c>
+      <c r="G188" s="4">
+        <v>12.161724976489836</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
@@ -4450,8 +5584,14 @@
       <c r="E189" s="4">
         <v>19.363080830962076</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F189" s="4">
+        <v>785.33628497831955</v>
+      </c>
+      <c r="G189" s="4">
+        <v>8.0988522643884266</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -4467,8 +5607,14 @@
       <c r="E190" s="4">
         <v>18.98903441454712</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F190" s="4">
+        <v>798.01813318041764</v>
+      </c>
+      <c r="G190" s="4">
+        <v>7.3819418734309465</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -4484,8 +5630,14 @@
       <c r="E191" s="4">
         <v>19.463184784434247</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F191" s="4">
+        <v>798.81075435523985</v>
+      </c>
+      <c r="G191" s="4">
+        <v>9.9366051927961507</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -4501,8 +5653,14 @@
       <c r="E192" s="4">
         <v>21.444416219147456</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F192" s="4">
+        <v>794.38484514513448</v>
+      </c>
+      <c r="G192" s="4">
+        <v>11.729339411896888</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -4518,8 +5676,14 @@
       <c r="E193" s="4">
         <v>14.699726660006547</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F193" s="4">
+        <v>806.37583544394795</v>
+      </c>
+      <c r="G193" s="4">
+        <v>8.8529293296980427</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
@@ -4535,8 +5699,14 @@
       <c r="E194" s="4">
         <v>19.786577687384863</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F194" s="4">
+        <v>811.82932265030342</v>
+      </c>
+      <c r="G194" s="4">
+        <v>8.0148701780545366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -4552,8 +5722,14 @@
       <c r="E195" s="4">
         <v>14.948262448726211</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F195" s="4">
+        <v>808.49749282312951</v>
+      </c>
+      <c r="G195" s="4">
+        <v>7.2460130636220583</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -4569,8 +5745,14 @@
       <c r="E196" s="4">
         <v>21.42058965519891</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F196" s="4">
+        <v>827.85677179260051</v>
+      </c>
+      <c r="G196" s="4">
+        <v>8.1312498810457896</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
@@ -4586,8 +5768,14 @@
       <c r="E197" s="4">
         <v>19.663013769447559</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F197" s="4">
+        <v>807.70078721879941</v>
+      </c>
+      <c r="G197" s="4">
+        <v>9.5600278758481636</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -4603,8 +5791,14 @@
       <c r="E198" s="4">
         <v>17.649606572527375</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F198" s="4">
+        <v>821.34311974434763</v>
+      </c>
+      <c r="G198" s="4">
+        <v>9.381256757245751</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
@@ -4620,8 +5814,14 @@
       <c r="E199" s="4">
         <v>16.119057973082533</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F199" s="4">
+        <v>853.58469894007806</v>
+      </c>
+      <c r="G199" s="4">
+        <v>7.837219310811065</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
@@ -4637,8 +5837,14 @@
       <c r="E200" s="4">
         <v>17.800118669826986</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F200" s="4">
+        <v>860.2124909809321</v>
+      </c>
+      <c r="G200" s="4">
+        <v>9.164695512392484</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
@@ -4654,8 +5860,14 @@
       <c r="E201" s="4">
         <v>16.116208881483146</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F201" s="4">
+        <v>855.46903403771353</v>
+      </c>
+      <c r="G201" s="4">
+        <v>6.8861646427438927</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
@@ -4671,8 +5883,14 @@
       <c r="E202" s="4">
         <v>15.028228873831608</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F202" s="4">
+        <v>932.30548536360777</v>
+      </c>
+      <c r="G202" s="4">
+        <v>8.762844393193177</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
@@ -4688,8 +5906,14 @@
       <c r="E203" s="4">
         <v>27.152273057679224</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F203" s="4">
+        <v>948.00805766759186</v>
+      </c>
+      <c r="G203" s="4">
+        <v>11.320188752978027</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
@@ -4705,8 +5929,14 @@
       <c r="E204" s="4">
         <v>13.553222829901415</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F204" s="4">
+        <v>935.89235410831623</v>
+      </c>
+      <c r="G204" s="4">
+        <v>8.6671989393206559</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
@@ -4722,8 +5952,14 @@
       <c r="E205" s="4">
         <v>18.70391840844826</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F205" s="4">
+        <v>954.26644313285715</v>
+      </c>
+      <c r="G205" s="4">
+        <v>10.114976659443812</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
@@ -4739,8 +5975,14 @@
       <c r="E206" s="4">
         <v>22.201495562488162</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F206" s="4">
+        <v>948.67237410017037</v>
+      </c>
+      <c r="G206" s="4">
+        <v>9.9358297007891565</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
@@ -4756,8 +5998,14 @@
       <c r="E207" s="4">
         <v>18.401748788313625</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F207" s="4">
+        <v>886.14412423524357</v>
+      </c>
+      <c r="G207" s="4">
+        <v>10.731236347256413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -4773,8 +6021,14 @@
       <c r="E208" s="4">
         <v>15.879172547722646</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F208" s="4">
+        <v>964.41925495710677</v>
+      </c>
+      <c r="G208" s="4">
+        <v>10.175599961300804</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -4790,8 +6044,14 @@
       <c r="E209" s="4">
         <v>13.482158716453569</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F209" s="4">
+        <v>1020.8632210633963</v>
+      </c>
+      <c r="G209" s="4">
+        <v>7.826742884723501</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -4807,8 +6067,14 @@
       <c r="E210" s="4">
         <v>16.898952410893401</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F210" s="4">
+        <v>978.74302027809165</v>
+      </c>
+      <c r="G210" s="4">
+        <v>12.359324934788958</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -4824,8 +6090,14 @@
       <c r="E211" s="4">
         <v>21.145210962227623</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F211" s="4">
+        <v>943.15590925314677</v>
+      </c>
+      <c r="G211" s="4">
+        <v>9.4886386695631586</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -4841,8 +6113,14 @@
       <c r="E212" s="4">
         <v>20.613416424004868</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F212" s="4">
+        <v>995.84795738151843</v>
+      </c>
+      <c r="G212" s="4">
+        <v>10.381213027687807</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
@@ -4858,8 +6136,14 @@
       <c r="E213" s="4">
         <v>16.002998805811046</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F213" s="4">
+        <v>1012.174786745444</v>
+      </c>
+      <c r="G213" s="4">
+        <v>9.6743944210358563</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -4875,8 +6159,14 @@
       <c r="E214" s="4">
         <v>15.411498667697799</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F214" s="4">
+        <v>1026.1757495602196</v>
+      </c>
+      <c r="G214" s="4">
+        <v>10.327165693686823</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -4892,8 +6182,14 @@
       <c r="E215" s="4">
         <v>17.97275075849393</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F215" s="4">
+        <v>1027.4365002370987</v>
+      </c>
+      <c r="G215" s="4">
+        <v>9.1364664890099334</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -4909,8 +6205,14 @@
       <c r="E216" s="4">
         <v>27.061102365927013</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F216" s="4">
+        <v>1005.4015946586794</v>
+      </c>
+      <c r="G216" s="4">
+        <v>12.239491042475208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
@@ -4926,8 +6228,14 @@
       <c r="E217" s="4">
         <v>26.939091462783381</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F217" s="4">
+        <v>1036.0976025127075</v>
+      </c>
+      <c r="G217" s="4">
+        <v>12.139237091804603</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -4943,8 +6251,14 @@
       <c r="E218" s="4">
         <v>18.302457500150126</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F218" s="4">
+        <v>1042.387003311477</v>
+      </c>
+      <c r="G218" s="4">
+        <v>10.001002203922894</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -4960,8 +6274,14 @@
       <c r="E219" s="4">
         <v>23.472845470549032</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F219" s="4">
+        <v>1055.6739516214079</v>
+      </c>
+      <c r="G219" s="4">
+        <v>11.335738145540631</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -4977,8 +6297,14 @@
       <c r="E220" s="4">
         <v>17.975272515771962</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F220" s="4">
+        <v>1095.9076949454432</v>
+      </c>
+      <c r="G220" s="4">
+        <v>10.736393393940943</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -4994,8 +6320,14 @@
       <c r="E221" s="4">
         <v>20.117731347689869</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F221" s="4">
+        <v>1109.7965105143221</v>
+      </c>
+      <c r="G221" s="4">
+        <v>10.652877542342026</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -5011,8 +6343,14 @@
       <c r="E222" s="4">
         <v>19.115395210468364</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F222" s="4">
+        <v>1101.0432032709339</v>
+      </c>
+      <c r="G222" s="4">
+        <v>9.590306360545469</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
@@ -5028,8 +6366,14 @@
       <c r="E223" s="4">
         <v>16.123881983912952</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F223" s="4">
+        <v>1127.962258410344</v>
+      </c>
+      <c r="G223" s="4">
+        <v>10.234706134399403</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
@@ -5045,8 +6389,14 @@
       <c r="E224" s="4">
         <v>37.626750565019393</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F224" s="4">
+        <v>1126.7252936976301</v>
+      </c>
+      <c r="G224" s="4">
+        <v>16.52552151458076</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
@@ -5062,8 +6412,14 @@
       <c r="E225" s="4">
         <v>24.368254916724254</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F225" s="4">
+        <v>1246.0510846817715</v>
+      </c>
+      <c r="G225" s="4">
+        <v>13.205251911702362</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
@@ -5079,8 +6435,14 @@
       <c r="E226" s="4">
         <v>18.435474163279423</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F226" s="4">
+        <v>1228.1089193135037</v>
+      </c>
+      <c r="G226" s="4">
+        <v>12.827942798069557</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
@@ -5096,8 +6458,14 @@
       <c r="E227" s="4">
         <v>28.681599300051062</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F227" s="4">
+        <v>1246.2105712925318</v>
+      </c>
+      <c r="G227" s="4">
+        <v>18.675564916840472</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
@@ -5113,8 +6481,14 @@
       <c r="E228" s="4">
         <v>13.407026606494583</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F228" s="4">
+        <v>1366.8553321074364</v>
+      </c>
+      <c r="G228" s="4">
+        <v>11.467841600300289</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
@@ -5130,8 +6504,14 @@
       <c r="E229" s="4">
         <v>17.461138188567361</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F229" s="4">
+        <v>1331.9466190363321</v>
+      </c>
+      <c r="G229" s="4">
+        <v>10.227149172758232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
@@ -5147,8 +6527,14 @@
       <c r="E230" s="4">
         <v>17.340330630657036</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F230" s="4">
+        <v>1371.2625922065015</v>
+      </c>
+      <c r="G230" s="4">
+        <v>14.782682065506947</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -5164,8 +6550,14 @@
       <c r="E231" s="4">
         <v>19.429156868587029</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F231" s="4">
+        <v>1355.4150924695696</v>
+      </c>
+      <c r="G231" s="4">
+        <v>16.262588136804425</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -5181,8 +6573,14 @@
       <c r="E232" s="4">
         <v>14.094316433463632</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F232" s="4">
+        <v>1573.424625782154</v>
+      </c>
+      <c r="G232" s="4">
+        <v>10.557937837138297</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -5198,8 +6596,14 @@
       <c r="E233" s="4">
         <v>13.869532244181073</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F233" s="4">
+        <v>1621.0960712388767</v>
+      </c>
+      <c r="G233" s="4">
+        <v>9.9694653722204976</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
@@ -5215,8 +6619,14 @@
       <c r="E234" s="4">
         <v>10.061695659154225</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F234" s="4">
+        <v>1706.0253782198481</v>
+      </c>
+      <c r="G234" s="4">
+        <v>9.0544907470480211</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -5232,8 +6642,14 @@
       <c r="E235" s="4">
         <v>37.217536489289614</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F235" s="4">
+        <v>1670.2992600365615</v>
+      </c>
+      <c r="G235" s="4">
+        <v>18.153691003750282</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
@@ -5249,8 +6665,14 @@
       <c r="E236" s="4">
         <v>15.067638513466477</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F236" s="4">
+        <v>1720.521422562831</v>
+      </c>
+      <c r="G236" s="4">
+        <v>12.606451887427284</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
@@ -5266,8 +6688,14 @@
       <c r="E237" s="4">
         <v>15.788764686976378</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F237" s="4">
+        <v>1689.3671177016456</v>
+      </c>
+      <c r="G237" s="4">
+        <v>13.139912354757598</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -5283,8 +6711,14 @@
       <c r="E238" s="4">
         <v>13.206160202613432</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F238" s="4">
+        <v>1683.5289194052702</v>
+      </c>
+      <c r="G238" s="4">
+        <v>13.464008503875903</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -5300,8 +6734,14 @@
       <c r="E239" s="4">
         <v>17.530468436205979</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F239" s="4">
+        <v>1753.7777637511067</v>
+      </c>
+      <c r="G239" s="4">
+        <v>12.693601502977685</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
@@ -5317,8 +6757,14 @@
       <c r="E240" s="4">
         <v>20.575730524142159</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F240" s="4">
+        <v>1770.6834656364304</v>
+      </c>
+      <c r="G240" s="4">
+        <v>14.708461825276686</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -5334,8 +6780,14 @@
       <c r="E241" s="4">
         <v>16.284454276876659</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F241" s="4">
+        <v>1818.9667947434411</v>
+      </c>
+      <c r="G241" s="4">
+        <v>13.637249719429747</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
@@ -5351,8 +6803,14 @@
       <c r="E242" s="4">
         <v>14.4505170066152</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F242" s="4">
+        <v>1696.8269151190966</v>
+      </c>
+      <c r="G242" s="4">
+        <v>16.04766393408363</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
@@ -5368,8 +6826,14 @@
       <c r="E243" s="4">
         <v>14.19067087480903</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F243" s="4">
+        <v>1832.316207445564</v>
+      </c>
+      <c r="G243" s="4">
+        <v>11.029650214971639</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
@@ -5385,8 +6849,14 @@
       <c r="E244" s="4">
         <v>16.651782891189782</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F244" s="4">
+        <v>1872.3223064479071</v>
+      </c>
+      <c r="G244" s="4">
+        <v>12.182165472599877</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
@@ -5402,8 +6872,14 @@
       <c r="E245" s="4">
         <v>16.00100988968677</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F245" s="4">
+        <v>1825.4766129517002</v>
+      </c>
+      <c r="G245" s="4">
+        <v>17.244109226186879</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
@@ -5419,8 +6895,14 @@
       <c r="E246" s="4">
         <v>17.210754759205315</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F246" s="4">
+        <v>1920.4621625496379</v>
+      </c>
+      <c r="G246" s="4">
+        <v>13.148257289862386</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
@@ -5436,8 +6918,14 @@
       <c r="E247" s="4">
         <v>20.820122293180816</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F247" s="4">
+        <v>1801.1474361865382</v>
+      </c>
+      <c r="G247" s="4">
+        <v>15.564847989322175</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
@@ -5453,8 +6941,14 @@
       <c r="E248" s="4">
         <v>16.567312825149315</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F248" s="4">
+        <v>1932.3979460439596</v>
+      </c>
+      <c r="G248" s="4">
+        <v>12.948091098173677</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
@@ -5470,8 +6964,14 @@
       <c r="E249" s="4">
         <v>16.389179734473942</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F249" s="4">
+        <v>1900.597823607877</v>
+      </c>
+      <c r="G249" s="4">
+        <v>14.564788372526209</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
@@ -5487,8 +6987,14 @@
       <c r="E250" s="4">
         <v>15.467688056642601</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F250" s="4">
+        <v>1871.1445075044549</v>
+      </c>
+      <c r="G250" s="4">
+        <v>11.712268654254331</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
@@ -5504,8 +7010,14 @@
       <c r="E251" s="4">
         <v>14.557614557647184</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F251" s="4">
+        <v>1948.1535716472188</v>
+      </c>
+      <c r="G251" s="4">
+        <v>12.284290042499151</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
@@ -5521,8 +7033,14 @@
       <c r="E252" s="4">
         <v>14.368895379109517</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F252" s="4">
+        <v>1942.8930465132855</v>
+      </c>
+      <c r="G252" s="4">
+        <v>11.570218586932242</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
@@ -5538,8 +7056,14 @@
       <c r="E253" s="4">
         <v>16.534014409094993</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F253" s="4">
+        <v>1907.8931595262659</v>
+      </c>
+      <c r="G253" s="4">
+        <v>16.816413495379152</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
@@ -5555,8 +7079,14 @@
       <c r="E254" s="4">
         <v>15.361155020975048</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F254" s="4">
+        <v>1887.3487304966902</v>
+      </c>
+      <c r="G254" s="4">
+        <v>12.664700665016767</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
@@ -5572,8 +7102,14 @@
       <c r="E255" s="4">
         <v>12.272895016343341</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F255" s="4">
+        <v>1978.1598261424851</v>
+      </c>
+      <c r="G255" s="4">
+        <v>11.662382574271192</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -5589,8 +7125,14 @@
       <c r="E256" s="4">
         <v>20.255864187412612</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F256" s="4">
+        <v>1936.7250760805812</v>
+      </c>
+      <c r="G256" s="4">
+        <v>14.697321128673138</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -5606,8 +7148,14 @@
       <c r="E257" s="4">
         <v>15.582921505358399</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F257" s="4">
+        <v>2131.3435086146569</v>
+      </c>
+      <c r="G257" s="4">
+        <v>14.100496706510967</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
@@ -5623,8 +7171,14 @@
       <c r="E258" s="4">
         <v>15.467232928823933</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F258" s="4">
+        <v>2178.1208671788854</v>
+      </c>
+      <c r="G258" s="4">
+        <v>16.625856123572021</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
@@ -5640,8 +7194,14 @@
       <c r="E259" s="4">
         <v>12.440584607854134</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F259" s="4">
+        <v>2304.2226624257273</v>
+      </c>
+      <c r="G259" s="4">
+        <v>13.650103398695137</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
@@ -5657,8 +7217,14 @@
       <c r="E260" s="4">
         <v>13.770694438860119</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F260" s="4">
+        <v>2307.7217714291369</v>
+      </c>
+      <c r="G260" s="4">
+        <v>20.012558102145249</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
@@ -5674,8 +7240,14 @@
       <c r="E261" s="4">
         <v>23.679733419611466</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F261" s="4">
+        <v>2285.9003752341923</v>
+      </c>
+      <c r="G261" s="4">
+        <v>18.585112878053451</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
@@ -5691,8 +7263,14 @@
       <c r="E262" s="4">
         <v>15.860586523544725</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F262" s="4">
+        <v>2363.8102214775304</v>
+      </c>
+      <c r="G262" s="4">
+        <v>12.384802235589177</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
@@ -5708,8 +7286,14 @@
       <c r="E263" s="4">
         <v>20.00816674455632</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F263" s="4">
+        <v>2301.6827699684736</v>
+      </c>
+      <c r="G263" s="4">
+        <v>18.922021652588455</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
@@ -5725,8 +7309,14 @@
       <c r="E264" s="4">
         <v>52.209410633274501</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F264" s="4">
+        <v>2291.5476118509309</v>
+      </c>
+      <c r="G264" s="4">
+        <v>30.527970245027973</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -5742,8 +7332,14 @@
       <c r="E265" s="4">
         <v>12.647833525526721</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F265" s="4">
+        <v>2397.931779743677</v>
+      </c>
+      <c r="G265" s="4">
+        <v>13.416593990342562</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
@@ -5759,8 +7355,14 @@
       <c r="E266" s="4">
         <v>13.661980109447313</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F266" s="4">
+        <v>2440.4991050390227</v>
+      </c>
+      <c r="G266" s="4">
+        <v>14.530940646893669</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
@@ -5776,8 +7378,14 @@
       <c r="E267" s="4">
         <v>16.990633535418965</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F267" s="4">
+        <v>2505.2159310836682</v>
+      </c>
+      <c r="G267" s="4">
+        <v>14.660232361305134</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
@@ -5792,6 +7400,12 @@
       </c>
       <c r="E268" s="4">
         <v>10.812692131080894</v>
+      </c>
+      <c r="F268" s="4">
+        <v>2512.174280163717</v>
+      </c>
+      <c r="G268" s="4">
+        <v>15.069311338072566</v>
       </c>
     </row>
   </sheetData>

--- a/Vasey20/N5.xlsx
+++ b/Vasey20/N5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9A25DF-3EBC-4163-B2FC-2E0C34FA43BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A565060-38B5-4475-8EA4-B391D284F590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="280">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -856,14 +856,30 @@
   </si>
   <si>
     <t>235 Error</t>
+  </si>
+  <si>
+    <t>75_ratio</t>
+  </si>
+  <si>
+    <t>75_1s</t>
+  </si>
+  <si>
+    <t>68_ratio</t>
+  </si>
+  <si>
+    <t>68_1s</t>
+  </si>
+  <si>
+    <t>rho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -909,12 +925,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:L268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1244,7 +1266,7 @@
     <col min="3" max="3" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1266,8 +1288,23 @@
       <c r="G1" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1326,23 @@
       <c r="G2" s="4">
         <v>3.9800046573636223</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="5">
+        <v>0.29853227538396959</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.7049549292651311</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3.9592835038290003E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.0767110542267007</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.63151877844113091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1312,8 +1364,23 @@
       <c r="G3" s="4">
         <v>3.7380283009721893</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="5">
+        <v>0.28291956463645951</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.6693490700992215</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3.9858782050659701E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.3736014356236022</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.82283655361664931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1335,8 +1402,23 @@
       <c r="G4" s="4">
         <v>3.5457761493751718</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="5">
+        <v>0.29542026633757551</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.5312638862609409</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4.0737960099899627E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.0041786253703122</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.65578417566049185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1358,8 +1440,23 @@
       <c r="G5" s="4">
         <v>5.5008449026197184</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="5">
+        <v>0.3383720201200105</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.1427803010735493</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4.1519941080693352E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.3902022103520373</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.64878429657745851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1381,8 +1478,23 @@
       <c r="G6" s="4">
         <v>4.0950660275037478</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="5">
+        <v>0.30534967888045211</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.724082494444338</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4.2169334859533496E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.5061037893181166</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.87356828583978252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1404,8 +1516,23 @@
       <c r="G7" s="4">
         <v>4.3441722841687351</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="5">
+        <v>0.31045167807791257</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.8059323577389714</v>
+      </c>
+      <c r="J7" s="5">
+        <v>4.2494901632615198E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.0982642159288047</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.60814249837343426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1427,8 +1554,23 @@
       <c r="G8" s="4">
         <v>6.3832214394277855</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="5">
+        <v>0.33213434151542381</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.5213812604401924</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4.2894537226996834E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.5531791121879919</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.61600327429927526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1450,8 +1592,23 @@
       <c r="G9" s="4">
         <v>3.5549287904633502</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="5">
+        <v>0.30629392013912565</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.4931441936526051</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4.2966425729736399E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.2071678860494959</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.80847375034587965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1473,8 +1630,23 @@
       <c r="G10" s="4">
         <v>3.9032522365797035</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="5">
+        <v>0.30972907249426684</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.6255265341392442</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4.300107093817488E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.4376444176491403</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.88441768710370994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1496,8 +1668,23 @@
       <c r="G11" s="4">
         <v>4.3645812614919635</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="5">
+        <v>0.31057780116611239</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.8138542830818729</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4.3263572996420398E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.5325620812123655</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.84492017661332142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1519,8 +1706,23 @@
       <c r="G12" s="4">
         <v>3.6288505560689259</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="5">
+        <v>0.30099295933546433</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.5447419224903023</v>
+      </c>
+      <c r="J12" s="5">
+        <v>4.3404549406449999E-2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.97777349663896385</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.63296883602581344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,8 +1744,23 @@
       <c r="G13" s="4">
         <v>6.9626960763786201</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="5">
+        <v>0.31210364375281097</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.8827701956845608</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4.4235255363146722E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.6138236446791887</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.55981695908159634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1565,8 +1782,23 @@
       <c r="G14" s="4">
         <v>3.7020275915774619</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="5">
+        <v>0.32308000150274763</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.4930826367540473</v>
+      </c>
+      <c r="J14" s="5">
+        <v>4.4248316004683416E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.88615448531027419</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.59350665763334343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1588,8 +1820,23 @@
       <c r="G15" s="4">
         <v>3.6907562840045784</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="5">
+        <v>0.31979546701236822</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.5000919254737437</v>
+      </c>
+      <c r="J15" s="5">
+        <v>4.4904203452830575E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.0790581932749541</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.71932804580237808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,8 +1858,23 @@
       <c r="G16" s="4">
         <v>4.445541283692279</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="5">
+        <v>0.32898413121392056</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.7686292668267256</v>
+      </c>
+      <c r="J16" s="5">
+        <v>4.4906050870133926E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.4102640017720534</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.79737683200411402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1634,8 +1896,23 @@
       <c r="G17" s="4">
         <v>4.2279409381245046</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="5">
+        <v>0.32940949322170765</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.6804250850486502</v>
+      </c>
+      <c r="J17" s="5">
+        <v>4.5195257720309544E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.2103341413950546</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.72025474516170662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1657,8 +1934,23 @@
       <c r="G18" s="4">
         <v>4.1420311420688449</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="5">
+        <v>0.33389136025836375</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.6296574196955183</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4.5219580176434369E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1.3152083940963268</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.80704593382703549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1680,8 +1972,23 @@
       <c r="G19" s="4">
         <v>3.5470891867629177</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" s="5">
+        <v>0.32723818257372461</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.4168547358480132</v>
+      </c>
+      <c r="J19" s="5">
+        <v>4.5414689652839305E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.1260903480125983</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.79478179344801547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1703,8 +2010,23 @@
       <c r="G20" s="4">
         <v>3.495775680864142</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" s="5">
+        <v>0.33262714321017028</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.3793132212193178</v>
+      </c>
+      <c r="J20" s="5">
+        <v>4.5991062104193625E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1.0650799654551517</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.77218136466031784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1726,8 +2048,23 @@
       <c r="G21" s="4">
         <v>3.4766352588566747</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" s="5">
+        <v>0.33517701961503432</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.363930171101184</v>
+      </c>
+      <c r="J21" s="5">
+        <v>4.6006120755153632E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.0972343213436504</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.80446517321175337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1749,8 +2086,23 @@
       <c r="G22" s="4">
         <v>5.3341081003655972</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" s="5">
+        <v>0.34393771061657524</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.0527083606758438</v>
+      </c>
+      <c r="J22" s="5">
+        <v>4.6105701412394284E-2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1.6002848759015136</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.77959680320814218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1772,8 +2124,23 @@
       <c r="G23" s="4">
         <v>3.949696027166226</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" s="5">
+        <v>0.32734628157696805</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.5772785509372047</v>
+      </c>
+      <c r="J23" s="5">
+        <v>4.6144387015268053E-2</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.1311665525807206</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.71716346609074944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +2162,23 @@
       <c r="G24" s="4">
         <v>3.8688835312076151</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" s="5">
+        <v>0.32781930862577824</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.543327494098804</v>
+      </c>
+      <c r="J24" s="5">
+        <v>4.621918011015802E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.1376633546262163</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.73714967106870122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1818,8 +2200,23 @@
       <c r="G25" s="4">
         <v>3.2910625358595667</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" s="5">
+        <v>0.32793838420883625</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.3124729913087396</v>
+      </c>
+      <c r="J25" s="5">
+        <v>4.6407908785775435E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1.0834124921188331</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.82547412350063087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1841,8 +2238,23 @@
       <c r="G26" s="4">
         <v>42.1638670674336</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" s="5">
+        <v>0.17915835504083746</v>
+      </c>
+      <c r="I26" s="4">
+        <v>27.314676960156159</v>
+      </c>
+      <c r="J26" s="5">
+        <v>4.6488559095117718E-2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.4208561577297898</v>
+      </c>
+      <c r="L26" s="6">
+        <v>5.2018047286533017E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1864,8 +2276,23 @@
       <c r="G27" s="4">
         <v>4.430517804340667</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" s="5">
+        <v>0.34099978861806512</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.71591756058708</v>
+      </c>
+      <c r="J27" s="5">
+        <v>4.6678947901610972E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.2248477054204647</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.71381500694089206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1887,8 +2314,23 @@
       <c r="G28" s="4">
         <v>3.1724806123615679</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="5">
+        <v>0.33331860692440241</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.2498043577140254</v>
+      </c>
+      <c r="J28" s="5">
+        <v>4.6730441936678344E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.9214815765926917</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.73730065902325881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1910,8 +2352,23 @@
       <c r="G29" s="4">
         <v>7.6398429093066795</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="5">
+        <v>0.35137258379737363</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2.8937003328869153</v>
+      </c>
+      <c r="J29" s="5">
+        <v>4.6796249272693942E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2.7261980312766148</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.94211484178004345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1933,8 +2390,23 @@
       <c r="G30" s="4">
         <v>4.285811671478001</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" s="5">
+        <v>0.33653627513979001</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.6762911815229362</v>
+      </c>
+      <c r="J30" s="5">
+        <v>4.6822548075567481E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.5109599456227438</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.90137081330345825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1956,8 +2428,23 @@
       <c r="G31" s="4">
         <v>4.060054602728485</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" s="5">
+        <v>0.33787313295291832</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.583291654273222</v>
+      </c>
+      <c r="J31" s="5">
+        <v>4.6867696511294195E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.1255188517057715</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.71087272434491433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,8 +2466,23 @@
       <c r="G32" s="4">
         <v>4.2475683746502</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" s="5">
+        <v>0.34392799361592236</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.6346184957719392</v>
+      </c>
+      <c r="J32" s="5">
+        <v>4.6873385933727786E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.3191500432078691</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.80700790222302465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2002,8 +2504,23 @@
       <c r="G33" s="4">
         <v>4.8704615206971198</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" s="5">
+        <v>0.34244480458775883</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.880367480591596</v>
+      </c>
+      <c r="J33" s="5">
+        <v>4.739021726835832E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.6247280066463479</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.86404813070644049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2025,8 +2542,23 @@
       <c r="G34" s="4">
         <v>66.0521822348108</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" s="5">
+        <v>1.1248049292313895</v>
+      </c>
+      <c r="I34" s="4">
+        <v>12.271202341592179</v>
+      </c>
+      <c r="J34" s="5">
+        <v>4.7685506736826103E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.43777306380098</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.11716643762997689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -2048,8 +2580,23 @@
       <c r="G35" s="4">
         <v>11.402095545573303</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" s="5">
+        <v>0.64497561997795183</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2.8638658985820769</v>
+      </c>
+      <c r="J35" s="5">
+        <v>4.7724128792997568E-2</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.4084914550708267</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.49181473747363036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2071,8 +2618,23 @@
       <c r="G36" s="4">
         <v>3.5481259761970421</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" s="5">
+        <v>0.34653779045172856</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1.3577984138671777</v>
+      </c>
+      <c r="J36" s="5">
+        <v>4.782549146386874E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1.1556387131398194</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.85111213957631437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -2094,8 +2656,23 @@
       <c r="G37" s="4">
         <v>9.2856740294642179</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" s="5">
+        <v>0.3216130859332097</v>
+      </c>
+      <c r="I37" s="4">
+        <v>3.7578724525631553</v>
+      </c>
+      <c r="J37" s="5">
+        <v>4.7830098953244179E-2</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1.3033564314334447</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.34683360009849595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2117,8 +2694,23 @@
       <c r="G38" s="4">
         <v>25.265132020659507</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" s="5">
+        <v>0.46166517266012269</v>
+      </c>
+      <c r="I38" s="4">
+        <v>7.8763105516583813</v>
+      </c>
+      <c r="J38" s="5">
+        <v>4.7908912696005841E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2.0595675415613437</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.26148886944632932</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2140,8 +2732,23 @@
       <c r="G39" s="4">
         <v>3.6460005813085559</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" s="5">
+        <v>0.34889053724997221</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.388265316889961</v>
+      </c>
+      <c r="J39" s="5">
+        <v>4.8026066705063791E-2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.0756013514329648</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.77478082780499313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2163,8 +2770,23 @@
       <c r="G40" s="4">
         <v>4.7061172166325491</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" s="5">
+        <v>0.37457634612040697</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.7008195409727285</v>
+      </c>
+      <c r="J40" s="5">
+        <v>4.8175467289191629E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1.0510198086263181</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0.61794904356826796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2186,8 +2808,23 @@
       <c r="G41" s="4">
         <v>7.6989976218060576</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" s="5">
+        <v>0.34627825793237155</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2.9478512165563613</v>
+      </c>
+      <c r="J41" s="5">
+        <v>4.8200226719532245E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2.7958780494512747</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.94844612026158504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2846,23 @@
       <c r="G42" s="4">
         <v>4.387367132275557</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" s="5">
+        <v>0.35728524478632573</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.6414490643863704</v>
+      </c>
+      <c r="J42" s="5">
+        <v>4.8362158086429255E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1.4610663467431111</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.8901076362605912</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2232,8 +2884,23 @@
       <c r="G43" s="4">
         <v>3.8851939711967987</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" s="5">
+        <v>0.36681059344289901</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1.4257623512045101</v>
+      </c>
+      <c r="J43" s="5">
+        <v>4.8431689409569087E-2</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1.2064627397053385</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0.84618782273644455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -2255,8 +2922,23 @@
       <c r="G44" s="4">
         <v>10.127516616600758</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" s="5">
+        <v>0.38894749570859843</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3.5616685542940933</v>
+      </c>
+      <c r="J44" s="5">
+        <v>4.9027231861330872E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1.4310487234902218</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.40179166075543188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -2278,8 +2960,23 @@
       <c r="G45" s="4">
         <v>4.2558294211375767</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" s="5">
+        <v>0.36045038431226023</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.5819362334066553</v>
+      </c>
+      <c r="J45" s="5">
+        <v>4.9283436842511054E-2</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1.1253534257233333</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.71137723629979455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -2301,8 +2998,23 @@
       <c r="G46" s="4">
         <v>4.6828303183378637</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" s="5">
+        <v>0.35768884580024229</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1.7505329281445796</v>
+      </c>
+      <c r="J46" s="5">
+        <v>4.9324573209698172E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1.5415690980693817</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.88062844936217066</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2324,8 +3036,23 @@
       <c r="G47" s="4">
         <v>5.0592455975006487</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" s="5">
+        <v>0.36368454155727159</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.8682772845623996</v>
+      </c>
+      <c r="J47" s="5">
+        <v>4.9452340271696947E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.5791784929987507</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.84525916257052613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -2347,8 +3074,23 @@
       <c r="G48" s="4">
         <v>5.3869221757170749</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" s="5">
+        <v>0.38447021088731836</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.9104146322000688</v>
+      </c>
+      <c r="J48" s="5">
+        <v>4.9503999570727701E-2</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1.473314439754716</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.77120140043003116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -2370,8 +3112,23 @@
       <c r="G49" s="4">
         <v>4.9528207746980968</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" s="5">
+        <v>0.35762198064123346</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1.851714017804899</v>
+      </c>
+      <c r="J49" s="5">
+        <v>4.9558653489583902E-2</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1.2990440083858701</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.70153598012171037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -2393,8 +3150,23 @@
       <c r="G50" s="4">
         <v>4.602168795988888</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" s="5">
+        <v>0.35898164996869436</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1.715817140703245</v>
+      </c>
+      <c r="J50" s="5">
+        <v>4.9668814101212704E-2</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1.2763604778900073</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.74387908105806555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -2416,8 +3188,23 @@
       <c r="G51" s="4">
         <v>5.1186096010354731</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" s="5">
+        <v>0.36201910182566893</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1.8965754705960129</v>
+      </c>
+      <c r="J51" s="5">
+        <v>4.9744659996188094E-2</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1.3843548215327222</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.72992340299417569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2439,8 +3226,23 @@
       <c r="G52" s="4">
         <v>12.164048569561885</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" s="5">
+        <v>0.41466381092284232</v>
+      </c>
+      <c r="I52" s="4">
+        <v>4.0868111418186697</v>
+      </c>
+      <c r="J52" s="5">
+        <v>4.9798693755323559E-2</v>
+      </c>
+      <c r="K52" s="4">
+        <v>3.1835899218484882</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.77899120154394041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -2462,8 +3264,23 @@
       <c r="G53" s="4">
         <v>4.8770340264572667</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" s="5">
+        <v>0.36356427893394794</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1.8014281482037693</v>
+      </c>
+      <c r="J53" s="5">
+        <v>4.9963156447046804E-2</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1.1974084832202814</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.6646995520827379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2485,8 +3302,23 @@
       <c r="G54" s="4">
         <v>4.1630528164557461</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" s="5">
+        <v>0.36517033172756547</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1.5327486138477002</v>
+      </c>
+      <c r="J54" s="5">
+        <v>4.9990749803000487E-2</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1.2559755668504227</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.81942697941674414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -2508,8 +3340,23 @@
       <c r="G55" s="4">
         <v>5.9287930382163836</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" s="5">
+        <v>0.36924697482498609</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2.1651913739687889</v>
+      </c>
+      <c r="J55" s="5">
+        <v>5.0094895235187183E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1.8952626412619267</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0.8753326214245517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -2531,8 +3378,23 @@
       <c r="G56" s="4">
         <v>7.3110806539801274</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" s="5">
+        <v>0.35021035390612465</v>
+      </c>
+      <c r="I56" s="4">
+        <v>2.7759817794658757</v>
+      </c>
+      <c r="J56" s="5">
+        <v>5.0159278680326401E-2</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1.4609076934744116</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.52626703254352902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -2554,8 +3416,23 @@
       <c r="G57" s="4">
         <v>4.1163668952622459</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" s="5">
+        <v>0.36762944553223664</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1.5081340327904811</v>
+      </c>
+      <c r="J57" s="5">
+        <v>5.0171319627667105E-2</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1.2110241559678139</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0.80299504529254018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -2577,8 +3454,23 @@
       <c r="G58" s="4">
         <v>8.16876024771841</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" s="5">
+        <v>0.4187502619774533</v>
+      </c>
+      <c r="I58" s="4">
+        <v>2.7256352212163111</v>
+      </c>
+      <c r="J58" s="5">
+        <v>5.0333693748977684E-2</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1.6114378701789018</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.59121552936926025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -2600,8 +3492,23 @@
       <c r="G59" s="4">
         <v>4.8259852185759655</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" s="5">
+        <v>0.37392965321200172</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1.7463343501230464</v>
+      </c>
+      <c r="J59" s="5">
+        <v>5.0396445601517029E-2</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1.2589206288798469</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.72089324062780058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -2623,8 +3530,23 @@
       <c r="G60" s="4">
         <v>23.380614157447809</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" s="5">
+        <v>0.47039151054759654</v>
+      </c>
+      <c r="I60" s="4">
+        <v>7.1965238437834111</v>
+      </c>
+      <c r="J60" s="5">
+        <v>5.05539586142498E-2</v>
+      </c>
+      <c r="K60" s="4">
+        <v>5.8975916427715287</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.81950560726149169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2646,8 +3568,23 @@
       <c r="G61" s="4">
         <v>6.1777907865818236</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" s="5">
+        <v>0.37708252273615728</v>
+      </c>
+      <c r="I61" s="4">
+        <v>2.221884553071912</v>
+      </c>
+      <c r="J61" s="5">
+        <v>5.0826870175750986E-2</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1.8749471365682047</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.84385443608037958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -2669,8 +3606,23 @@
       <c r="G62" s="4">
         <v>11.665107295671845</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" s="5">
+        <v>0.45131515008759604</v>
+      </c>
+      <c r="I62" s="4">
+        <v>3.6942096418500241</v>
+      </c>
+      <c r="J62" s="5">
+        <v>5.085663830832457E-2</v>
+      </c>
+      <c r="K62" s="4">
+        <v>2.0853998485406864</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0.56450500938445347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -2692,8 +3644,23 @@
       <c r="G63" s="4">
         <v>20.758737881322901</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" s="5">
+        <v>0.64649562314022879</v>
+      </c>
+      <c r="I63" s="4">
+        <v>5.2060163165223354</v>
+      </c>
+      <c r="J63" s="5">
+        <v>5.0914241716077877E-2</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1.3133572555042619</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0.25227682274757002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,8 +3682,23 @@
       <c r="G64" s="4">
         <v>5.3348162527403247</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" s="5">
+        <v>0.37735669400520888</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1.9176967151074567</v>
+      </c>
+      <c r="J64" s="5">
+        <v>5.0920531135783417E-2</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1.3264564265222052</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0.6916924955194903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -2738,8 +3720,23 @@
       <c r="G65" s="4">
         <v>5.6142769445474698</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" s="5">
+        <v>0.37531998539726064</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2.0261031822786415</v>
+      </c>
+      <c r="J65" s="5">
+        <v>5.1021371691942922E-2</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1.1625744849555528</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0.57379826216356489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -2761,8 +3758,23 @@
       <c r="G66" s="4">
         <v>4.7747721226797921</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" s="5">
+        <v>0.3891104125874415</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1.6787400506138663</v>
+      </c>
+      <c r="J66" s="5">
+        <v>5.1293040899269331E-2</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1.2185460746174002</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0.72586942461509363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -2784,8 +3796,23 @@
       <c r="G67" s="4">
         <v>4.8523542217530746</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" s="5">
+        <v>0.38002325991141567</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1.7353836737114534</v>
+      </c>
+      <c r="J67" s="5">
+        <v>5.1312607235063777E-2</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1.2345442933689312</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.71139559053740531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2807,8 +3834,23 @@
       <c r="G68" s="4">
         <v>5.2659413476151258</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" s="5">
+        <v>0.38482156083637065</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1.8662792743128993</v>
+      </c>
+      <c r="J68" s="5">
+        <v>5.1431222373002579E-2</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1.1807657435511294</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0.63268437891528673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3872,23 @@
       <c r="G69" s="4">
         <v>5.3901636645792053</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" s="5">
+        <v>0.39878803386071282</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1.8619917483652608</v>
+      </c>
+      <c r="J69" s="5">
+        <v>5.1433620592176883E-2</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1.1115549561704576</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0.5969709356372549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -2853,8 +3910,23 @@
       <c r="G70" s="4">
         <v>6.5927349300608853</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" s="5">
+        <v>0.38317333495275113</v>
+      </c>
+      <c r="I70" s="4">
+        <v>2.3437480847498278</v>
+      </c>
+      <c r="J70" s="5">
+        <v>5.1476516467072402E-2</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1.2897695796645516</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0.55030213701581432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -2876,8 +3948,23 @@
       <c r="G71" s="4">
         <v>3.752802500628917</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" s="5">
+        <v>0.39300609615952936</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1.3100188688636747</v>
+      </c>
+      <c r="J71" s="5">
+        <v>5.1893070739312749E-2</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.95163020577651813</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0.72642480837086953</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -2899,8 +3986,23 @@
       <c r="G72" s="4">
         <v>4.0737493945456151</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" s="5">
+        <v>0.38141078361855857</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1.4530880867618927</v>
+      </c>
+      <c r="J72" s="5">
+        <v>5.205137556550362E-2</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1.2373255789092192</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0.85151450223951286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -2922,8 +4024,23 @@
       <c r="G73" s="4">
         <v>4.1961796288837263</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" s="5">
+        <v>0.39356675473596275</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1.4632922060788303</v>
+      </c>
+      <c r="J73" s="5">
+        <v>5.2136802931552435E-2</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1.1325261612554558</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0.77395762551778724</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2945,8 +4062,23 @@
       <c r="G74" s="4">
         <v>3.4997613045292724</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" s="5">
+        <v>0.39105415125686743</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1.2260662297318476</v>
+      </c>
+      <c r="J74" s="5">
+        <v>5.2224879755922528E-2</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0.85177167998414383</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0.69471914267668411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2968,8 +4100,23 @@
       <c r="G75" s="4">
         <v>6.4007643067004949</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" s="5">
+        <v>0.39274921238294264</v>
+      </c>
+      <c r="I75" s="4">
+        <v>2.2353924049221372</v>
+      </c>
+      <c r="J75" s="5">
+        <v>5.2270300589664573E-2</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1.8070364162864492</v>
+      </c>
+      <c r="L75" s="6">
+        <v>0.80837548356499456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -2991,8 +4138,23 @@
       <c r="G76" s="4">
         <v>4.3490313063484223</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" s="5">
+        <v>0.37788138399553739</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1.5617672184517881</v>
+      </c>
+      <c r="J76" s="5">
+        <v>5.2302928196125198E-2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1.2283960570619816</v>
+      </c>
+      <c r="L76" s="6">
+        <v>0.78654234930075939</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -3014,8 +4176,23 @@
       <c r="G77" s="4">
         <v>5.4577233597176189</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" s="5">
+        <v>0.38206723862092051</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1.9443157673093674</v>
+      </c>
+      <c r="J77" s="5">
+        <v>5.2379966938216574E-2</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1.350343753218231</v>
+      </c>
+      <c r="L77" s="6">
+        <v>0.69450846201123895</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -3037,8 +4214,23 @@
       <c r="G78" s="4">
         <v>4.352390192560307</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" s="5">
+        <v>0.38987713196713869</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1.5280722860646743</v>
+      </c>
+      <c r="J78" s="5">
+        <v>5.2524020954253646E-2</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1.3603245889923608</v>
+      </c>
+      <c r="L78" s="6">
+        <v>0.89022266904380365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -3060,8 +4252,23 @@
       <c r="G79" s="4">
         <v>11.970188675890341</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" s="5">
+        <v>0.40407077542286185</v>
+      </c>
+      <c r="I79" s="4">
+        <v>4.0962129451482721</v>
+      </c>
+      <c r="J79" s="5">
+        <v>5.2751937323227242E-2</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1.4529042274983004</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0.35469450610940095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -3083,8 +4290,23 @@
       <c r="G80" s="4">
         <v>7.6718020054571525</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" s="5">
+        <v>0.43682437927305162</v>
+      </c>
+      <c r="I80" s="4">
+        <v>2.4851695918768155</v>
+      </c>
+      <c r="J80" s="5">
+        <v>5.2813708860766896E-2</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1.3575150720546574</v>
+      </c>
+      <c r="L80" s="6">
+        <v>0.5462464519491621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -3106,8 +4328,23 @@
       <c r="G81" s="4">
         <v>4.3604601703104038</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" s="5">
+        <v>0.39775447848565076</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1.5090914466536607</v>
+      </c>
+      <c r="J81" s="5">
+        <v>5.3243366919051377E-2</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1.1182246857054516</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0.74099199765863277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -3129,8 +4366,23 @@
       <c r="G82" s="4">
         <v>4.8422605930987572</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" s="5">
+        <v>0.39449634742505035</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1.6857351766102726</v>
+      </c>
+      <c r="J82" s="5">
+        <v>5.3713613273642491E-2</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1.4401984934347623</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0.85434445066914788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -3152,8 +4404,23 @@
       <c r="G83" s="4">
         <v>5.0286574147903877</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" s="5">
+        <v>0.38964921445386169</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1.7662410309216066</v>
+      </c>
+      <c r="J83" s="5">
+        <v>5.3790379536972591E-2</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1.1409380890215974</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0.64596964346721564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -3175,8 +4442,23 @@
       <c r="G84" s="4">
         <v>4.5940256744690373</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" s="5">
+        <v>0.40008785535199681</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1.583289981540855</v>
+      </c>
+      <c r="J84" s="5">
+        <v>5.3823396872134693E-2</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1.2487328193372487</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0.78869495411193336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -3198,8 +4480,23 @@
       <c r="G85" s="4">
         <v>9.4777368603193963</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" s="5">
+        <v>0.41002601992467291</v>
+      </c>
+      <c r="I85" s="4">
+        <v>3.20979896642445</v>
+      </c>
+      <c r="J85" s="5">
+        <v>5.389101496077401E-2</v>
+      </c>
+      <c r="K85" s="4">
+        <v>2.9153180725635903</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0.90825565808288133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -3221,8 +4518,23 @@
       <c r="G86" s="4">
         <v>5.180856781583401</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" s="5">
+        <v>0.39314491678380686</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1.808054583322164</v>
+      </c>
+      <c r="J86" s="5">
+        <v>5.4019353000023626E-2</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1.2194371273701505</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0.67444707622129774</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -3244,8 +4556,23 @@
       <c r="G87" s="4">
         <v>5.6404491724835282</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" s="5">
+        <v>0.40499132877157251</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1.9271132231546793</v>
+      </c>
+      <c r="J87" s="5">
+        <v>5.412199587869447E-2</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1.4619802420221375</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0.75863743990551835</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -3267,8 +4594,23 @@
       <c r="G88" s="4">
         <v>5.5347392974927061</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" s="5">
+        <v>0.40776067662179005</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1.8818562496648827</v>
+      </c>
+      <c r="J88" s="5">
+        <v>5.4333119705553372E-2</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1.159882876196239</v>
+      </c>
+      <c r="L88" s="6">
+        <v>0.61635041273890534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -3290,8 +4632,23 @@
       <c r="G89" s="4">
         <v>4.6066027159507996</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" s="5">
+        <v>0.40904607652037539</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1.5627907519362105</v>
+      </c>
+      <c r="J89" s="5">
+        <v>5.4377598543406409E-2</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1.1071677428891769</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0.70845552516704979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -3313,8 +4670,23 @@
       <c r="G90" s="4">
         <v>5.0042872757177577</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" s="5">
+        <v>0.41639766897872316</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1.676431140560797</v>
+      </c>
+      <c r="J90" s="5">
+        <v>5.5020105082684331E-2</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1.310133617087557</v>
+      </c>
+      <c r="L90" s="6">
+        <v>0.78150159907510008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -3336,8 +4708,23 @@
       <c r="G91" s="4">
         <v>6.3783556726341146</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" s="5">
+        <v>0.46696035871834174</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1.973383415457401</v>
+      </c>
+      <c r="J91" s="5">
+        <v>5.5026077759788974E-2</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1.1218690126764617</v>
+      </c>
+      <c r="L91" s="6">
+        <v>0.56850027414283777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -3359,8 +4746,23 @@
       <c r="G92" s="4">
         <v>4.3663121883141116</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" s="5">
+        <v>0.4117588943828101</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1.4743471005550084</v>
+      </c>
+      <c r="J92" s="5">
+        <v>5.5787534415662275E-2</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1.2781086666830084</v>
+      </c>
+      <c r="L92" s="6">
+        <v>0.86689807725865398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -3382,8 +4784,23 @@
       <c r="G93" s="4">
         <v>5.2177686849485099</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" s="5">
+        <v>0.41357891620376475</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1.7563568411926307</v>
+      </c>
+      <c r="J93" s="5">
+        <v>5.6039894714400074E-2</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1.4526702356679324</v>
+      </c>
+      <c r="L93" s="6">
+        <v>0.82709287862113257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -3405,8 +4822,23 @@
       <c r="G94" s="4">
         <v>4.8610697131724976</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" s="5">
+        <v>0.4195325152299863</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1.6198632016025307</v>
+      </c>
+      <c r="J94" s="5">
+        <v>5.6485186526303396E-2</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0.97822469452716954</v>
+      </c>
+      <c r="L94" s="6">
+        <v>0.60389339887430726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -3428,8 +4860,23 @@
       <c r="G95" s="4">
         <v>9.0133469856710349</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" s="5">
+        <v>0.42991506382144457</v>
+      </c>
+      <c r="I95" s="4">
+        <v>2.952380657842407</v>
+      </c>
+      <c r="J95" s="5">
+        <v>5.6676065927592133E-2</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1.4175668564430373</v>
+      </c>
+      <c r="L95" s="6">
+        <v>0.48014366056678925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -3451,8 +4898,23 @@
       <c r="G96" s="4">
         <v>54.661164376196552</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" s="5">
+        <v>0.78226395059254028</v>
+      </c>
+      <c r="I96" s="4">
+        <v>12.253169161595141</v>
+      </c>
+      <c r="J96" s="5">
+        <v>5.7552139332700598E-2</v>
+      </c>
+      <c r="K96" s="4">
+        <v>2.5481522730876058</v>
+      </c>
+      <c r="L96" s="6">
+        <v>0.20795863008846877</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -3474,8 +4936,23 @@
       <c r="G97" s="4">
         <v>13.33496204636748</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" s="5">
+        <v>0.59652992924564818</v>
+      </c>
+      <c r="I97" s="4">
+        <v>3.5146471617164541</v>
+      </c>
+      <c r="J97" s="5">
+        <v>5.8047003834079174E-2</v>
+      </c>
+      <c r="K97" s="4">
+        <v>1.5795961965916632</v>
+      </c>
+      <c r="L97" s="6">
+        <v>0.44943236800482478</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -3497,8 +4974,23 @@
       <c r="G98" s="4">
         <v>6.4728524731482082</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" s="5">
+        <v>0.4423016412102197</v>
+      </c>
+      <c r="I98" s="4">
+        <v>2.0787270240407221</v>
+      </c>
+      <c r="J98" s="5">
+        <v>5.8077272429551331E-2</v>
+      </c>
+      <c r="K98" s="4">
+        <v>1.4365686845591106</v>
+      </c>
+      <c r="L98" s="6">
+        <v>0.69108096827771304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -3520,8 +5012,23 @@
       <c r="G99" s="4">
         <v>5.4418706516656812</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" s="5">
+        <v>0.42808700668102201</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1.7878734180977813</v>
+      </c>
+      <c r="J99" s="5">
+        <v>5.8361647798813608E-2</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1.4705827235100226</v>
+      </c>
+      <c r="L99" s="6">
+        <v>0.82253179035161106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -3543,8 +5050,23 @@
       <c r="G100" s="4">
         <v>5.1165115340062641</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" s="5">
+        <v>0.46380022748883637</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1.5903445464583346</v>
+      </c>
+      <c r="J100" s="5">
+        <v>5.8496573982871142E-2</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1.349944722527469</v>
+      </c>
+      <c r="L100" s="6">
+        <v>0.84883789838734569</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -3566,8 +5088,23 @@
       <c r="G101" s="4">
         <v>6.0628615879336394</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" s="5">
+        <v>0.48447800794064988</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1.8295415705193181</v>
+      </c>
+      <c r="J101" s="5">
+        <v>5.8583348885582809E-2</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1.1138928050803991</v>
+      </c>
+      <c r="L101" s="6">
+        <v>0.60883711145422037</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -3589,8 +5126,23 @@
       <c r="G102" s="4">
         <v>4.9259023995733173</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" s="5">
+        <v>0.4430538424449238</v>
+      </c>
+      <c r="I102" s="4">
+        <v>1.5800779517363055</v>
+      </c>
+      <c r="J102" s="5">
+        <v>5.8667281008636676E-2</v>
+      </c>
+      <c r="K102" s="4">
+        <v>1.2297014221870333</v>
+      </c>
+      <c r="L102" s="6">
+        <v>0.77825364301536359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -3612,8 +5164,23 @@
       <c r="G103" s="4">
         <v>7.6603204208151681</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" s="5">
+        <v>0.47406194052907069</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2.3457916121919959</v>
+      </c>
+      <c r="J103" s="5">
+        <v>5.9072223161857548E-2</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1.1379781031141059</v>
+      </c>
+      <c r="L103" s="6">
+        <v>0.4851147464248694</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -3635,8 +5202,23 @@
       <c r="G104" s="4">
         <v>6.5205499511155551</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" s="5">
+        <v>0.44679461323166869</v>
+      </c>
+      <c r="I104" s="4">
+        <v>2.079444340180562</v>
+      </c>
+      <c r="J104" s="5">
+        <v>5.9446477562540935E-2</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1.8126599602272495</v>
+      </c>
+      <c r="L104" s="6">
+        <v>0.87170400534493409</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -3658,8 +5240,23 @@
       <c r="G105" s="4">
         <v>5.7036720354141437</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" s="5">
+        <v>0.45256589863148894</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1.8029101540839727</v>
+      </c>
+      <c r="J105" s="5">
+        <v>5.9489520302124385E-2</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1.5280272367910972</v>
+      </c>
+      <c r="L105" s="6">
+        <v>0.84753376829665772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -3681,8 +5278,23 @@
       <c r="G106" s="4">
         <v>4.8057176558585297</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" s="5">
+        <v>0.45182520507443524</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1.5207890457943121</v>
+      </c>
+      <c r="J106" s="5">
+        <v>6.038284246926038E-2</v>
+      </c>
+      <c r="K106" s="4">
+        <v>1.306023710275056</v>
+      </c>
+      <c r="L106" s="6">
+        <v>0.85878032452089137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -3704,8 +5316,23 @@
       <c r="G107" s="4">
         <v>8.9919702516250766</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" s="5">
+        <v>0.47877190608103198</v>
+      </c>
+      <c r="I107" s="4">
+        <v>2.7351813753708614</v>
+      </c>
+      <c r="J107" s="5">
+        <v>6.0545984534307359E-2</v>
+      </c>
+      <c r="K107" s="4">
+        <v>1.8464522011853193</v>
+      </c>
+      <c r="L107" s="6">
+        <v>0.67507486626365321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -3727,8 +5354,23 @@
       <c r="G108" s="4">
         <v>6.0905525326964778</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" s="5">
+        <v>0.52471328434044218</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1.7429611175850825</v>
+      </c>
+      <c r="J108" s="5">
+        <v>6.0607969685228601E-2</v>
+      </c>
+      <c r="K108" s="4">
+        <v>1.5139112506200347</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0.86858578504470474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -3750,8 +5392,23 @@
       <c r="G109" s="4">
         <v>8.2404205713600334</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" s="5">
+        <v>0.48621625576119165</v>
+      </c>
+      <c r="I109" s="4">
+        <v>2.4806327037914309</v>
+      </c>
+      <c r="J109" s="5">
+        <v>6.0979260015255207E-2</v>
+      </c>
+      <c r="K109" s="4">
+        <v>1.3141738685265543</v>
+      </c>
+      <c r="L109" s="6">
+        <v>0.52977366077531507</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -3773,8 +5430,23 @@
       <c r="G110" s="4">
         <v>6.5375764346020446</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" s="5">
+        <v>0.49125247680518497</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1.954462277176378</v>
+      </c>
+      <c r="J110" s="5">
+        <v>6.1010331463750997E-2</v>
+      </c>
+      <c r="K110" s="4">
+        <v>1.4877484622937873</v>
+      </c>
+      <c r="L110" s="6">
+        <v>0.76120602565077156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -3796,8 +5468,23 @@
       <c r="G111" s="4">
         <v>5.404629202046948</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" s="5">
+        <v>0.44006104411196151</v>
+      </c>
+      <c r="I111" s="4">
+        <v>1.7418063466352682</v>
+      </c>
+      <c r="J111" s="5">
+        <v>6.1715762790010745E-2</v>
+      </c>
+      <c r="K111" s="4">
+        <v>1.3213886213535637</v>
+      </c>
+      <c r="L111" s="6">
+        <v>0.75863118991738343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -3819,8 +5506,23 @@
       <c r="G112" s="4">
         <v>5.0903745019334394</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" s="5">
+        <v>0.49944314104059884</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1.5050819050519706</v>
+      </c>
+      <c r="J112" s="5">
+        <v>6.1958947284461274E-2</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1.0328951975326581</v>
+      </c>
+      <c r="L112" s="6">
+        <v>0.68627175309571775</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -3842,8 +5544,23 @@
       <c r="G113" s="4">
         <v>8.4413986072790408</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113" s="5">
+        <v>0.47444047025403263</v>
+      </c>
+      <c r="I113" s="4">
+        <v>2.5835686592691101</v>
+      </c>
+      <c r="J113" s="5">
+        <v>6.2194218381266438E-2</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1.0039646792574901</v>
+      </c>
+      <c r="L113" s="6">
+        <v>0.3885960900073433</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -3865,8 +5582,23 @@
       <c r="G114" s="4">
         <v>8.5439849394492455</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114" s="5">
+        <v>0.51645207426333084</v>
+      </c>
+      <c r="I114" s="4">
+        <v>2.4706940934544308</v>
+      </c>
+      <c r="J114" s="5">
+        <v>6.220661136188535E-2</v>
+      </c>
+      <c r="K114" s="4">
+        <v>1.3304148473295438</v>
+      </c>
+      <c r="L114" s="6">
+        <v>0.53847817536545295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -3888,8 +5620,23 @@
       <c r="G115" s="4">
         <v>4.917449099972373</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115" s="5">
+        <v>0.47763529518098952</v>
+      </c>
+      <c r="I115" s="4">
+        <v>1.4982262834172855</v>
+      </c>
+      <c r="J115" s="5">
+        <v>6.2351606882487275E-2</v>
+      </c>
+      <c r="K115" s="4">
+        <v>1.2311565084826062</v>
+      </c>
+      <c r="L115" s="6">
+        <v>0.82174269808862033</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -3911,8 +5658,23 @@
       <c r="G116" s="4">
         <v>5.4713999039179839</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116" s="5">
+        <v>0.4832988583113707</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1.6537781040144213</v>
+      </c>
+      <c r="J116" s="5">
+        <v>6.2550058179138113E-2</v>
+      </c>
+      <c r="K116" s="4">
+        <v>1.4508040531628388</v>
+      </c>
+      <c r="L116" s="6">
+        <v>0.87726645409146597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -3934,8 +5696,23 @@
       <c r="G117" s="4">
         <v>6.38465670275923</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117" s="5">
+        <v>0.50281975865095907</v>
+      </c>
+      <c r="I117" s="4">
+        <v>1.8793015733121952</v>
+      </c>
+      <c r="J117" s="5">
+        <v>6.2584398175175984E-2</v>
+      </c>
+      <c r="K117" s="4">
+        <v>0.97522849680947798</v>
+      </c>
+      <c r="L117" s="6">
+        <v>0.5189313469741188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -3957,8 +5734,23 @@
       <c r="G118" s="4">
         <v>6.0034773410528715</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118" s="5">
+        <v>0.47700777390564852</v>
+      </c>
+      <c r="I118" s="4">
+        <v>1.8307339216696934</v>
+      </c>
+      <c r="J118" s="5">
+        <v>6.2961341794539744E-2</v>
+      </c>
+      <c r="K118" s="4">
+        <v>1.0668007583675745</v>
+      </c>
+      <c r="L118" s="6">
+        <v>0.58271753515913161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -3980,8 +5772,23 @@
       <c r="G119" s="4">
         <v>6.0700373272887873</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119" s="5">
+        <v>0.48613369486806407</v>
+      </c>
+      <c r="I119" s="4">
+        <v>1.8275044140023842</v>
+      </c>
+      <c r="J119" s="5">
+        <v>6.315312684709519E-2</v>
+      </c>
+      <c r="K119" s="4">
+        <v>1.2579365193289644</v>
+      </c>
+      <c r="L119" s="6">
+        <v>0.68833569412507223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -4003,8 +5810,23 @@
       <c r="G120" s="4">
         <v>5.1032310596322361</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120" s="5">
+        <v>0.48571615397992163</v>
+      </c>
+      <c r="I120" s="4">
+        <v>1.5373224267916126</v>
+      </c>
+      <c r="J120" s="5">
+        <v>6.3438307940627436E-2</v>
+      </c>
+      <c r="K120" s="4">
+        <v>1.3005506485808978</v>
+      </c>
+      <c r="L120" s="6">
+        <v>0.84598430746576914</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -4026,8 +5848,23 @@
       <c r="G121" s="4">
         <v>6.8964148344138039</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121" s="5">
+        <v>0.51510281158324867</v>
+      </c>
+      <c r="I121" s="4">
+        <v>1.9977216321188931</v>
+      </c>
+      <c r="J121" s="5">
+        <v>6.3619831258060977E-2</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1.1236433313098264</v>
+      </c>
+      <c r="L121" s="6">
+        <v>0.56246241380388373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -4049,8 +5886,23 @@
       <c r="G122" s="4">
         <v>4.2948066185889786</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122" s="5">
+        <v>0.47985195297446331</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1.3044340184956205</v>
+      </c>
+      <c r="J122" s="5">
+        <v>6.3933874946585312E-2</v>
+      </c>
+      <c r="K122" s="4">
+        <v>0.84348794824747231</v>
+      </c>
+      <c r="L122" s="6">
+        <v>0.64663136370841623</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -4072,8 +5924,23 @@
       <c r="G123" s="4">
         <v>7.7474387259072444</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123" s="5">
+        <v>0.5263560960547029</v>
+      </c>
+      <c r="I123" s="4">
+        <v>2.2125649075818217</v>
+      </c>
+      <c r="J123" s="5">
+        <v>6.3934931266160719E-2</v>
+      </c>
+      <c r="K123" s="4">
+        <v>1.0208765742115498</v>
+      </c>
+      <c r="L123" s="6">
+        <v>0.46139960491703591</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -4095,8 +5962,23 @@
       <c r="G124" s="4">
         <v>5.0856655855483268</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124" s="5">
+        <v>0.4845487853362247</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1.5345152952377656</v>
+      </c>
+      <c r="J124" s="5">
+        <v>6.3981032176586169E-2</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1.2421031812304737</v>
+      </c>
+      <c r="L124" s="6">
+        <v>0.80944333698414916</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -4118,8 +6000,23 @@
       <c r="G125" s="4">
         <v>6.0104992312503782</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125" s="5">
+        <v>0.49304948255499587</v>
+      </c>
+      <c r="I125" s="4">
+        <v>1.7925003810925584</v>
+      </c>
+      <c r="J125" s="5">
+        <v>6.4022558236168051E-2</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1.2119115757927115</v>
+      </c>
+      <c r="L125" s="6">
+        <v>0.67610115377159985</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -4141,8 +6038,23 @@
       <c r="G126" s="4">
         <v>6.7931245293135305</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126" s="5">
+        <v>0.50327531598877528</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1.998324817376733</v>
+      </c>
+      <c r="J126" s="5">
+        <v>6.4108177754973419E-2</v>
+      </c>
+      <c r="K126" s="4">
+        <v>1.7023633208502622</v>
+      </c>
+      <c r="L126" s="6">
+        <v>0.85189520044344491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -4164,8 +6076,23 @@
       <c r="G127" s="4">
         <v>7.5389964874543409</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127" s="5">
+        <v>0.48362381388380377</v>
+      </c>
+      <c r="I127" s="4">
+        <v>2.2776750676397968</v>
+      </c>
+      <c r="J127" s="5">
+        <v>6.4183121852085911E-2</v>
+      </c>
+      <c r="K127" s="4">
+        <v>1.4396975552327071</v>
+      </c>
+      <c r="L127" s="6">
+        <v>0.63209084372362667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -4187,8 +6114,23 @@
       <c r="G128" s="4">
         <v>5.4707415655510943</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128" s="5">
+        <v>0.50851846990989968</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1.5982914886375499</v>
+      </c>
+      <c r="J128" s="5">
+        <v>6.6093523873214627E-2</v>
+      </c>
+      <c r="K128" s="4">
+        <v>1.1792299823223793</v>
+      </c>
+      <c r="L128" s="6">
+        <v>0.73780658328325566</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -4210,8 +6152,23 @@
       <c r="G129" s="4">
         <v>3.9344641795190114</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129" s="5">
+        <v>0.50722331237736928</v>
+      </c>
+      <c r="I129" s="4">
+        <v>1.1514150674256023</v>
+      </c>
+      <c r="J129" s="5">
+        <v>6.6911691935884088E-2</v>
+      </c>
+      <c r="K129" s="4">
+        <v>0.92261472221838248</v>
+      </c>
+      <c r="L129" s="6">
+        <v>0.80128769226653906</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -4233,8 +6190,23 @@
       <c r="G130" s="4">
         <v>5.464384302105401</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130" s="5">
+        <v>0.51623942548080792</v>
+      </c>
+      <c r="I130" s="4">
+        <v>1.5806064431476459</v>
+      </c>
+      <c r="J130" s="5">
+        <v>6.7253128063971102E-2</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1.2038662098825308</v>
+      </c>
+      <c r="L130" s="6">
+        <v>0.76164829967738956</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -4256,8 +6228,23 @@
       <c r="G131" s="4">
         <v>6.4440909566490063</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131" s="5">
+        <v>0.51767425390087118</v>
+      </c>
+      <c r="I131" s="4">
+        <v>1.8605781685017959</v>
+      </c>
+      <c r="J131" s="5">
+        <v>6.7420515970955733E-2</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1.5972716660984994</v>
+      </c>
+      <c r="L131" s="6">
+        <v>0.85848135441935214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -4279,8 +6266,23 @@
       <c r="G132" s="4">
         <v>5.2660295687507812</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132" s="5">
+        <v>0.52358760908998603</v>
+      </c>
+      <c r="I132" s="4">
+        <v>1.5091331554626866</v>
+      </c>
+      <c r="J132" s="5">
+        <v>6.7426789082567495E-2</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1.0891997541921052</v>
+      </c>
+      <c r="L132" s="6">
+        <v>0.72173866848625856</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -4302,8 +6304,23 @@
       <c r="G133" s="4">
         <v>4.4746620241920141</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133" s="5">
+        <v>0.5152079473305512</v>
+      </c>
+      <c r="I133" s="4">
+        <v>1.2960364084995737</v>
+      </c>
+      <c r="J133" s="5">
+        <v>6.751142516763739E-2</v>
+      </c>
+      <c r="K133" s="4">
+        <v>0.90345877115519979</v>
+      </c>
+      <c r="L133" s="6">
+        <v>0.69709366591108146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -4325,8 +6342,23 @@
       <c r="G134" s="4">
         <v>4.8000459538824032</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134" s="5">
+        <v>0.5205255156124805</v>
+      </c>
+      <c r="I134" s="4">
+        <v>1.3809054339873801</v>
+      </c>
+      <c r="J134" s="5">
+        <v>6.7896980158893686E-2</v>
+      </c>
+      <c r="K134" s="4">
+        <v>0.85817612324962</v>
+      </c>
+      <c r="L134" s="6">
+        <v>0.62145900952219912</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -4348,8 +6380,23 @@
       <c r="G135" s="4">
         <v>5.3020751849735461</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135" s="5">
+        <v>0.52765596356525446</v>
+      </c>
+      <c r="I135" s="4">
+        <v>1.5117735155432372</v>
+      </c>
+      <c r="J135" s="5">
+        <v>6.8688603038366783E-2</v>
+      </c>
+      <c r="K135" s="4">
+        <v>1.1329347642412069</v>
+      </c>
+      <c r="L135" s="6">
+        <v>0.7494077337597097</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -4371,8 +6418,23 @@
       <c r="G136" s="4">
         <v>5.7866781658678974</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136" s="5">
+        <v>0.5329269152413556</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1.6392625288772931</v>
+      </c>
+      <c r="J136" s="5">
+        <v>6.8689133591162618E-2</v>
+      </c>
+      <c r="K136" s="4">
+        <v>1.4995719924518871</v>
+      </c>
+      <c r="L136" s="6">
+        <v>0.91478452415972789</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -4394,8 +6456,23 @@
       <c r="G137" s="4">
         <v>5.1155497265668828</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137" s="5">
+        <v>0.53688559197499564</v>
+      </c>
+      <c r="I137" s="4">
+        <v>1.4421768350579975</v>
+      </c>
+      <c r="J137" s="5">
+        <v>6.8739961721109563E-2</v>
+      </c>
+      <c r="K137" s="4">
+        <v>1.2412462878616615</v>
+      </c>
+      <c r="L137" s="6">
+        <v>0.86067551335460479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -4417,8 +6494,23 @@
       <c r="G138" s="4">
         <v>6.1808708815306375</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138" s="5">
+        <v>0.52755971772126253</v>
+      </c>
+      <c r="I138" s="4">
+        <v>1.7625480545508738</v>
+      </c>
+      <c r="J138" s="5">
+        <v>6.8837284285797898E-2</v>
+      </c>
+      <c r="K138" s="4">
+        <v>1.3826469863351436</v>
+      </c>
+      <c r="L138" s="6">
+        <v>0.7844591713486444</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -4440,8 +6532,23 @@
       <c r="G139" s="4">
         <v>7.7422365535582856</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139" s="5">
+        <v>0.53198954893051231</v>
+      </c>
+      <c r="I139" s="4">
+        <v>2.1957394830179164</v>
+      </c>
+      <c r="J139" s="5">
+        <v>6.9261655031476757E-2</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1.2481608394168848</v>
+      </c>
+      <c r="L139" s="6">
+        <v>0.56844668917706032</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -4463,8 +6570,23 @@
       <c r="G140" s="4">
         <v>5.8630154116246729</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H140" s="5">
+        <v>0.54026160724835059</v>
+      </c>
+      <c r="I140" s="4">
+        <v>1.6461775795875593</v>
+      </c>
+      <c r="J140" s="5">
+        <v>6.9381617987561039E-2</v>
+      </c>
+      <c r="K140" s="4">
+        <v>1.3472907482649812</v>
+      </c>
+      <c r="L140" s="6">
+        <v>0.81843585101100536</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -4486,8 +6608,23 @@
       <c r="G141" s="4">
         <v>5.5482351020905867</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141" s="5">
+        <v>0.53583229484008088</v>
+      </c>
+      <c r="I141" s="4">
+        <v>1.5661578550054396</v>
+      </c>
+      <c r="J141" s="5">
+        <v>6.9526299989983331E-2</v>
+      </c>
+      <c r="K141" s="4">
+        <v>1.2595477634217649</v>
+      </c>
+      <c r="L141" s="6">
+        <v>0.80422784931688152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -4509,8 +6646,23 @@
       <c r="G142" s="4">
         <v>7.0998213006149626</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142" s="5">
+        <v>0.53536141616916777</v>
+      </c>
+      <c r="I142" s="4">
+        <v>2.0052752048496734</v>
+      </c>
+      <c r="J142" s="5">
+        <v>6.9571348574517522E-2</v>
+      </c>
+      <c r="K142" s="4">
+        <v>1.567867782101678</v>
+      </c>
+      <c r="L142" s="6">
+        <v>0.78187162455799408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -4532,8 +6684,23 @@
       <c r="G143" s="4">
         <v>4.8808085837689816</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143" s="5">
+        <v>0.5365616407662045</v>
+      </c>
+      <c r="I143" s="4">
+        <v>1.3765401586251398</v>
+      </c>
+      <c r="J143" s="5">
+        <v>6.983392586884335E-2</v>
+      </c>
+      <c r="K143" s="4">
+        <v>1.0936541312208234</v>
+      </c>
+      <c r="L143" s="6">
+        <v>0.79449489676577456</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -4555,8 +6722,23 @@
       <c r="G144" s="4">
         <v>5.9789633437433451</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144" s="5">
+        <v>0.53894844514446516</v>
+      </c>
+      <c r="I144" s="4">
+        <v>1.6813874772643791</v>
+      </c>
+      <c r="J144" s="5">
+        <v>7.0000036180652522E-2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>1.3679598348001725</v>
+      </c>
+      <c r="L144" s="6">
+        <v>0.81358987936905891</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -4578,8 +6760,23 @@
       <c r="G145" s="4">
         <v>5.1057285984366843</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145" s="5">
+        <v>0.53576114857646329</v>
+      </c>
+      <c r="I145" s="4">
+        <v>1.4413737690566633</v>
+      </c>
+      <c r="J145" s="5">
+        <v>7.0333486900584302E-2</v>
+      </c>
+      <c r="K145" s="4">
+        <v>1.2608789399097946</v>
+      </c>
+      <c r="L145" s="6">
+        <v>0.87477583329062714</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -4601,8 +6798,23 @@
       <c r="G146" s="4">
         <v>5.7623266491910385</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146" s="5">
+        <v>0.54739810151793855</v>
+      </c>
+      <c r="I146" s="4">
+        <v>1.6042131549164504</v>
+      </c>
+      <c r="J146" s="5">
+        <v>7.0880941656928792E-2</v>
+      </c>
+      <c r="K146" s="4">
+        <v>1.1810468133573582</v>
+      </c>
+      <c r="L146" s="6">
+        <v>0.73621563926077449</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
@@ -4624,8 +6836,23 @@
       <c r="G147" s="4">
         <v>5.053873711972841</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147" s="5">
+        <v>0.54585903347044673</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1.4095493142572433</v>
+      </c>
+      <c r="J147" s="5">
+        <v>7.0985004994018663E-2</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1.1141844117447479</v>
+      </c>
+      <c r="L147" s="6">
+        <v>0.7904543675592246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
@@ -4647,8 +6874,23 @@
       <c r="G148" s="4">
         <v>6.6796024319896219</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148" s="5">
+        <v>0.55273781470715333</v>
+      </c>
+      <c r="I148" s="4">
+        <v>1.8479635096368845</v>
+      </c>
+      <c r="J148" s="5">
+        <v>7.1137914367176744E-2</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1.5279567994319205</v>
+      </c>
+      <c r="L148" s="6">
+        <v>0.82683277643948527</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
@@ -4670,8 +6912,23 @@
       <c r="G149" s="4">
         <v>5.3836625606329278</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149" s="5">
+        <v>0.55300132283522829</v>
+      </c>
+      <c r="I149" s="4">
+        <v>1.488982200838231</v>
+      </c>
+      <c r="J149" s="5">
+        <v>7.1155123195365308E-2</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1.1692684484143432</v>
+      </c>
+      <c r="L149" s="6">
+        <v>0.78528033965489763</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
@@ -4693,8 +6950,23 @@
       <c r="G150" s="4">
         <v>7.7274411310467599</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150" s="5">
+        <v>0.54526314715329871</v>
+      </c>
+      <c r="I150" s="4">
+        <v>2.1567197307798489</v>
+      </c>
+      <c r="J150" s="5">
+        <v>7.1267996483965534E-2</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1.8028199436503474</v>
+      </c>
+      <c r="L150" s="6">
+        <v>0.83590830923518522</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -4716,8 +6988,23 @@
       <c r="G151" s="4">
         <v>7.3796832666201055</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151" s="5">
+        <v>0.55430753952081813</v>
+      </c>
+      <c r="I151" s="4">
+        <v>2.0379162527445516</v>
+      </c>
+      <c r="J151" s="5">
+        <v>7.1437472198703542E-2</v>
+      </c>
+      <c r="K151" s="4">
+        <v>1.6228033747793891</v>
+      </c>
+      <c r="L151" s="6">
+        <v>0.79630523216736138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -4739,8 +7026,23 @@
       <c r="G152" s="4">
         <v>6.9307474588469802</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152" s="5">
+        <v>0.56812568713420453</v>
+      </c>
+      <c r="I152" s="4">
+        <v>1.8839955043737371</v>
+      </c>
+      <c r="J152" s="5">
+        <v>7.1491290858327131E-2</v>
+      </c>
+      <c r="K152" s="4">
+        <v>1.5085529407049889</v>
+      </c>
+      <c r="L152" s="6">
+        <v>0.80072003208226883</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
@@ -4762,8 +7064,23 @@
       <c r="G153" s="4">
         <v>5.3715893004412294</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153" s="5">
+        <v>0.55265008462312326</v>
+      </c>
+      <c r="I153" s="4">
+        <v>1.4862510976982886</v>
+      </c>
+      <c r="J153" s="5">
+        <v>7.1516550171736554E-2</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1.2204081921555399</v>
+      </c>
+      <c r="L153" s="6">
+        <v>0.82113190297759819</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
@@ -4785,8 +7102,23 @@
       <c r="G154" s="4">
         <v>4.8358868555540084</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154" s="5">
+        <v>0.55352955713579788</v>
+      </c>
+      <c r="I154" s="4">
+        <v>1.3366621216301482</v>
+      </c>
+      <c r="J154" s="5">
+        <v>7.1587412420827098E-2</v>
+      </c>
+      <c r="K154" s="4">
+        <v>1.0160019247155354</v>
+      </c>
+      <c r="L154" s="6">
+        <v>0.76010377512340466</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
@@ -4808,8 +7140,23 @@
       <c r="G155" s="4">
         <v>5.8118027682934894</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155" s="5">
+        <v>0.56238398048552796</v>
+      </c>
+      <c r="I155" s="4">
+        <v>1.5901242110159106</v>
+      </c>
+      <c r="J155" s="5">
+        <v>7.2316796353292287E-2</v>
+      </c>
+      <c r="K155" s="4">
+        <v>1.1395106071439183</v>
+      </c>
+      <c r="L155" s="6">
+        <v>0.71661735558123396</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -4831,8 +7178,23 @@
       <c r="G156" s="4">
         <v>6.3676999477043807</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156" s="5">
+        <v>0.58241835747994042</v>
+      </c>
+      <c r="I156" s="4">
+        <v>1.7038573970660822</v>
+      </c>
+      <c r="J156" s="5">
+        <v>7.2572844597393341E-2</v>
+      </c>
+      <c r="K156" s="4">
+        <v>1.5441505836869247</v>
+      </c>
+      <c r="L156" s="6">
+        <v>0.90626750005360734</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -4854,8 +7216,23 @@
       <c r="G157" s="4">
         <v>6.0403727785393926</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157" s="5">
+        <v>0.55826850068350065</v>
+      </c>
+      <c r="I157" s="4">
+        <v>1.660457925630336</v>
+      </c>
+      <c r="J157" s="5">
+        <v>7.2901305543860984E-2</v>
+      </c>
+      <c r="K157" s="4">
+        <v>1.456588941789849</v>
+      </c>
+      <c r="L157" s="6">
+        <v>0.87722122873839448</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -4877,8 +7254,23 @@
       <c r="G158" s="4">
         <v>6.3666954190314868</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158" s="5">
+        <v>0.5863193695704807</v>
+      </c>
+      <c r="I158" s="4">
+        <v>1.696425754049786</v>
+      </c>
+      <c r="J158" s="5">
+        <v>7.3028197019426033E-2</v>
+      </c>
+      <c r="K158" s="4">
+        <v>1.1231531248203221</v>
+      </c>
+      <c r="L158" s="6">
+        <v>0.66207030996734106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -4900,8 +7292,23 @@
       <c r="G159" s="4">
         <v>5.982254636131529</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159" s="5">
+        <v>0.5724508386574777</v>
+      </c>
+      <c r="I159" s="4">
+        <v>1.6183365389532069</v>
+      </c>
+      <c r="J159" s="5">
+        <v>7.3422956766937886E-2</v>
+      </c>
+      <c r="K159" s="4">
+        <v>1.2190377071618428</v>
+      </c>
+      <c r="L159" s="6">
+        <v>0.75326588618604418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -4923,8 +7330,23 @@
       <c r="G160" s="4">
         <v>5.7989107469339842</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160" s="5">
+        <v>0.57067444760232089</v>
+      </c>
+      <c r="I160" s="4">
+        <v>1.5718443684099093</v>
+      </c>
+      <c r="J160" s="5">
+        <v>7.3530082708419195E-2</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1.1865337383256238</v>
+      </c>
+      <c r="L160" s="6">
+        <v>0.75486718798116836</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -4946,8 +7368,23 @@
       <c r="G161" s="4">
         <v>5.1650495994119296</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161" s="5">
+        <v>0.57285859312627707</v>
+      </c>
+      <c r="I161" s="4">
+        <v>1.3966355329300488</v>
+      </c>
+      <c r="J161" s="5">
+        <v>7.3787119808343168E-2</v>
+      </c>
+      <c r="K161" s="4">
+        <v>1.1947222631141892</v>
+      </c>
+      <c r="L161" s="6">
+        <v>0.85542880368204643</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -4969,8 +7406,23 @@
       <c r="G162" s="4">
         <v>5.4700031502467539</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162" s="5">
+        <v>0.5721472781447472</v>
+      </c>
+      <c r="I162" s="4">
+        <v>1.480262906447936</v>
+      </c>
+      <c r="J162" s="5">
+        <v>7.3807819989836723E-2</v>
+      </c>
+      <c r="K162" s="4">
+        <v>1.2554200036677479</v>
+      </c>
+      <c r="L162" s="6">
+        <v>0.84810610209795434</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -4992,8 +7444,23 @@
       <c r="G163" s="4">
         <v>7.1212772945253278</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163" s="5">
+        <v>0.59869284866602612</v>
+      </c>
+      <c r="I163" s="4">
+        <v>1.8727587178293301</v>
+      </c>
+      <c r="J163" s="5">
+        <v>7.3903442847465389E-2</v>
+      </c>
+      <c r="K163" s="4">
+        <v>1.5541426463995864</v>
+      </c>
+      <c r="L163" s="6">
+        <v>0.82986806127430868</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -5015,8 +7482,23 @@
       <c r="G164" s="4">
         <v>6.6502615185673903</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164" s="5">
+        <v>0.57520728175327662</v>
+      </c>
+      <c r="I164" s="4">
+        <v>1.7935601209387464</v>
+      </c>
+      <c r="J164" s="5">
+        <v>7.3980663754004403E-2</v>
+      </c>
+      <c r="K164" s="4">
+        <v>1.5032167420032874</v>
+      </c>
+      <c r="L164" s="6">
+        <v>0.83811895930006874</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -5038,8 +7520,23 @@
       <c r="G165" s="4">
         <v>6.0735924945935551</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165" s="5">
+        <v>0.57997330350143461</v>
+      </c>
+      <c r="I165" s="4">
+        <v>1.6294922717741667</v>
+      </c>
+      <c r="J165" s="5">
+        <v>7.4863926413242923E-2</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1.3412532759949889</v>
+      </c>
+      <c r="L165" s="6">
+        <v>0.82311116120523364</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -5061,8 +7558,23 @@
       <c r="G166" s="4">
         <v>6.1692008083775249</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166" s="5">
+        <v>0.58184815280333446</v>
+      </c>
+      <c r="I166" s="4">
+        <v>1.6517669951075997</v>
+      </c>
+      <c r="J166" s="5">
+        <v>7.5181181153458496E-2</v>
+      </c>
+      <c r="K166" s="4">
+        <v>1.3963763360037771</v>
+      </c>
+      <c r="L166" s="6">
+        <v>0.84538336226582256</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -5084,8 +7596,23 @@
       <c r="G167" s="4">
         <v>7.6686298862733508</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167" s="5">
+        <v>0.64737224244560831</v>
+      </c>
+      <c r="I167" s="4">
+        <v>1.9218402276841449</v>
+      </c>
+      <c r="J167" s="5">
+        <v>7.9966423163143258E-2</v>
+      </c>
+      <c r="K167" s="4">
+        <v>1.5570581608204153</v>
+      </c>
+      <c r="L167" s="6">
+        <v>0.81019126272359321</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -5107,8 +7634,23 @@
       <c r="G168" s="4">
         <v>7.5482155519185312</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168" s="5">
+        <v>0.63221224953426025</v>
+      </c>
+      <c r="I168" s="4">
+        <v>1.9191994456396382</v>
+      </c>
+      <c r="J168" s="5">
+        <v>8.0804668246392486E-2</v>
+      </c>
+      <c r="K168" s="4">
+        <v>1.4825134115764109</v>
+      </c>
+      <c r="L168" s="6">
+        <v>0.7724644850980108</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -5130,8 +7672,23 @@
       <c r="G169" s="4">
         <v>12.545476998211598</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169" s="5">
+        <v>0.64399279783916963</v>
+      </c>
+      <c r="I169" s="4">
+        <v>3.1539446649255427</v>
+      </c>
+      <c r="J169" s="5">
+        <v>8.0891236893357796E-2</v>
+      </c>
+      <c r="K169" s="4">
+        <v>2.9209923357702126</v>
+      </c>
+      <c r="L169" s="6">
+        <v>0.92613937341832553</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -5153,8 +7710,23 @@
       <c r="G170" s="4">
         <v>4.7132413752329114</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170" s="5">
+        <v>0.64378099731256466</v>
+      </c>
+      <c r="I170" s="4">
+        <v>1.18520221311549</v>
+      </c>
+      <c r="J170" s="5">
+        <v>8.199449882253626E-2</v>
+      </c>
+      <c r="K170" s="4">
+        <v>1.0619512643730329</v>
+      </c>
+      <c r="L170" s="6">
+        <v>0.89600850607722671</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -5176,8 +7748,23 @@
       <c r="G171" s="4">
         <v>6.4607405166437957</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171" s="5">
+        <v>0.67598648098719527</v>
+      </c>
+      <c r="I171" s="4">
+        <v>1.5775350878599272</v>
+      </c>
+      <c r="J171" s="5">
+        <v>8.3727761521895705E-2</v>
+      </c>
+      <c r="K171" s="4">
+        <v>1.3027643166364962</v>
+      </c>
+      <c r="L171" s="6">
+        <v>0.82582271967327003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -5199,8 +7786,23 @@
       <c r="G172" s="4">
         <v>6.3339629007358553</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172" s="5">
+        <v>0.70310381811117162</v>
+      </c>
+      <c r="I172" s="4">
+        <v>1.5109901654174049</v>
+      </c>
+      <c r="J172" s="5">
+        <v>8.621380244105134E-2</v>
+      </c>
+      <c r="K172" s="4">
+        <v>1.1449869935546824</v>
+      </c>
+      <c r="L172" s="6">
+        <v>0.75777263132509143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -5222,8 +7824,23 @@
       <c r="G173" s="4">
         <v>5.7326367436473333</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173" s="5">
+        <v>0.70926660364980609</v>
+      </c>
+      <c r="I173" s="4">
+        <v>1.360567817103064</v>
+      </c>
+      <c r="J173" s="5">
+        <v>8.8703759904371363E-2</v>
+      </c>
+      <c r="K173" s="4">
+        <v>1.0801941627141056</v>
+      </c>
+      <c r="L173" s="6">
+        <v>0.79392893844429369</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -5245,8 +7862,23 @@
       <c r="G174" s="4">
         <v>6.0058532540210763</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174" s="5">
+        <v>0.7268389682575882</v>
+      </c>
+      <c r="I174" s="4">
+        <v>1.4052493023956885</v>
+      </c>
+      <c r="J174" s="5">
+        <v>9.0306522582070475E-2</v>
+      </c>
+      <c r="K174" s="4">
+        <v>1.1472045603145866</v>
+      </c>
+      <c r="L174" s="6">
+        <v>0.81637084491614142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -5268,8 +7900,23 @@
       <c r="G175" s="4">
         <v>6.8521681414612203</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175" s="5">
+        <v>0.78575944025576006</v>
+      </c>
+      <c r="I175" s="4">
+        <v>1.5336450430449913</v>
+      </c>
+      <c r="J175" s="5">
+        <v>9.2737954480716173E-2</v>
+      </c>
+      <c r="K175" s="4">
+        <v>1.1634674404596319</v>
+      </c>
+      <c r="L175" s="6">
+        <v>0.75862889247802323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -5291,8 +7938,23 @@
       <c r="G176" s="4">
         <v>6.9211678927504749</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176" s="5">
+        <v>0.77567315806164883</v>
+      </c>
+      <c r="I176" s="4">
+        <v>1.560367924903072</v>
+      </c>
+      <c r="J176" s="5">
+        <v>9.3435685436917104E-2</v>
+      </c>
+      <c r="K176" s="4">
+        <v>1.2957946418154058</v>
+      </c>
+      <c r="L176" s="6">
+        <v>0.83044173180879666</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -5314,8 +7976,23 @@
       <c r="G177" s="4">
         <v>6.2057364583098433</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177" s="5">
+        <v>0.80669085308977984</v>
+      </c>
+      <c r="I177" s="4">
+        <v>1.3687833802659382</v>
+      </c>
+      <c r="J177" s="5">
+        <v>9.3510669931330767E-2</v>
+      </c>
+      <c r="K177" s="4">
+        <v>0.90642031794002453</v>
+      </c>
+      <c r="L177" s="6">
+        <v>0.662208740263867</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -5337,8 +8014,23 @@
       <c r="G178" s="4">
         <v>7.8305209769782209</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178" s="5">
+        <v>0.8214603356291813</v>
+      </c>
+      <c r="I178" s="4">
+        <v>1.709957266928569</v>
+      </c>
+      <c r="J178" s="5">
+        <v>9.5179787515098938E-2</v>
+      </c>
+      <c r="K178" s="4">
+        <v>1.2928007394625796</v>
+      </c>
+      <c r="L178" s="6">
+        <v>0.75604271783043586</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -5360,8 +8052,23 @@
       <c r="G179" s="4">
         <v>8.0880539308444099</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179" s="5">
+        <v>0.85490351220966521</v>
+      </c>
+      <c r="I179" s="4">
+        <v>1.7282603436565556</v>
+      </c>
+      <c r="J179" s="5">
+        <v>9.9638529007906096E-2</v>
+      </c>
+      <c r="K179" s="4">
+        <v>1.4801924277497305</v>
+      </c>
+      <c r="L179" s="6">
+        <v>0.85646380372185305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -5383,8 +8090,23 @@
       <c r="G180" s="4">
         <v>7.2986436558283572</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180" s="5">
+        <v>0.87891617939956546</v>
+      </c>
+      <c r="I180" s="4">
+        <v>1.5366137569387088</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0.1013471764414396</v>
+      </c>
+      <c r="K180" s="4">
+        <v>1.2205306354920402</v>
+      </c>
+      <c r="L180" s="6">
+        <v>0.79429891212455406</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -5406,8 +8128,23 @@
       <c r="G181" s="4">
         <v>19.04992375585806</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H181" s="5">
+        <v>0.9046860645738557</v>
+      </c>
+      <c r="I181" s="4">
+        <v>3.9494614906705761</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0.10197923316435338</v>
+      </c>
+      <c r="K181" s="4">
+        <v>3.6811105233651951</v>
+      </c>
+      <c r="L181" s="6">
+        <v>0.9320537830437694</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -5429,8 +8166,23 @@
       <c r="G182" s="4">
         <v>6.693136390365737</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H182" s="5">
+        <v>0.89819443921630671</v>
+      </c>
+      <c r="I182" s="4">
+        <v>1.3930407118324919</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0.10642862552361051</v>
+      </c>
+      <c r="K182" s="4">
+        <v>1.1881516959417748</v>
+      </c>
+      <c r="L182" s="6">
+        <v>0.85291957790580764</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -5452,8 +8204,23 @@
       <c r="G183" s="4">
         <v>9.7141158664848035</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H183" s="5">
+        <v>0.94618915354108157</v>
+      </c>
+      <c r="I183" s="4">
+        <v>1.9677376780448839</v>
+      </c>
+      <c r="J183" s="5">
+        <v>0.10731304108061827</v>
+      </c>
+      <c r="K183" s="4">
+        <v>1.2673550331943864</v>
+      </c>
+      <c r="L183" s="6">
+        <v>0.64406706612113673</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -5475,8 +8242,23 @@
       <c r="G184" s="4">
         <v>9.0674379413123347</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H184" s="5">
+        <v>0.97072587509312391</v>
+      </c>
+      <c r="I184" s="4">
+        <v>1.8128954110498881</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0.11002768625234911</v>
+      </c>
+      <c r="K184" s="4">
+        <v>1.531544623660394</v>
+      </c>
+      <c r="L184" s="6">
+        <v>0.84480583619186422</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
@@ -5498,8 +8280,23 @@
       <c r="G185" s="4">
         <v>6.8562615914913749</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H185" s="5">
+        <v>0.95679182581877809</v>
+      </c>
+      <c r="I185" s="4">
+        <v>1.3809502630699699</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0.11063571347424736</v>
+      </c>
+      <c r="K185" s="4">
+        <v>1.137326561076176</v>
+      </c>
+      <c r="L185" s="6">
+        <v>0.82358256592659784</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -5521,8 +8318,23 @@
       <c r="G186" s="4">
         <v>10.642174423055508</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H186" s="5">
+        <v>0.97743723200606236</v>
+      </c>
+      <c r="I186" s="4">
+        <v>2.1203052510762572</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0.11226030101768861</v>
+      </c>
+      <c r="K186" s="4">
+        <v>1.7614097443966907</v>
+      </c>
+      <c r="L186" s="6">
+        <v>0.83073403864967432</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -5544,8 +8356,23 @@
       <c r="G187" s="4">
         <v>7.860263543355984</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H187" s="5">
+        <v>1.1683369247420188</v>
+      </c>
+      <c r="I187" s="4">
+        <v>1.4366705345588697</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0.12514330585256375</v>
+      </c>
+      <c r="K187" s="4">
+        <v>1.2504725299565644</v>
+      </c>
+      <c r="L187" s="6">
+        <v>0.87039616939072439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -5567,8 +8394,23 @@
       <c r="G188" s="4">
         <v>12.161724976489836</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H188" s="5">
+        <v>1.1570915779144941</v>
+      </c>
+      <c r="I188" s="4">
+        <v>2.2327770050059694</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0.12694072132993273</v>
+      </c>
+      <c r="K188" s="4">
+        <v>2.0130982530683701</v>
+      </c>
+      <c r="L188" s="6">
+        <v>0.90161187102649698</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
@@ -5590,8 +8432,23 @@
       <c r="G189" s="4">
         <v>8.0988522643884266</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H189" s="5">
+        <v>1.1672052629912333</v>
+      </c>
+      <c r="I189" s="4">
+        <v>1.4809389853477708</v>
+      </c>
+      <c r="J189" s="5">
+        <v>0.12777024276279644</v>
+      </c>
+      <c r="K189" s="4">
+        <v>1.1562907851005231</v>
+      </c>
+      <c r="L189" s="6">
+        <v>0.78078219058362508</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -5613,8 +8470,23 @@
       <c r="G190" s="4">
         <v>7.3819418734309465</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190" s="5">
+        <v>1.194442786436571</v>
+      </c>
+      <c r="I190" s="4">
+        <v>1.3356478502346434</v>
+      </c>
+      <c r="J190" s="5">
+        <v>0.12902106149378295</v>
+      </c>
+      <c r="K190" s="4">
+        <v>0.97577965393093791</v>
+      </c>
+      <c r="L190" s="6">
+        <v>0.73056655896201617</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -5636,8 +8508,23 @@
       <c r="G191" s="4">
         <v>9.9366051927961507</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H191" s="5">
+        <v>1.1961564656975749</v>
+      </c>
+      <c r="I191" s="4">
+        <v>1.7966750897529422</v>
+      </c>
+      <c r="J191" s="5">
+        <v>0.13012231884904488</v>
+      </c>
+      <c r="K191" s="4">
+        <v>1.5354505257042639</v>
+      </c>
+      <c r="L191" s="6">
+        <v>0.85460667566521509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -5659,8 +8546,23 @@
       <c r="G192" s="4">
         <v>11.729339411896888</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H192" s="5">
+        <v>1.186604567206347</v>
+      </c>
+      <c r="I192" s="4">
+        <v>2.1285730602813397</v>
+      </c>
+      <c r="J192" s="5">
+        <v>0.13087898516883587</v>
+      </c>
+      <c r="K192" s="4">
+        <v>1.867054289075871</v>
+      </c>
+      <c r="L192" s="6">
+        <v>0.87713892650182135</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -5682,8 +8584,23 @@
       <c r="G193" s="4">
         <v>8.8529293296980427</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H193" s="5">
+        <v>1.2125799692420978</v>
+      </c>
+      <c r="I193" s="4">
+        <v>1.5908699141083178</v>
+      </c>
+      <c r="J193" s="5">
+        <v>0.13134586335798915</v>
+      </c>
+      <c r="K193" s="4">
+        <v>1.4254721908688377</v>
+      </c>
+      <c r="L193" s="6">
+        <v>0.89603315659395966</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
@@ -5705,8 +8622,23 @@
       <c r="G194" s="4">
         <v>8.0148701780545366</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H194" s="5">
+        <v>1.2244954111908861</v>
+      </c>
+      <c r="I194" s="4">
+        <v>1.4339430852370594</v>
+      </c>
+      <c r="J194" s="5">
+        <v>0.1332736521341332</v>
+      </c>
+      <c r="K194" s="4">
+        <v>1.0764275656111415</v>
+      </c>
+      <c r="L194" s="6">
+        <v>0.75067663193423484</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -5728,8 +8660,23 @@
       <c r="G195" s="4">
         <v>7.2460130636220583</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H195" s="5">
+        <v>1.2172080201664532</v>
+      </c>
+      <c r="I195" s="4">
+        <v>1.299880609433544</v>
+      </c>
+      <c r="J195" s="5">
+        <v>0.13340347495972041</v>
+      </c>
+      <c r="K195" s="4">
+        <v>1.0859401607315284</v>
+      </c>
+      <c r="L195" s="6">
+        <v>0.83541530879882464</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -5751,8 +8698,23 @@
       <c r="G196" s="4">
         <v>8.1312498810457896</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H196" s="5">
+        <v>1.2598868410526385</v>
+      </c>
+      <c r="I196" s="4">
+        <v>1.4363929559742961</v>
+      </c>
+      <c r="J196" s="5">
+        <v>0.13380179523905192</v>
+      </c>
+      <c r="K196" s="4">
+        <v>0.9960777032421213</v>
+      </c>
+      <c r="L196" s="6">
+        <v>0.69345766358655558</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
@@ -5774,8 +8736,23 @@
       <c r="G197" s="4">
         <v>9.5600278758481636</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H197" s="5">
+        <v>1.2154690023477539</v>
+      </c>
+      <c r="I197" s="4">
+        <v>1.716082670327358</v>
+      </c>
+      <c r="J197" s="5">
+        <v>0.13455114569823742</v>
+      </c>
+      <c r="K197" s="4">
+        <v>1.4382674559101118</v>
+      </c>
+      <c r="L197" s="6">
+        <v>0.83811082110382795</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -5797,8 +8774,23 @@
       <c r="G198" s="4">
         <v>9.381256757245751</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H198" s="5">
+        <v>1.2454361342503071</v>
+      </c>
+      <c r="I198" s="4">
+        <v>1.6657046565048657</v>
+      </c>
+      <c r="J198" s="5">
+        <v>0.13629397157594389</v>
+      </c>
+      <c r="K198" s="4">
+        <v>1.4358591814787249</v>
+      </c>
+      <c r="L198" s="6">
+        <v>0.86201306808589706</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
@@ -5820,8 +8812,23 @@
       <c r="G199" s="4">
         <v>7.837219310811065</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H199" s="5">
+        <v>1.3178798051585576</v>
+      </c>
+      <c r="I199" s="4">
+        <v>1.357496046766197</v>
+      </c>
+      <c r="J199" s="5">
+        <v>0.1403615174561321</v>
+      </c>
+      <c r="K199" s="4">
+        <v>1.1129851172024285</v>
+      </c>
+      <c r="L199" s="6">
+        <v>0.81988092698594761</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
@@ -5843,8 +8850,23 @@
       <c r="G200" s="4">
         <v>9.164695512392484</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H200" s="5">
+        <v>1.3330589759601623</v>
+      </c>
+      <c r="I200" s="4">
+        <v>1.5796202418499137</v>
+      </c>
+      <c r="J200" s="5">
+        <v>0.14164046969825353</v>
+      </c>
+      <c r="K200" s="4">
+        <v>1.3257137638589085</v>
+      </c>
+      <c r="L200" s="6">
+        <v>0.8392610633466866</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
@@ -5866,8 +8888,23 @@
       <c r="G201" s="4">
         <v>6.8861646427438927</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H201" s="5">
+        <v>1.3221852911418526</v>
+      </c>
+      <c r="I201" s="4">
+        <v>1.1910922027766075</v>
+      </c>
+      <c r="J201" s="5">
+        <v>0.14167097217644947</v>
+      </c>
+      <c r="K201" s="4">
+        <v>0.90309854329554951</v>
+      </c>
+      <c r="L201" s="6">
+        <v>0.75821044012402783</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
@@ -5889,8 +8926,23 @@
       <c r="G202" s="4">
         <v>8.762844393193177</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H202" s="5">
+        <v>1.5047302829438798</v>
+      </c>
+      <c r="I202" s="4">
+        <v>1.4365035797170183</v>
+      </c>
+      <c r="J202" s="5">
+        <v>0.15600034427836468</v>
+      </c>
+      <c r="K202" s="4">
+        <v>1.236528978958235</v>
+      </c>
+      <c r="L202" s="6">
+        <v>0.8607907396943788</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
@@ -5912,8 +8964,23 @@
       <c r="G203" s="4">
         <v>11.320188752978027</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H203" s="5">
+        <v>1.5437661920000343</v>
+      </c>
+      <c r="I203" s="4">
+        <v>1.8369673194373399</v>
+      </c>
+      <c r="J203" s="5">
+        <v>0.15993802302655721</v>
+      </c>
+      <c r="K203" s="4">
+        <v>1.2751006215899279</v>
+      </c>
+      <c r="L203" s="6">
+        <v>0.69413353634428787</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
@@ -5935,8 +9002,23 @@
       <c r="G204" s="4">
         <v>8.6671989393206559</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H204" s="5">
+        <v>1.5135939583795208</v>
+      </c>
+      <c r="I204" s="4">
+        <v>1.417503190399457</v>
+      </c>
+      <c r="J204" s="5">
+        <v>0.15680834677908104</v>
+      </c>
+      <c r="K204" s="4">
+        <v>1.2542780865371082</v>
+      </c>
+      <c r="L204" s="6">
+        <v>0.88485027408202777</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
@@ -5958,8 +9040,23 @@
       <c r="G205" s="4">
         <v>10.114976659443812</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H205" s="5">
+        <v>1.5594932931049528</v>
+      </c>
+      <c r="I205" s="4">
+        <v>1.6348996210519913</v>
+      </c>
+      <c r="J205" s="5">
+        <v>0.15972578116012401</v>
+      </c>
+      <c r="K205" s="4">
+        <v>1.355394172170644</v>
+      </c>
+      <c r="L205" s="6">
+        <v>0.82903815911248624</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
@@ -5981,8 +9078,23 @@
       <c r="G206" s="4">
         <v>9.9358297007891565</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H206" s="5">
+        <v>1.5454310007598138</v>
+      </c>
+      <c r="I206" s="4">
+        <v>1.6116549872131689</v>
+      </c>
+      <c r="J206" s="5">
+        <v>0.15717918433099207</v>
+      </c>
+      <c r="K206" s="4">
+        <v>1.1902437269216208</v>
+      </c>
+      <c r="L206" s="6">
+        <v>0.73852265923227089</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
@@ -6004,8 +9116,23 @@
       <c r="G207" s="4">
         <v>10.731236347256413</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H207" s="5">
+        <v>1.3934097928454237</v>
+      </c>
+      <c r="I207" s="4">
+        <v>1.8152727368980806</v>
+      </c>
+      <c r="J207" s="5">
+        <v>0.14100352269848035</v>
+      </c>
+      <c r="K207" s="4">
+        <v>1.574273787019187</v>
+      </c>
+      <c r="L207" s="6">
+        <v>0.86723815932436144</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -6027,8 +9154,23 @@
       <c r="G208" s="4">
         <v>10.175599961300804</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H208" s="5">
+        <v>1.5852140346698438</v>
+      </c>
+      <c r="I208" s="4">
+        <v>1.6342713686502104</v>
+      </c>
+      <c r="J208" s="5">
+        <v>0.15965492119305064</v>
+      </c>
+      <c r="K208" s="4">
+        <v>1.4359840768808454</v>
+      </c>
+      <c r="L208" s="6">
+        <v>0.87866929839618035</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -6050,8 +9192,23 @@
       <c r="G209" s="4">
         <v>7.826742884723501</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H209" s="5">
+        <v>1.7329924468685012</v>
+      </c>
+      <c r="I209" s="4">
+        <v>1.2155821572108956</v>
+      </c>
+      <c r="J209" s="5">
+        <v>0.17379636874513443</v>
+      </c>
+      <c r="K209" s="4">
+        <v>1.0180343737406319</v>
+      </c>
+      <c r="L209" s="6">
+        <v>0.83748709842572122</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -6073,8 +9230,23 @@
       <c r="G210" s="4">
         <v>12.359324934788958</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H210" s="5">
+        <v>1.6219414728395281</v>
+      </c>
+      <c r="I210" s="4">
+        <v>1.9675745945197149</v>
+      </c>
+      <c r="J210" s="5">
+        <v>0.16248048564818271</v>
+      </c>
+      <c r="K210" s="4">
+        <v>1.7826923994145911</v>
+      </c>
+      <c r="L210" s="6">
+        <v>0.90603548367615838</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -6096,8 +9268,23 @@
       <c r="G211" s="4">
         <v>9.4886386695631586</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H211" s="5">
+        <v>1.5316394510123215</v>
+      </c>
+      <c r="I211" s="4">
+        <v>1.5445666989442182</v>
+      </c>
+      <c r="J211" s="5">
+        <v>0.15340879254473691</v>
+      </c>
+      <c r="K211" s="4">
+        <v>1.1406446986564662</v>
+      </c>
+      <c r="L211" s="6">
+        <v>0.73848847022025577</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -6119,8 +9306,23 @@
       <c r="G212" s="4">
         <v>10.381213027687807</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H212" s="5">
+        <v>1.6664842937444118</v>
+      </c>
+      <c r="I212" s="4">
+        <v>1.6358401587671332</v>
+      </c>
+      <c r="J212" s="5">
+        <v>0.16663970130571856</v>
+      </c>
+      <c r="K212" s="4">
+        <v>1.2820522384718021</v>
+      </c>
+      <c r="L212" s="6">
+        <v>0.78372708458143814</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
@@ -6142,8 +9344,23 @@
       <c r="G213" s="4">
         <v>9.6743944210358563</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H213" s="5">
+        <v>1.7097065332828238</v>
+      </c>
+      <c r="I213" s="4">
+        <v>1.5100155667263837</v>
+      </c>
+      <c r="J213" s="5">
+        <v>0.16961220218404388</v>
+      </c>
+      <c r="K213" s="4">
+        <v>1.2868680416273071</v>
+      </c>
+      <c r="L213" s="6">
+        <v>0.85222170551337684</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -6165,8 +9382,23 @@
       <c r="G214" s="4">
         <v>10.327165693686823</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H214" s="5">
+        <v>1.7473290549305815</v>
+      </c>
+      <c r="I214" s="4">
+        <v>1.5990875440200594</v>
+      </c>
+      <c r="J214" s="5">
+        <v>0.1715158475178733</v>
+      </c>
+      <c r="K214" s="4">
+        <v>1.4056645538693262</v>
+      </c>
+      <c r="L214" s="6">
+        <v>0.87904165042492088</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -6188,8 +9420,23 @@
       <c r="G215" s="4">
         <v>9.1364664890099334</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H215" s="5">
+        <v>1.7507423955363388</v>
+      </c>
+      <c r="I215" s="4">
+        <v>1.4137229446231843</v>
+      </c>
+      <c r="J215" s="5">
+        <v>0.17058284290054618</v>
+      </c>
+      <c r="K215" s="4">
+        <v>1.0974447029560803</v>
+      </c>
+      <c r="L215" s="6">
+        <v>0.7762798977904366</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -6211,8 +9458,23 @@
       <c r="G216" s="4">
         <v>12.239491042475208</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H216" s="5">
+        <v>1.6916913764388666</v>
+      </c>
+      <c r="I216" s="4">
+        <v>1.9178584133780376</v>
+      </c>
+      <c r="J216" s="5">
+        <v>0.16439742075737349</v>
+      </c>
+      <c r="K216" s="4">
+        <v>1.3685927784973404</v>
+      </c>
+      <c r="L216" s="6">
+        <v>0.71360470040473778</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
@@ -6234,8 +9496,23 @@
       <c r="G217" s="4">
         <v>12.139237091804603</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H217" s="5">
+        <v>1.7743062718933031</v>
+      </c>
+      <c r="I217" s="4">
+        <v>1.8692466389326154</v>
+      </c>
+      <c r="J217" s="5">
+        <v>0.1703078270296042</v>
+      </c>
+      <c r="K217" s="4">
+        <v>1.2989619326005299</v>
+      </c>
+      <c r="L217" s="6">
+        <v>0.69491200655161711</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -6257,8 +9534,23 @@
       <c r="G218" s="4">
         <v>10.001002203922894</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H218" s="5">
+        <v>1.7915439788741485</v>
+      </c>
+      <c r="I218" s="4">
+        <v>1.534675532298204</v>
+      </c>
+      <c r="J218" s="5">
+        <v>0.17178741826831118</v>
+      </c>
+      <c r="K218" s="4">
+        <v>1.2331386076543971</v>
+      </c>
+      <c r="L218" s="6">
+        <v>0.80351747434700416</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -6280,8 +9572,23 @@
       <c r="G219" s="4">
         <v>11.335738145540631</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H219" s="5">
+        <v>1.8283131991682309</v>
+      </c>
+      <c r="I219" s="4">
+        <v>1.7269460005141029</v>
+      </c>
+      <c r="J219" s="5">
+        <v>0.17495679249744761</v>
+      </c>
+      <c r="K219" s="4">
+        <v>1.2679872799513514</v>
+      </c>
+      <c r="L219" s="6">
+        <v>0.73423678538522807</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -6303,8 +9610,23 @@
       <c r="G220" s="4">
         <v>10.736393393940943</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H220" s="5">
+        <v>1.9426328074813199</v>
+      </c>
+      <c r="I220" s="4">
+        <v>1.6016133284195133</v>
+      </c>
+      <c r="J220" s="5">
+        <v>0.18559844496966327</v>
+      </c>
+      <c r="K220" s="4">
+        <v>1.3258366538330828</v>
+      </c>
+      <c r="L220" s="6">
+        <v>0.82781319954513022</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -6326,8 +9648,23 @@
       <c r="G221" s="4">
         <v>10.652877542342026</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H221" s="5">
+        <v>1.9831598568320032</v>
+      </c>
+      <c r="I221" s="4">
+        <v>1.5781195258978082</v>
+      </c>
+      <c r="J221" s="5">
+        <v>0.1879205858777627</v>
+      </c>
+      <c r="K221" s="4">
+        <v>1.2154779757105902</v>
+      </c>
+      <c r="L221" s="6">
+        <v>0.77020653744151124</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -6349,8 +9686,23 @@
       <c r="G222" s="4">
         <v>9.590306360545469</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H222" s="5">
+        <v>1.9575534776168937</v>
+      </c>
+      <c r="I222" s="4">
+        <v>1.4269495770955893</v>
+      </c>
+      <c r="J222" s="5">
+        <v>0.18451760178186064</v>
+      </c>
+      <c r="K222" s="4">
+        <v>1.0567976139036721</v>
+      </c>
+      <c r="L222" s="6">
+        <v>0.74059912898581626</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
@@ -6372,8 +9724,23 @@
       <c r="G223" s="4">
         <v>10.234706134399403</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H223" s="5">
+        <v>2.037010459846337</v>
+      </c>
+      <c r="I223" s="4">
+        <v>1.5027397958465478</v>
+      </c>
+      <c r="J223" s="5">
+        <v>0.19068073926009996</v>
+      </c>
+      <c r="K223" s="4">
+        <v>1.2651297825125432</v>
+      </c>
+      <c r="L223" s="6">
+        <v>0.84188213156346847</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
@@ -6395,8 +9762,23 @@
       <c r="G224" s="4">
         <v>16.52552151458076</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H224" s="5">
+        <v>2.0333129513535071</v>
+      </c>
+      <c r="I224" s="4">
+        <v>2.4277273589556501</v>
+      </c>
+      <c r="J224" s="5">
+        <v>0.18460484108283057</v>
+      </c>
+      <c r="K224" s="4">
+        <v>1.5037863518956189</v>
+      </c>
+      <c r="L224" s="6">
+        <v>0.61942142981924919</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
@@ -6418,8 +9800,23 @@
       <c r="G225" s="4">
         <v>13.205251911702362</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H225" s="5">
+        <v>2.4115727799279942</v>
+      </c>
+      <c r="I225" s="4">
+        <v>1.8396981147694762</v>
+      </c>
+      <c r="J225" s="5">
+        <v>0.21543921217192416</v>
+      </c>
+      <c r="K225" s="4">
+        <v>1.3583207995808622</v>
+      </c>
+      <c r="L225" s="6">
+        <v>0.73833896370061081</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
@@ -6441,8 +9838,23 @@
       <c r="G226" s="4">
         <v>12.827942798069557</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H226" s="5">
+        <v>2.3518186166771398</v>
+      </c>
+      <c r="I226" s="4">
+        <v>1.8004484202952884</v>
+      </c>
+      <c r="J226" s="5">
+        <v>0.20717630514649371</v>
+      </c>
+      <c r="K226" s="4">
+        <v>1.5335622197946366</v>
+      </c>
+      <c r="L226" s="6">
+        <v>0.85176681681506849</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
@@ -6464,8 +9876,23 @@
       <c r="G227" s="4">
         <v>18.675564916840472</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H227" s="5">
+        <v>2.4121086790761419</v>
+      </c>
+      <c r="I227" s="4">
+        <v>2.6014821632053726</v>
+      </c>
+      <c r="J227" s="5">
+        <v>0.20360444817779083</v>
+      </c>
+      <c r="K227" s="4">
+        <v>2.137138742184812</v>
+      </c>
+      <c r="L227" s="6">
+        <v>0.82150812810170204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
@@ -6487,8 +9914,23 @@
       <c r="G228" s="4">
         <v>11.467841600300289</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H228" s="5">
+        <v>2.8425932870241835</v>
+      </c>
+      <c r="I228" s="4">
+        <v>1.526662378095837</v>
+      </c>
+      <c r="J228" s="5">
+        <v>0.23970577857937436</v>
+      </c>
+      <c r="K228" s="4">
+        <v>1.359984306693431</v>
+      </c>
+      <c r="L228" s="6">
+        <v>0.89082191727924864</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
@@ -6510,8 +9952,23 @@
       <c r="G229" s="4">
         <v>10.227149172758232</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H229" s="5">
+        <v>2.712730641137143</v>
+      </c>
+      <c r="I229" s="4">
+        <v>1.3784682364174565</v>
+      </c>
+      <c r="J229" s="5">
+        <v>0.22417150485105053</v>
+      </c>
+      <c r="K229" s="4">
+        <v>1.0369738390590431</v>
+      </c>
+      <c r="L229" s="6">
+        <v>0.75226531280406295</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
@@ -6533,8 +9990,23 @@
       <c r="G230" s="4">
         <v>14.782682065506947</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H230" s="5">
+        <v>2.859308274554448</v>
+      </c>
+      <c r="I230" s="4">
+        <v>1.9649030781357921</v>
+      </c>
+      <c r="J230" s="5">
+        <v>0.22710783543712859</v>
+      </c>
+      <c r="K230" s="4">
+        <v>1.7407801189362331</v>
+      </c>
+      <c r="L230" s="6">
+        <v>0.88593688834148687</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -6556,8 +10028,23 @@
       <c r="G231" s="4">
         <v>16.262588136804425</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H231" s="5">
+        <v>2.7995420785212795</v>
+      </c>
+      <c r="I231" s="4">
+        <v>2.1735362054546026</v>
+      </c>
+      <c r="J231" s="5">
+        <v>0.21365330392859352</v>
+      </c>
+      <c r="K231" s="4">
+        <v>1.9131520260734094</v>
+      </c>
+      <c r="L231" s="6">
+        <v>0.88020251113013648</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -6579,8 +10066,23 @@
       <c r="G232" s="4">
         <v>10.557937837138297</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H232" s="5">
+        <v>3.7095258901745138</v>
+      </c>
+      <c r="I232" s="4">
+        <v>1.3200558946962211</v>
+      </c>
+      <c r="J232" s="5">
+        <v>0.27573979973182289</v>
+      </c>
+      <c r="K232" s="4">
+        <v>1.0840632721623051</v>
+      </c>
+      <c r="L232" s="6">
+        <v>0.82122528032176711</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -6602,8 +10104,23 @@
       <c r="G233" s="4">
         <v>9.9694653722204976</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H233" s="5">
+        <v>3.9359071011908071</v>
+      </c>
+      <c r="I233" s="4">
+        <v>1.2312610502554233</v>
+      </c>
+      <c r="J233" s="5">
+        <v>0.28675542490108386</v>
+      </c>
+      <c r="K233" s="4">
+        <v>0.98041825147881634</v>
+      </c>
+      <c r="L233" s="6">
+        <v>0.79627163652698196</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
@@ -6625,8 +10142,23 @@
       <c r="G234" s="4">
         <v>9.0544907470480211</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H234" s="5">
+        <v>4.3665169946611231</v>
+      </c>
+      <c r="I234" s="4">
+        <v>1.0959227979941053</v>
+      </c>
+      <c r="J234" s="5">
+        <v>0.30784339193546689</v>
+      </c>
+      <c r="K234" s="4">
+        <v>0.9510746549029877</v>
+      </c>
+      <c r="L234" s="6">
+        <v>0.86782997547250884</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -6648,8 +10180,23 @@
       <c r="G235" s="4">
         <v>18.153691003750282</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H235" s="5">
+        <v>4.1809799931634091</v>
+      </c>
+      <c r="I235" s="4">
+        <v>2.2152491774014975</v>
+      </c>
+      <c r="J235" s="5">
+        <v>0.29150563744847247</v>
+      </c>
+      <c r="K235" s="4">
+        <v>0.91071390381441719</v>
+      </c>
+      <c r="L235" s="6">
+        <v>0.41111127050849039</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
@@ -6671,8 +10218,23 @@
       <c r="G236" s="4">
         <v>12.606451887427284</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H236" s="5">
+        <v>4.4436811990142617</v>
+      </c>
+      <c r="I236" s="4">
+        <v>1.5208641949369106</v>
+      </c>
+      <c r="J236" s="5">
+        <v>0.30627946562110203</v>
+      </c>
+      <c r="K236" s="4">
+        <v>1.2809797671342893</v>
+      </c>
+      <c r="L236" s="6">
+        <v>0.84227097422556341</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
@@ -6694,8 +10256,23 @@
       <c r="G237" s="4">
         <v>13.139912354757598</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H237" s="5">
+        <v>4.2791927927428386</v>
+      </c>
+      <c r="I237" s="4">
+        <v>1.5964083273772309</v>
+      </c>
+      <c r="J237" s="5">
+        <v>0.29332601987818357</v>
+      </c>
+      <c r="K237" s="4">
+        <v>1.3448632179310482</v>
+      </c>
+      <c r="L237" s="6">
+        <v>0.84243059552348309</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -6717,8 +10294,23 @@
       <c r="G238" s="4">
         <v>13.464008503875903</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H238" s="5">
+        <v>4.2489258531818113</v>
+      </c>
+      <c r="I238" s="4">
+        <v>1.6379864293179689</v>
+      </c>
+      <c r="J238" s="5">
+        <v>0.2876344475862625</v>
+      </c>
+      <c r="K238" s="4">
+        <v>1.4705058587533906</v>
+      </c>
+      <c r="L238" s="6">
+        <v>0.8977521623092356</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -6740,8 +10332,23 @@
       <c r="G239" s="4">
         <v>12.693601502977685</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H239" s="5">
+        <v>4.624927339755633</v>
+      </c>
+      <c r="I239" s="4">
+        <v>1.5203526265094591</v>
+      </c>
+      <c r="J239" s="5">
+        <v>0.31283174080945547</v>
+      </c>
+      <c r="K239" s="4">
+        <v>1.180605282328721</v>
+      </c>
+      <c r="L239" s="6">
+        <v>0.77653385257027119</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
@@ -6763,8 +10370,23 @@
       <c r="G240" s="4">
         <v>14.708461825276686</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H240" s="5">
+        <v>4.7193640041948957</v>
+      </c>
+      <c r="I240" s="4">
+        <v>1.7553803556670129</v>
+      </c>
+      <c r="J240" s="5">
+        <v>0.31594942938967996</v>
+      </c>
+      <c r="K240" s="4">
+        <v>1.3458636956824905</v>
+      </c>
+      <c r="L240" s="6">
+        <v>0.76670773450184038</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -6786,8 +10408,23 @@
       <c r="G241" s="4">
         <v>13.637249719429747</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H241" s="5">
+        <v>4.9979002389522522</v>
+      </c>
+      <c r="I241" s="4">
+        <v>1.6116933925311825</v>
+      </c>
+      <c r="J241" s="5">
+        <v>0.3339472715264023</v>
+      </c>
+      <c r="K241" s="4">
+        <v>1.3421227786749803</v>
+      </c>
+      <c r="L241" s="6">
+        <v>0.83274075881589438</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
@@ -6809,8 +10446,23 @@
       <c r="G242" s="4">
         <v>16.04766393408363</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H242" s="5">
+        <v>4.3181206909024583</v>
+      </c>
+      <c r="I242" s="4">
+        <v>1.9462972312912736</v>
+      </c>
+      <c r="J242" s="5">
+        <v>0.28848264826024794</v>
+      </c>
+      <c r="K242" s="4">
+        <v>1.7779184235549443</v>
+      </c>
+      <c r="L242" s="6">
+        <v>0.913487618936488</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
@@ -6832,8 +10484,23 @@
       <c r="G243" s="4">
         <v>11.029650214971639</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H243" s="5">
+        <v>5.0772762894865195</v>
+      </c>
+      <c r="I243" s="4">
+        <v>1.3001484183917655</v>
+      </c>
+      <c r="J243" s="5">
+        <v>0.33628141595944883</v>
+      </c>
+      <c r="K243" s="4">
+        <v>1.0408170101353682</v>
+      </c>
+      <c r="L243" s="6">
+        <v>0.80053707362334792</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
@@ -6855,8 +10522,23 @@
       <c r="G244" s="4">
         <v>12.182165472599877</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H244" s="5">
+        <v>5.3215006431204026</v>
+      </c>
+      <c r="I244" s="4">
+        <v>1.4251474954506949</v>
+      </c>
+      <c r="J244" s="5">
+        <v>0.34519440972807724</v>
+      </c>
+      <c r="K244" s="4">
+        <v>1.0896687671398355</v>
+      </c>
+      <c r="L244" s="6">
+        <v>0.76460069615126691</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
@@ -6878,8 +10560,23 @@
       <c r="G245" s="4">
         <v>17.244109226186879</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H245" s="5">
+        <v>5.0364774746924326</v>
+      </c>
+      <c r="I245" s="4">
+        <v>2.0352876289712101</v>
+      </c>
+      <c r="J245" s="5">
+        <v>0.32353615431729393</v>
+      </c>
+      <c r="K245" s="4">
+        <v>1.8330353299333</v>
+      </c>
+      <c r="L245" s="6">
+        <v>0.90062716632334483</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
@@ -6901,8 +10598,23 @@
       <c r="G246" s="4">
         <v>13.148257289862386</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H246" s="5">
+        <v>5.6284246113844345</v>
+      </c>
+      <c r="I246" s="4">
+        <v>1.5248863539764497</v>
+      </c>
+      <c r="J246" s="5">
+        <v>0.35600385833239928</v>
+      </c>
+      <c r="K246" s="4">
+        <v>1.189121521761114</v>
+      </c>
+      <c r="L246" s="6">
+        <v>0.77980993053038938</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
@@ -6924,8 +10636,23 @@
       <c r="G247" s="4">
         <v>15.564847989322175</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H247" s="5">
+        <v>4.8935589579484855</v>
+      </c>
+      <c r="I247" s="4">
+        <v>1.8460087929162843</v>
+      </c>
+      <c r="J247" s="5">
+        <v>0.30872234806988413</v>
+      </c>
+      <c r="K247" s="4">
+        <v>1.4397141328375396</v>
+      </c>
+      <c r="L247" s="6">
+        <v>0.77990643292825867</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
@@ -6947,8 +10674,23 @@
       <c r="G248" s="4">
         <v>12.948091098173677</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H248" s="5">
+        <v>5.7068012077598347</v>
+      </c>
+      <c r="I248" s="4">
+        <v>1.4985629304300845</v>
+      </c>
+      <c r="J248" s="5">
+        <v>0.35856280256768885</v>
+      </c>
+      <c r="K248" s="4">
+        <v>1.1827253368072235</v>
+      </c>
+      <c r="L248" s="6">
+        <v>0.78923968609565431</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
@@ -6970,8 +10712,23 @@
       <c r="G249" s="4">
         <v>14.564788372526209</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H249" s="5">
+        <v>5.5000103329192838</v>
+      </c>
+      <c r="I249" s="4">
+        <v>1.6950988335211166</v>
+      </c>
+      <c r="J249" s="5">
+        <v>0.34495975738157791</v>
+      </c>
+      <c r="K249" s="4">
+        <v>1.4296808247939508</v>
+      </c>
+      <c r="L249" s="6">
+        <v>0.84342033427288088</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
@@ -6993,8 +10750,23 @@
       <c r="G250" s="4">
         <v>11.712268654254331</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H250" s="5">
+        <v>5.3141722361460078</v>
+      </c>
+      <c r="I250" s="4">
+        <v>1.3704798430613965</v>
+      </c>
+      <c r="J250" s="5">
+        <v>0.33296833856095703</v>
+      </c>
+      <c r="K250" s="4">
+        <v>1.0673097183342954</v>
+      </c>
+      <c r="L250" s="6">
+        <v>0.77878541865316619</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
@@ -7016,8 +10788,23 @@
       <c r="G251" s="4">
         <v>12.284290042499151</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H251" s="5">
+        <v>5.81168176602747</v>
+      </c>
+      <c r="I251" s="4">
+        <v>1.4179192151368381</v>
+      </c>
+      <c r="J251" s="5">
+        <v>0.3597129485347586</v>
+      </c>
+      <c r="K251" s="4">
+        <v>1.1629182461370724</v>
+      </c>
+      <c r="L251" s="6">
+        <v>0.8201583233533114</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
@@ -7039,8 +10826,23 @@
       <c r="G252" s="4">
         <v>11.570218586932242</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H252" s="5">
+        <v>5.776482871636401</v>
+      </c>
+      <c r="I252" s="4">
+        <v>1.3366992726578326</v>
+      </c>
+      <c r="J252" s="5">
+        <v>0.3571248595210284</v>
+      </c>
+      <c r="K252" s="4">
+        <v>1.0701801440208545</v>
+      </c>
+      <c r="L252" s="6">
+        <v>0.80061399441996883</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
@@ -7062,8 +10864,23 @@
       <c r="G253" s="4">
         <v>16.816413495379152</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H253" s="5">
+        <v>5.5468798551445095</v>
+      </c>
+      <c r="I253" s="4">
+        <v>1.9545616528609857</v>
+      </c>
+      <c r="J253" s="5">
+        <v>0.34245612317977836</v>
+      </c>
+      <c r="K253" s="4">
+        <v>1.7235115281787783</v>
+      </c>
+      <c r="L253" s="6">
+        <v>0.88178928797461642</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
@@ -7085,8 +10902,23 @@
       <c r="G254" s="4">
         <v>12.664700665016767</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H254" s="5">
+        <v>5.415746744084001</v>
+      </c>
+      <c r="I254" s="4">
+        <v>1.477513178642252</v>
+      </c>
+      <c r="J254" s="5">
+        <v>0.33325984971771272</v>
+      </c>
+      <c r="K254" s="4">
+        <v>1.2035235978682199</v>
+      </c>
+      <c r="L254" s="6">
+        <v>0.81456031341404855</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
@@ -7108,8 +10940,23 @@
       <c r="G255" s="4">
         <v>11.662382574271192</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H255" s="5">
+        <v>6.015982107163933</v>
+      </c>
+      <c r="I255" s="4">
+        <v>1.3394305899042676</v>
+      </c>
+      <c r="J255" s="5">
+        <v>0.36610480859109112</v>
+      </c>
+      <c r="K255" s="4">
+        <v>1.1502515053982429</v>
+      </c>
+      <c r="L255" s="6">
+        <v>0.85876156186671404</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -7131,8 +10978,23 @@
       <c r="G256" s="4">
         <v>14.697321128673138</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H256" s="5">
+        <v>5.7354437252772312</v>
+      </c>
+      <c r="I256" s="4">
+        <v>1.6997190137267013</v>
+      </c>
+      <c r="J256" s="5">
+        <v>0.34530681571998467</v>
+      </c>
+      <c r="K256" s="4">
+        <v>1.2649322753894692</v>
+      </c>
+      <c r="L256" s="6">
+        <v>0.74420081506063462</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -7154,8 +11016,23 @@
       <c r="G257" s="4">
         <v>14.100496706510967</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H257" s="5">
+        <v>7.1584455496197181</v>
+      </c>
+      <c r="I257" s="4">
+        <v>1.5825785614821162</v>
+      </c>
+      <c r="J257" s="5">
+        <v>0.39037938631562918</v>
+      </c>
+      <c r="K257" s="4">
+        <v>1.3078745003618526</v>
+      </c>
+      <c r="L257" s="6">
+        <v>0.82641995297661708</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
@@ -7177,8 +11054,23 @@
       <c r="G258" s="4">
         <v>16.625856123572021</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H258" s="5">
+        <v>7.543086300725351</v>
+      </c>
+      <c r="I258" s="4">
+        <v>1.8543043372137766</v>
+      </c>
+      <c r="J258" s="5">
+        <v>0.40468070097652964</v>
+      </c>
+      <c r="K258" s="4">
+        <v>1.6283245566080351</v>
+      </c>
+      <c r="L258" s="6">
+        <v>0.87813231298089256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
@@ -7200,8 +11092,23 @@
       <c r="G259" s="4">
         <v>13.650103398695137</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H259" s="5">
+        <v>8.6727600147788273</v>
+      </c>
+      <c r="I259" s="4">
+        <v>1.499246187036174</v>
+      </c>
+      <c r="J259" s="5">
+        <v>0.43583972958035788</v>
+      </c>
+      <c r="K259" s="4">
+        <v>1.3137494970803436</v>
+      </c>
+      <c r="L259" s="6">
+        <v>0.87627336220041707</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
@@ -7223,8 +11130,23 @@
       <c r="G260" s="4">
         <v>20.012558102145249</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H260" s="5">
+        <v>8.7061507897918791</v>
+      </c>
+      <c r="I260" s="4">
+        <v>2.1970367127985302</v>
+      </c>
+      <c r="J260" s="5">
+        <v>0.42893965922055188</v>
+      </c>
+      <c r="K260" s="4">
+        <v>2.0451804419981743</v>
+      </c>
+      <c r="L260" s="6">
+        <v>0.93088132304947924</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
@@ -7246,8 +11168,23 @@
       <c r="G261" s="4">
         <v>18.585112878053451</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H261" s="5">
+        <v>8.4997832689298107</v>
+      </c>
+      <c r="I261" s="4">
+        <v>2.0454677772359497</v>
+      </c>
+      <c r="J261" s="5">
+        <v>0.41745411031420154</v>
+      </c>
+      <c r="K261" s="4">
+        <v>1.5089270563867003</v>
+      </c>
+      <c r="L261" s="6">
+        <v>0.73769289997113552</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
@@ -7269,8 +11206,23 @@
       <c r="G262" s="4">
         <v>12.384802235589177</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H262" s="5">
+        <v>9.2573907714176347</v>
+      </c>
+      <c r="I262" s="4">
+        <v>1.3514062828782558</v>
+      </c>
+      <c r="J262" s="5">
+        <v>0.44682872831358844</v>
+      </c>
+      <c r="K262" s="4">
+        <v>0.98256275680964134</v>
+      </c>
+      <c r="L262" s="6">
+        <v>0.72706688525744956</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
@@ -7292,8 +11244,23 @@
       <c r="G263" s="4">
         <v>18.922021652588455</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H263" s="5">
+        <v>8.6485946826344087</v>
+      </c>
+      <c r="I263" s="4">
+        <v>2.078767286288604</v>
+      </c>
+      <c r="J263" s="5">
+        <v>0.41304751956401387</v>
+      </c>
+      <c r="K263" s="4">
+        <v>1.7164633929764987</v>
+      </c>
+      <c r="L263" s="6">
+        <v>0.82571214406642079</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
@@ -7315,8 +11282,23 @@
       <c r="G264" s="4">
         <v>30.527970245027973</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H264" s="5">
+        <v>8.5527652306831587</v>
+      </c>
+      <c r="I264" s="4">
+        <v>3.3570649407181405</v>
+      </c>
+      <c r="J264" s="5">
+        <v>0.39334379622081495</v>
+      </c>
+      <c r="K264" s="4">
+        <v>1.336712535065083</v>
+      </c>
+      <c r="L264" s="6">
+        <v>0.39817893268967741</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -7338,8 +11320,23 @@
       <c r="G265" s="4">
         <v>13.416593990342562</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H265" s="5">
+        <v>9.6079435638615873</v>
+      </c>
+      <c r="I265" s="4">
+        <v>1.4587734487255182</v>
+      </c>
+      <c r="J265" s="5">
+        <v>0.43562435253845178</v>
+      </c>
+      <c r="K265" s="4">
+        <v>1.2523625385886601</v>
+      </c>
+      <c r="L265" s="6">
+        <v>0.85850379281498956</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
@@ -7361,8 +11358,23 @@
       <c r="G266" s="4">
         <v>14.530940646893669</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H266" s="5">
+        <v>10.062107656186566</v>
+      </c>
+      <c r="I266" s="4">
+        <v>1.5731969397627263</v>
+      </c>
+      <c r="J266" s="5">
+        <v>0.45621180199637845</v>
+      </c>
+      <c r="K266" s="4">
+        <v>1.3498241347973596</v>
+      </c>
+      <c r="L266" s="6">
+        <v>0.85801345062427037</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
@@ -7384,8 +11396,23 @@
       <c r="G267" s="4">
         <v>14.660232361305134</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H267" s="5">
+        <v>10.790120201766911</v>
+      </c>
+      <c r="I267" s="4">
+        <v>1.5775121649636479</v>
+      </c>
+      <c r="J267" s="5">
+        <v>0.47865783881529744</v>
+      </c>
+      <c r="K267" s="4">
+        <v>1.2129711829123677</v>
+      </c>
+      <c r="L267" s="6">
+        <v>0.76891399626089063</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
@@ -7406,6 +11433,21 @@
       </c>
       <c r="G268" s="4">
         <v>15.069311338072566</v>
+      </c>
+      <c r="H268" s="5">
+        <v>10.871194552419835</v>
+      </c>
+      <c r="I268" s="4">
+        <v>1.6204989941915777</v>
+      </c>
+      <c r="J268" s="5">
+        <v>0.46595938682608173</v>
+      </c>
+      <c r="K268" s="4">
+        <v>1.4863393125837332</v>
+      </c>
+      <c r="L268" s="6">
+        <v>0.91721088251907645</v>
       </c>
     </row>
   </sheetData>
